--- a/的施工单统计.xlsx
+++ b/的施工单统计.xlsx
@@ -4,26 +4,29 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="出入登记" sheetId="2" r:id="rId1"/>
-    <sheet name="设备入机房工单" sheetId="5" r:id="rId2"/>
-    <sheet name="设备出机房工单" sheetId="4" r:id="rId3"/>
-    <sheet name="业务工单" sheetId="1" r:id="rId4"/>
-    <sheet name="设备重启工单" sheetId="6" r:id="rId5"/>
-    <sheet name="人员入机房工单" sheetId="3" r:id="rId6"/>
+    <sheet name="人员入机房工单" sheetId="3" r:id="rId2"/>
+    <sheet name="设备入机房工单" sheetId="5" r:id="rId3"/>
+    <sheet name="设备出机房工单" sheetId="4" r:id="rId4"/>
+    <sheet name="业务工单" sheetId="1" r:id="rId5"/>
+    <sheet name="设备重启工单" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet4" sheetId="10" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId9"/>
+    <sheet name="Sheet3" sheetId="9" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">业务工单!$A$3:$R$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">业务工单!$A$3:$R$54</definedName>
   </definedNames>
   <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1943" uniqueCount="640">
   <si>
     <t>客户编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1490,7 +1493,894 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>出入登记</t>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>客户单位</t>
+  </si>
+  <si>
+    <t>搬移主机数量</t>
+  </si>
+  <si>
+    <t>搬移主机型号</t>
+  </si>
+  <si>
+    <t>CRM系统业务号码</t>
+  </si>
+  <si>
+    <t>工单附件</t>
+  </si>
+  <si>
+    <t>工单附件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重启时间</t>
+  </si>
+  <si>
+    <t>传真单号</t>
+  </si>
+  <si>
+    <t>服务器设备型号</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>人数</t>
+  </si>
+  <si>
+    <t>人数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>机房接待人员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工单编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>机架编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>施工类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>施工人员</t>
+  </si>
+  <si>
+    <t>施工人员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>证件名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>证件号码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人电话</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人姓名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>机房出入登记</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入机房事由</t>
+  </si>
+  <si>
+    <t>进入机房事由</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>批准部门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>批准部门联系人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>批准部门联系人电话</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>离开时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDC机房接待人员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户联系人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效期（天）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入机房名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>证件名称/证件号码/联系人电话</t>
+  </si>
+  <si>
+    <t>进入机房名称/事由</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>批准部门/联系人/电话</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>机房随工人签名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工单编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户联系人电话</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户联系人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户联系人电话</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>施工人员信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>存放机房机柜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原存放机房机柜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联工单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入机房事由类别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>要求重启时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>机房机柜名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系电话</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器固资号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>竣工时间</t>
+  </si>
+  <si>
+    <t>宽带类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>机架规格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>机架类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电路数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>customer_name</t>
+  </si>
+  <si>
+    <t>customer_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>customer_number</t>
+  </si>
+  <si>
+    <t>customer_number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fax_number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>contact_number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>call_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>construction_personnel</t>
+  </si>
+  <si>
+    <t>construction_personnel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>work_order</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>work_list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attachment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Room_cabinet_name</t>
+  </si>
+  <si>
+    <t>server_fixed_number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>server_device_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>request_restart_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>restart_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ddate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>=</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0perator </t>
+  </si>
+  <si>
+    <t xml:space="preserve">operator </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>To_date</t>
+  </si>
+  <si>
+    <t>contract_number</t>
+  </si>
+  <si>
+    <t>contract_number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>contact_person</t>
+  </si>
+  <si>
+    <t>contact_person</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>telephone_number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>construction_type</t>
+  </si>
+  <si>
+    <t>construction_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>circuit_requirements</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>completion_time</t>
+  </si>
+  <si>
+    <t>completion_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRM_serial_number_records</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>single_serial_number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>job_number</t>
+  </si>
+  <si>
+    <t>job_number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>job_attachment</t>
+  </si>
+  <si>
+    <t>job_attachment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0perator</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Access_level</t>
+  </si>
+  <si>
+    <t>port_coding</t>
+  </si>
+  <si>
+    <t>broadband_type</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>IP_address</t>
+  </si>
+  <si>
+    <t>IP_address_number</t>
+  </si>
+  <si>
+    <t>rack_number</t>
+  </si>
+  <si>
+    <t>required_completion_time</t>
+  </si>
+  <si>
+    <t>contact_telephone_number</t>
+  </si>
+  <si>
+    <t>frame_number</t>
+  </si>
+  <si>
+    <t>serial_number_CRM_records</t>
+  </si>
+  <si>
+    <t>the_single_serial_number</t>
+  </si>
+  <si>
+    <t>Rack_type</t>
+  </si>
+  <si>
+    <t>rack_specification</t>
+  </si>
+  <si>
+    <t>power_requirements</t>
+  </si>
+  <si>
+    <t>=models.CharField(max_length=30)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>=models.CharField(max_length=34)</t>
+  </si>
+  <si>
+    <t>设备重启工单</t>
+  </si>
+  <si>
+    <t>devRe_date</t>
+  </si>
+  <si>
+    <t>devRe_customer_name</t>
+  </si>
+  <si>
+    <t>devRe_customer_number</t>
+  </si>
+  <si>
+    <t>devRe_fax_number</t>
+  </si>
+  <si>
+    <t>devRe_contact_number</t>
+  </si>
+  <si>
+    <t>devRe_work_order</t>
+  </si>
+  <si>
+    <t>devRe_work_list</t>
+  </si>
+  <si>
+    <t>devRe_attachment</t>
+  </si>
+  <si>
+    <t>devRe_operator</t>
+  </si>
+  <si>
+    <t>devReB_Room_cabinet_name</t>
+  </si>
+  <si>
+    <t>devReB_server_fixed_number</t>
+  </si>
+  <si>
+    <t>devReB_server_device_type</t>
+  </si>
+  <si>
+    <t>devReB_request_restart_time</t>
+  </si>
+  <si>
+    <t>devReB_remark</t>
+  </si>
+  <si>
+    <t>devReB_restart_time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">devReB_operator </t>
+  </si>
+  <si>
+    <t>=models.DateTimeField(auto_now_add)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>=models.CharField(max_length=131)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>=models.CharField(max_length=13)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>=models.CharField(max_length=22)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>=models.CharField(max_length=15)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>=models.CharField(max_length=14)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>=models.DateTimeField()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>devRe_callphone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>devRe_remark</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>=models.TextField(max_length=137)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>=models.FilePathField()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>devRe_Request_rester_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>=models.CharField(max_length=31)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>=models.CharField(max_length=32)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>the_customer_unit_number</t>
+  </si>
+  <si>
+    <t>contact_name</t>
+  </si>
+  <si>
+    <t>ID_number</t>
+  </si>
+  <si>
+    <t>enter_the_room_for_classes</t>
+  </si>
+  <si>
+    <t>entering_the_room_for_entering_the_room_name</t>
+  </si>
+  <si>
+    <t>the_approval_of_the_Department</t>
+  </si>
+  <si>
+    <t>the_approval_department_approval_department_contacts</t>
+  </si>
+  <si>
+    <t>contact_telephone</t>
+  </si>
+  <si>
+    <t>related_work_orders</t>
+  </si>
+  <si>
+    <t>entry_time</t>
+  </si>
+  <si>
+    <t>departure_time</t>
+  </si>
+  <si>
+    <t>IDC_room_reception_staff</t>
+  </si>
+  <si>
+    <t>客户名称</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>IDC_Room_Reception_staff</t>
+  </si>
+  <si>
+    <t>entering_room_name</t>
+  </si>
+  <si>
+    <t>approval_Department</t>
+  </si>
+  <si>
+    <t>approval_department_contacts</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID_number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0perator</t>
+  </si>
+  <si>
+    <t>enter_room_classes</t>
+  </si>
+  <si>
+    <t>entering_room_Reasons</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>enter_the_room</t>
+  </si>
+  <si>
+    <t>subject_categories</t>
+  </si>
+  <si>
+    <t>enter_the_room_for_entering_the_room_name</t>
+  </si>
+  <si>
+    <t>enter_the_time_period_(days)</t>
+  </si>
+  <si>
+    <t>approval_department_contacts_telephone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>approval_Department_contacts</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>period_days</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>机房出入登记</t>
+  </si>
+  <si>
+    <t>人员进机房工单</t>
+  </si>
+  <si>
+    <t>设备进机房工单</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>customer_contact</t>
+  </si>
+  <si>
+    <t>customer_contact_telephone_number</t>
+  </si>
+  <si>
+    <t>host</t>
+  </si>
+  <si>
+    <t>host_use</t>
+  </si>
+  <si>
+    <t>storage_room_cabinet</t>
+  </si>
+  <si>
+    <t>CRM_service_number</t>
+  </si>
+  <si>
+    <t>approval_department</t>
+  </si>
+  <si>
+    <t>approval_department_approval_department_contact</t>
+  </si>
+  <si>
+    <t>access_time</t>
+  </si>
+  <si>
+    <t>information_construction_workers</t>
+  </si>
+  <si>
+    <t>设备出机房工单</t>
+  </si>
+  <si>
+    <t>_server_fixed_number</t>
+  </si>
+  <si>
+    <t>_server_device_type</t>
+  </si>
+  <si>
+    <t>_request_restart_time</t>
+  </si>
+  <si>
+    <t>_remark</t>
+  </si>
+  <si>
+    <t>_restart_time</t>
+  </si>
+  <si>
+    <t>_customer_name</t>
+  </si>
+  <si>
+    <t>_customer_number</t>
+  </si>
+  <si>
+    <t>_contract_number</t>
+  </si>
+  <si>
+    <t>_contact_person</t>
+  </si>
+  <si>
+    <t>_telephone_number</t>
+  </si>
+  <si>
+    <t>_construction_type</t>
+  </si>
+  <si>
+    <t>_circuit_requirements</t>
+  </si>
+  <si>
+    <t>_completion_time</t>
+  </si>
+  <si>
+    <t>_CRM_serial_number_records</t>
+  </si>
+  <si>
+    <t>_single_serial_number</t>
+  </si>
+  <si>
+    <t>_construction_personnel</t>
+  </si>
+  <si>
+    <t>_job_number</t>
+  </si>
+  <si>
+    <t>_job_attachment</t>
+  </si>
+  <si>
+    <t>_customer_contact</t>
+  </si>
+  <si>
+    <t>_customer_contact_telephone_number_of_hosts</t>
+  </si>
+  <si>
+    <t>_move</t>
+  </si>
+  <si>
+    <t>_transport_model</t>
+  </si>
+  <si>
+    <t>_storage_room_cabinet</t>
+  </si>
+  <si>
+    <t>_CRM_service_number</t>
+  </si>
+  <si>
+    <t>_approval_department</t>
+  </si>
+  <si>
+    <t>_approval_department_approval_department_contact</t>
+  </si>
+  <si>
+    <t>_contact_telephone</t>
+  </si>
+  <si>
+    <t>_departure_time</t>
+  </si>
+  <si>
+    <t>_construction_personnel_information</t>
+  </si>
+  <si>
+    <t>host_number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>move_host_number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>host_model</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>contact_telephone_number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>customer_contact_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>customer_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>storage_room_cabinet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRM_service_number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>departure_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参观工单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Computer_room_Receptionist </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>visit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>visit_to_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>visit_customer_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>visit_number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>visit_contact_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>visit_contact_telephone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>visit_approval_department</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>visit_approval_Department_contacts</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>visit_approval_department_contacts_telephone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>visit_access_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>visit_period_days</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>job_number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>=models.IntegerField()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>=models.CharField(max_length=14)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>=models.CharField(max_length=35)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>=models.CharField(max_length=144)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>To_date</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1498,7 +2388,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1626,8 +2516,23 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1640,8 +2545,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1686,6 +2609,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1694,7 +2654,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1775,6 +2735,58 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1787,15 +2799,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1804,6 +2807,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2113,12 +3121,431 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:R23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23:Q23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:18" ht="14.25">
+      <c r="C3" s="40" t="s">
+        <v>459</v>
+      </c>
+      <c r="D3" t="s">
+        <v>583</v>
+      </c>
+      <c r="E3" t="s">
+        <v>584</v>
+      </c>
+      <c r="F3" t="s">
+        <v>585</v>
+      </c>
+      <c r="G3" t="s">
+        <v>586</v>
+      </c>
+      <c r="H3" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="6" spans="3:18" ht="14.25">
+      <c r="C6" s="40" t="s">
+        <v>469</v>
+      </c>
+      <c r="D6" t="s">
+        <v>588</v>
+      </c>
+      <c r="E6" t="s">
+        <v>589</v>
+      </c>
+      <c r="F6" t="s">
+        <v>590</v>
+      </c>
+      <c r="G6" t="s">
+        <v>591</v>
+      </c>
+      <c r="H6" t="s">
+        <v>592</v>
+      </c>
+      <c r="I6" t="s">
+        <v>593</v>
+      </c>
+      <c r="J6" t="s">
+        <v>594</v>
+      </c>
+      <c r="K6" t="s">
+        <v>595</v>
+      </c>
+      <c r="L6" t="s">
+        <v>596</v>
+      </c>
+      <c r="M6" t="s">
+        <v>597</v>
+      </c>
+      <c r="N6" t="s">
+        <v>598</v>
+      </c>
+      <c r="O6" t="s">
+        <v>599</v>
+      </c>
+      <c r="P6" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="8" spans="3:18">
+      <c r="C8" t="s">
+        <v>487</v>
+      </c>
+      <c r="D8" t="s">
+        <v>488</v>
+      </c>
+      <c r="E8" t="s">
+        <v>489</v>
+      </c>
+      <c r="F8" t="s">
+        <v>490</v>
+      </c>
+      <c r="G8" t="s">
+        <v>491</v>
+      </c>
+      <c r="H8" t="s">
+        <v>492</v>
+      </c>
+      <c r="I8" t="s">
+        <v>493</v>
+      </c>
+      <c r="J8" t="s">
+        <v>494</v>
+      </c>
+      <c r="K8" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="11" spans="3:18">
+      <c r="C11" t="s">
+        <v>469</v>
+      </c>
+      <c r="D11" t="s">
+        <v>446</v>
+      </c>
+      <c r="E11" t="s">
+        <v>448</v>
+      </c>
+      <c r="F11" t="s">
+        <v>470</v>
+      </c>
+      <c r="G11" t="s">
+        <v>472</v>
+      </c>
+      <c r="H11" t="s">
+        <v>495</v>
+      </c>
+      <c r="I11" t="s">
+        <v>475</v>
+      </c>
+      <c r="J11" t="s">
+        <v>496</v>
+      </c>
+      <c r="K11" t="s">
+        <v>497</v>
+      </c>
+      <c r="L11" t="s">
+        <v>498</v>
+      </c>
+      <c r="M11" t="s">
+        <v>454</v>
+      </c>
+      <c r="N11" t="s">
+        <v>482</v>
+      </c>
+      <c r="O11" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="14" spans="3:18">
+      <c r="C14" t="s">
+        <v>469</v>
+      </c>
+      <c r="D14" t="s">
+        <v>537</v>
+      </c>
+      <c r="E14" t="s">
+        <v>538</v>
+      </c>
+      <c r="F14" t="s">
+        <v>535</v>
+      </c>
+      <c r="G14" t="s">
+        <v>536</v>
+      </c>
+      <c r="H14" t="s">
+        <v>539</v>
+      </c>
+      <c r="I14" t="s">
+        <v>540</v>
+      </c>
+      <c r="J14" t="s">
+        <v>541</v>
+      </c>
+      <c r="K14" t="s">
+        <v>542</v>
+      </c>
+      <c r="L14" t="s">
+        <v>543</v>
+      </c>
+      <c r="M14" t="s">
+        <v>544</v>
+      </c>
+      <c r="N14" t="s">
+        <v>545</v>
+      </c>
+      <c r="O14" t="s">
+        <v>546</v>
+      </c>
+      <c r="P14" t="s">
+        <v>547</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="16" spans="3:18">
+      <c r="C16" t="s">
+        <v>469</v>
+      </c>
+      <c r="D16" t="s">
+        <v>446</v>
+      </c>
+      <c r="E16" t="s">
+        <v>538</v>
+      </c>
+      <c r="F16" t="s">
+        <v>495</v>
+      </c>
+      <c r="G16" t="s">
+        <v>550</v>
+      </c>
+      <c r="H16" t="s">
+        <v>536</v>
+      </c>
+      <c r="I16" t="s">
+        <v>539</v>
+      </c>
+      <c r="J16" t="s">
+        <v>540</v>
+      </c>
+      <c r="K16" t="s">
+        <v>541</v>
+      </c>
+      <c r="L16" t="s">
+        <v>542</v>
+      </c>
+      <c r="M16" t="s">
+        <v>543</v>
+      </c>
+      <c r="N16" t="s">
+        <v>544</v>
+      </c>
+      <c r="O16" t="s">
+        <v>545</v>
+      </c>
+      <c r="P16" t="s">
+        <v>546</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>547</v>
+      </c>
+      <c r="R16" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17">
+      <c r="C18" t="s">
+        <v>469</v>
+      </c>
+      <c r="D18" t="s">
+        <v>446</v>
+      </c>
+      <c r="E18" t="s">
+        <v>495</v>
+      </c>
+      <c r="F18" t="s">
+        <v>538</v>
+      </c>
+      <c r="G18" t="s">
+        <v>561</v>
+      </c>
+      <c r="H18" t="s">
+        <v>562</v>
+      </c>
+      <c r="I18" t="s">
+        <v>563</v>
+      </c>
+      <c r="J18" t="s">
+        <v>542</v>
+      </c>
+      <c r="K18" t="s">
+        <v>543</v>
+      </c>
+      <c r="L18" t="s">
+        <v>544</v>
+      </c>
+      <c r="M18" t="s">
+        <v>564</v>
+      </c>
+      <c r="N18" t="s">
+        <v>482</v>
+      </c>
+      <c r="O18" t="s">
+        <v>484</v>
+      </c>
+      <c r="P18" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17">
+      <c r="C21" t="s">
+        <v>571</v>
+      </c>
+      <c r="D21" t="s">
+        <v>446</v>
+      </c>
+      <c r="E21" t="s">
+        <v>572</v>
+      </c>
+      <c r="F21" t="s">
+        <v>573</v>
+      </c>
+      <c r="G21" t="s">
+        <v>574</v>
+      </c>
+      <c r="H21" t="s">
+        <v>575</v>
+      </c>
+      <c r="I21" t="s">
+        <v>576</v>
+      </c>
+      <c r="J21" t="s">
+        <v>577</v>
+      </c>
+      <c r="K21" t="s">
+        <v>578</v>
+      </c>
+      <c r="L21" t="s">
+        <v>579</v>
+      </c>
+      <c r="M21" t="s">
+        <v>544</v>
+      </c>
+      <c r="N21" t="s">
+        <v>580</v>
+      </c>
+      <c r="O21" t="s">
+        <v>581</v>
+      </c>
+      <c r="P21" t="s">
+        <v>482</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" ht="14.25">
+      <c r="C23" s="40" t="s">
+        <v>571</v>
+      </c>
+      <c r="D23" t="s">
+        <v>588</v>
+      </c>
+      <c r="E23" t="s">
+        <v>601</v>
+      </c>
+      <c r="F23" t="s">
+        <v>602</v>
+      </c>
+      <c r="G23" t="s">
+        <v>603</v>
+      </c>
+      <c r="H23" t="s">
+        <v>604</v>
+      </c>
+      <c r="I23" t="s">
+        <v>605</v>
+      </c>
+      <c r="J23" t="s">
+        <v>606</v>
+      </c>
+      <c r="K23" t="s">
+        <v>607</v>
+      </c>
+      <c r="L23" t="s">
+        <v>608</v>
+      </c>
+      <c r="M23" t="s">
+        <v>609</v>
+      </c>
+      <c r="N23" t="s">
+        <v>610</v>
+      </c>
+      <c r="O23" t="s">
+        <v>611</v>
+      </c>
+      <c r="P23" t="s">
+        <v>599</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>600</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I40"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2136,16 +3563,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="33.75" customHeight="1">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="46" t="s">
         <v>322</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
     </row>
     <row r="3" spans="1:9" ht="27">
       <c r="B3" s="2" t="s">
@@ -3068,12 +4495,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B3" sqref="B3:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3091,16 +4518,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="33.75" customHeight="1">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="46" t="s">
         <v>323</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
     </row>
     <row r="3" spans="1:10" ht="27">
       <c r="B3" s="2" t="s">
@@ -3764,7 +5191,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -3772,7 +5199,7 @@
   <dimension ref="A2:R112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="R3" sqref="B3:R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="33" customHeight="1"/>
@@ -3799,22 +5226,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="33" customHeight="1">
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="48" t="s">
         <v>324</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
     </row>
     <row r="3" spans="1:18" ht="33" customHeight="1">
       <c r="B3" s="2" t="s">
@@ -3864,6 +5291,9 @@
       </c>
       <c r="Q3" s="7" t="s">
         <v>29</v>
+      </c>
+      <c r="R3" s="29" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="33" customHeight="1">
@@ -8055,12 +9485,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8369,166 +9799,2756 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:AB44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="2.75" style="31" customWidth="1"/>
+    <col min="2" max="2" width="2.5" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="1.625" style="39" customWidth="1"/>
+    <col min="5" max="5" width="14.625" style="31" customWidth="1"/>
+    <col min="6" max="6" width="1.625" style="39" customWidth="1"/>
+    <col min="7" max="7" width="14.625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="1.625" style="39" customWidth="1"/>
+    <col min="9" max="9" width="9" style="31" bestFit="1" customWidth="1"/>
+    <col min="10" max="25" width="9.625" style="31" customWidth="1"/>
+    <col min="26" max="16384" width="9" style="31"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:26" ht="27" customHeight="1">
+      <c r="B2" s="28">
+        <v>1</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>408</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="J2" s="35" t="s">
+        <v>549</v>
+      </c>
+      <c r="K2" s="35" t="s">
+        <v>396</v>
+      </c>
+      <c r="L2" s="35" t="s">
+        <v>407</v>
+      </c>
+      <c r="M2" s="35" t="s">
+        <v>406</v>
+      </c>
+      <c r="N2" s="35" t="s">
+        <v>404</v>
+      </c>
+      <c r="O2" s="35" t="s">
+        <v>405</v>
+      </c>
+      <c r="P2" s="35" t="s">
+        <v>434</v>
+      </c>
+      <c r="Q2" s="35" t="s">
+        <v>410</v>
+      </c>
+      <c r="R2" s="35" t="s">
+        <v>420</v>
+      </c>
+      <c r="S2" s="28" t="s">
+        <v>411</v>
+      </c>
+      <c r="T2" s="28" t="s">
+        <v>412</v>
+      </c>
+      <c r="U2" s="28" t="s">
+        <v>413</v>
+      </c>
+      <c r="V2" s="28" t="s">
+        <v>433</v>
+      </c>
+      <c r="W2" s="28" t="s">
+        <v>414</v>
+      </c>
+      <c r="X2" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="Y2" s="28" t="s">
+        <v>416</v>
+      </c>
+      <c r="Z2" s="31" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="3" spans="2:26" ht="27" customHeight="1">
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="E3" s="30"/>
+    </row>
+    <row r="4" spans="2:26" ht="27" customHeight="1">
+      <c r="B4" s="28">
+        <v>2</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>379</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>380</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="J4" s="35" t="s">
+        <v>549</v>
+      </c>
+      <c r="K4" s="35" t="s">
+        <v>396</v>
+      </c>
+      <c r="L4" s="35" t="s">
+        <v>407</v>
+      </c>
+      <c r="M4" s="35" t="s">
+        <v>406</v>
+      </c>
+      <c r="N4" s="35" t="s">
+        <v>434</v>
+      </c>
+      <c r="O4" s="35" t="s">
+        <v>409</v>
+      </c>
+      <c r="P4" s="35" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q4" s="28" t="s">
+        <v>411</v>
+      </c>
+      <c r="R4" s="28" t="s">
+        <v>412</v>
+      </c>
+      <c r="S4" s="28" t="s">
+        <v>413</v>
+      </c>
+      <c r="T4" s="28" t="s">
+        <v>418</v>
+      </c>
+      <c r="U4" s="28" t="s">
+        <v>419</v>
+      </c>
+      <c r="V4" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="W4" s="28" t="s">
+        <v>390</v>
+      </c>
+      <c r="X4" s="31" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="5" spans="2:26" ht="27" customHeight="1">
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="G5" s="28"/>
+    </row>
+    <row r="6" spans="2:26" ht="27" customHeight="1">
+      <c r="B6" s="28">
+        <v>3</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>380</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>381</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="J6" s="35" t="s">
+        <v>549</v>
+      </c>
+      <c r="K6" s="35" t="s">
+        <v>428</v>
+      </c>
+      <c r="L6" s="35" t="s">
+        <v>429</v>
+      </c>
+      <c r="M6" s="35" t="s">
+        <v>254</v>
+      </c>
+      <c r="N6" s="35" t="s">
+        <v>255</v>
+      </c>
+      <c r="O6" s="35" t="s">
+        <v>431</v>
+      </c>
+      <c r="P6" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q6" s="28" t="s">
+        <v>411</v>
+      </c>
+      <c r="R6" s="28" t="s">
+        <v>412</v>
+      </c>
+      <c r="S6" s="28" t="s">
+        <v>413</v>
+      </c>
+      <c r="T6" s="28" t="s">
+        <v>414</v>
+      </c>
+      <c r="U6" s="28" t="s">
+        <v>430</v>
+      </c>
+      <c r="V6" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="W6" s="28" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="7" spans="2:26" ht="27" customHeight="1">
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="G7" s="28"/>
+    </row>
+    <row r="8" spans="2:26" ht="27" customHeight="1">
+      <c r="B8" s="28">
+        <v>4</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>381</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>382</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="J8" s="35" t="s">
+        <v>549</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>428</v>
+      </c>
+      <c r="L8" s="35" t="s">
+        <v>429</v>
+      </c>
+      <c r="M8" s="35" t="s">
+        <v>387</v>
+      </c>
+      <c r="N8" s="35" t="s">
+        <v>388</v>
+      </c>
+      <c r="O8" s="35" t="s">
+        <v>432</v>
+      </c>
+      <c r="P8" s="35" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q8" s="28" t="s">
+        <v>411</v>
+      </c>
+      <c r="R8" s="28" t="s">
+        <v>412</v>
+      </c>
+      <c r="S8" s="28" t="s">
+        <v>413</v>
+      </c>
+      <c r="T8" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="U8" s="28" t="s">
+        <v>430</v>
+      </c>
+      <c r="V8" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="W8" s="28" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="9" spans="2:26" ht="27" customHeight="1">
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="G9" s="28"/>
+    </row>
+    <row r="10" spans="2:26" ht="27" customHeight="1">
+      <c r="B10" s="28">
+        <v>5</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>382</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>384</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="J10" s="35" t="s">
+        <v>549</v>
+      </c>
+      <c r="K10" s="35" t="s">
+        <v>397</v>
+      </c>
+      <c r="L10" s="35" t="s">
+        <v>417</v>
+      </c>
+      <c r="M10" s="35" t="s">
+        <v>427</v>
+      </c>
+      <c r="N10" s="28" t="s">
+        <v>411</v>
+      </c>
+      <c r="O10" s="28" t="s">
+        <v>412</v>
+      </c>
+      <c r="P10" s="28" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q10" s="28" t="s">
+        <v>414</v>
+      </c>
+      <c r="R10" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="S10" s="28" t="s">
+        <v>398</v>
+      </c>
+      <c r="T10" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="U10" s="28" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="11" spans="2:26" ht="27" customHeight="1">
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+    </row>
+    <row r="12" spans="2:26" ht="27" customHeight="1">
+      <c r="B12" s="28">
+        <v>6</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="I12" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="J12" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="K12" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M12" s="35" t="s">
+        <v>439</v>
+      </c>
+      <c r="N12" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="O12" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="P12" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q12" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="R12" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="S12" s="28" t="s">
+        <v>403</v>
+      </c>
+      <c r="T12" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="U12" s="28" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="13" spans="2:26" ht="27" customHeight="1">
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="I13" s="30" t="s">
+        <v>469</v>
+      </c>
+      <c r="J13" s="36" t="s">
+        <v>446</v>
+      </c>
+      <c r="K13" s="36" t="s">
+        <v>448</v>
+      </c>
+      <c r="L13" s="36" t="s">
+        <v>470</v>
+      </c>
+      <c r="M13" s="36" t="s">
+        <v>472</v>
+      </c>
+      <c r="N13" s="36" t="s">
+        <v>495</v>
+      </c>
+      <c r="O13" s="28" t="s">
+        <v>475</v>
+      </c>
+      <c r="P13" s="28" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q13" s="28" t="s">
+        <v>497</v>
+      </c>
+      <c r="R13" s="28" t="s">
+        <v>498</v>
+      </c>
+      <c r="S13" s="28" t="s">
+        <v>454</v>
+      </c>
+      <c r="T13" s="28" t="s">
+        <v>482</v>
+      </c>
+      <c r="U13" s="28" t="s">
+        <v>484</v>
+      </c>
+      <c r="V13" s="28" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="14" spans="2:26" ht="27" customHeight="1">
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="O14" s="28" t="s">
+        <v>443</v>
+      </c>
+      <c r="P14" s="28" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q14" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="R14" s="28" t="s">
+        <v>400</v>
+      </c>
+      <c r="S14" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="T14" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="U14" s="28" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="15" spans="2:26" ht="27" customHeight="1">
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="O15" s="30" t="s">
+        <v>499</v>
+      </c>
+      <c r="P15" s="30" t="s">
+        <v>500</v>
+      </c>
+      <c r="Q15" s="30" t="s">
+        <v>493</v>
+      </c>
+      <c r="R15" s="30" t="s">
+        <v>493</v>
+      </c>
+      <c r="S15" s="30" t="s">
+        <v>501</v>
+      </c>
+      <c r="T15" s="30" t="s">
+        <v>494</v>
+      </c>
+      <c r="U15" s="30" t="s">
+        <v>478</v>
+      </c>
+      <c r="V15" s="28" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="16" spans="2:26" ht="27" customHeight="1">
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="30"/>
+    </row>
+    <row r="17" spans="2:28" ht="27" customHeight="1">
+      <c r="B17" s="28">
+        <v>7</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>384</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>379</v>
+      </c>
+      <c r="I17" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="J17" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="K17" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="L17" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="M17" s="35" t="s">
+        <v>439</v>
+      </c>
+      <c r="N17" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="O17" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="P17" s="28" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q17" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="R17" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="S17" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="T17" s="28" t="s">
+        <v>402</v>
+      </c>
+      <c r="U17" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="V17" s="28" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="18" spans="2:28" ht="27" customHeight="1">
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="E18" s="28"/>
+      <c r="I18" s="30" t="s">
+        <v>469</v>
+      </c>
+      <c r="J18" s="36" t="s">
+        <v>447</v>
+      </c>
+      <c r="K18" s="36" t="s">
+        <v>449</v>
+      </c>
+      <c r="L18" s="36" t="s">
+        <v>471</v>
+      </c>
+      <c r="M18" s="36" t="s">
+        <v>473</v>
+      </c>
+      <c r="N18" s="36" t="s">
+        <v>474</v>
+      </c>
+      <c r="O18" s="30" t="s">
+        <v>476</v>
+      </c>
+      <c r="P18" s="37" t="s">
+        <v>477</v>
+      </c>
+      <c r="Q18" s="37" t="s">
+        <v>479</v>
+      </c>
+      <c r="R18" s="28" t="s">
+        <v>480</v>
+      </c>
+      <c r="S18" s="37" t="s">
+        <v>481</v>
+      </c>
+      <c r="T18" s="37" t="s">
+        <v>455</v>
+      </c>
+      <c r="U18" s="28" t="s">
+        <v>483</v>
+      </c>
+      <c r="V18" s="28" t="s">
+        <v>485</v>
+      </c>
+      <c r="W18" s="28" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="19" spans="2:28" ht="27" customHeight="1">
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="E19" s="28"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q19" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="R19" s="28" t="s">
+        <v>441</v>
+      </c>
+      <c r="S19" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="T19" s="37" t="s">
+        <v>426</v>
+      </c>
+      <c r="U19" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="V19" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="W19" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="X19" s="28" t="s">
+        <v>440</v>
+      </c>
+      <c r="Y19" s="30"/>
+      <c r="Z19" s="30"/>
+      <c r="AA19" s="30"/>
+      <c r="AB19" s="30"/>
+    </row>
+    <row r="20" spans="2:28" ht="27" customHeight="1">
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="E20" s="28"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="28" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q20" s="28" t="s">
+        <v>488</v>
+      </c>
+      <c r="R20" s="28" t="s">
+        <v>489</v>
+      </c>
+      <c r="S20" s="28" t="s">
+        <v>490</v>
+      </c>
+      <c r="T20" s="28" t="s">
+        <v>491</v>
+      </c>
+      <c r="U20" s="28" t="s">
+        <v>492</v>
+      </c>
+      <c r="V20" s="28" t="s">
+        <v>493</v>
+      </c>
+      <c r="W20" s="28" t="s">
+        <v>494</v>
+      </c>
+      <c r="X20" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="Y20" s="28" t="s">
+        <v>486</v>
+      </c>
+      <c r="Z20" s="30"/>
+      <c r="AA20" s="30"/>
+      <c r="AB20" s="30"/>
+    </row>
+    <row r="21" spans="2:28" ht="27" customHeight="1">
+      <c r="E21" s="28"/>
+      <c r="V21" s="37"/>
+    </row>
+    <row r="22" spans="2:28" ht="27" customHeight="1">
+      <c r="E22" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="I22" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="J22" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="K22" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="L22" s="35" t="s">
+        <v>393</v>
+      </c>
+      <c r="M22" s="35" t="s">
+        <v>439</v>
+      </c>
+      <c r="N22" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="O22" s="28" t="s">
+        <v>435</v>
+      </c>
+      <c r="P22" s="28" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q22" s="28" t="s">
+        <v>403</v>
+      </c>
+      <c r="R22" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="S22" s="28" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="23" spans="2:28" ht="27" customHeight="1">
+      <c r="E23" s="30"/>
+      <c r="I23" s="30" t="s">
+        <v>445</v>
+      </c>
+      <c r="J23" s="36" t="s">
+        <v>447</v>
+      </c>
+      <c r="K23" s="36" t="s">
+        <v>449</v>
+      </c>
+      <c r="L23" s="36" t="s">
+        <v>450</v>
+      </c>
+      <c r="M23" s="36" t="s">
+        <v>451</v>
+      </c>
+      <c r="N23" s="36" t="s">
+        <v>452</v>
+      </c>
+      <c r="O23" s="28" t="s">
+        <v>453</v>
+      </c>
+      <c r="P23" s="28" t="s">
+        <v>455</v>
+      </c>
+      <c r="Q23" s="28" t="s">
+        <v>456</v>
+      </c>
+      <c r="R23" s="28" t="s">
+        <v>457</v>
+      </c>
+      <c r="S23" s="28" t="s">
+        <v>458</v>
+      </c>
+      <c r="T23" s="31" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="24" spans="2:28" ht="27" customHeight="1">
+      <c r="G24" s="38"/>
+      <c r="O24" s="28" t="s">
+        <v>436</v>
+      </c>
+      <c r="P24" s="28" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q24" s="28" t="s">
+        <v>394</v>
+      </c>
+      <c r="R24" s="28" t="s">
+        <v>435</v>
+      </c>
+      <c r="S24" s="28" t="s">
+        <v>395</v>
+      </c>
+      <c r="T24" s="28" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="25" spans="2:28" ht="27" customHeight="1">
+      <c r="O25" s="31" t="s">
+        <v>459</v>
+      </c>
+      <c r="P25" s="31" t="s">
+        <v>460</v>
+      </c>
+      <c r="Q25" s="31" t="s">
+        <v>461</v>
+      </c>
+      <c r="R25" s="31" t="s">
+        <v>462</v>
+      </c>
+      <c r="S25" s="31" t="s">
+        <v>463</v>
+      </c>
+      <c r="T25" s="31" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="26" spans="2:28" ht="27" customHeight="1"/>
+    <row r="27" spans="2:28" ht="27" customHeight="1">
+      <c r="G27" s="31">
+        <v>1</v>
+      </c>
+      <c r="I27" s="30" t="s">
+        <v>465</v>
+      </c>
+      <c r="J27" s="41" t="s">
+        <v>502</v>
+      </c>
+      <c r="L27" s="31" t="s">
+        <v>459</v>
+      </c>
+      <c r="M27" s="41" t="s">
+        <v>466</v>
+      </c>
+      <c r="O27" s="30" t="s">
+        <v>469</v>
+      </c>
+      <c r="R27" s="28" t="s">
+        <v>487</v>
+      </c>
+      <c r="U27" s="30" t="s">
+        <v>469</v>
+      </c>
+      <c r="X27" s="30" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="28" spans="2:28" ht="27" customHeight="1">
+      <c r="G28" s="31">
+        <v>2</v>
+      </c>
+      <c r="I28" s="36" t="s">
+        <v>447</v>
+      </c>
+      <c r="J28" s="41" t="s">
+        <v>466</v>
+      </c>
+      <c r="L28" s="31" t="s">
+        <v>460</v>
+      </c>
+      <c r="M28" s="41" t="s">
+        <v>466</v>
+      </c>
+      <c r="O28" s="36" t="s">
+        <v>447</v>
+      </c>
+      <c r="R28" s="28" t="s">
+        <v>488</v>
+      </c>
+      <c r="U28" s="36" t="s">
+        <v>446</v>
+      </c>
+      <c r="X28" s="30" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="29" spans="2:28" ht="27" customHeight="1">
+      <c r="G29" s="31">
+        <v>3</v>
+      </c>
+      <c r="I29" s="36" t="s">
+        <v>449</v>
+      </c>
+      <c r="J29" s="41" t="s">
+        <v>466</v>
+      </c>
+      <c r="L29" s="31" t="s">
+        <v>461</v>
+      </c>
+      <c r="M29" s="41" t="s">
+        <v>466</v>
+      </c>
+      <c r="O29" s="36" t="s">
+        <v>449</v>
+      </c>
+      <c r="R29" s="28" t="s">
+        <v>489</v>
+      </c>
+      <c r="U29" s="36" t="s">
+        <v>448</v>
+      </c>
+      <c r="X29" s="30" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="30" spans="2:28" ht="27" customHeight="1">
+      <c r="G30" s="31">
+        <v>4</v>
+      </c>
+      <c r="I30" s="36" t="s">
+        <v>450</v>
+      </c>
+      <c r="J30" s="41" t="s">
+        <v>466</v>
+      </c>
+      <c r="L30" s="31" t="s">
+        <v>462</v>
+      </c>
+      <c r="M30" s="41" t="s">
+        <v>466</v>
+      </c>
+      <c r="O30" s="36" t="s">
+        <v>471</v>
+      </c>
+      <c r="R30" s="28" t="s">
+        <v>490</v>
+      </c>
+      <c r="U30" s="36" t="s">
+        <v>470</v>
+      </c>
+      <c r="X30" s="30" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="31" spans="2:28" ht="27" customHeight="1">
+      <c r="G31" s="31">
+        <v>5</v>
+      </c>
+      <c r="I31" s="36" t="s">
+        <v>451</v>
+      </c>
+      <c r="J31" s="41" t="s">
+        <v>466</v>
+      </c>
+      <c r="L31" s="31" t="s">
+        <v>463</v>
+      </c>
+      <c r="M31" s="41" t="s">
+        <v>466</v>
+      </c>
+      <c r="O31" s="36" t="s">
+        <v>473</v>
+      </c>
+      <c r="R31" s="28" t="s">
+        <v>491</v>
+      </c>
+      <c r="U31" s="36" t="s">
+        <v>472</v>
+      </c>
+      <c r="X31" s="30" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="32" spans="2:28" ht="27" customHeight="1">
+      <c r="G32" s="31">
+        <v>6</v>
+      </c>
+      <c r="I32" s="36" t="s">
+        <v>452</v>
+      </c>
+      <c r="J32" s="41" t="s">
+        <v>466</v>
+      </c>
+      <c r="L32" s="31" t="s">
+        <v>464</v>
+      </c>
+      <c r="M32" s="41" t="s">
+        <v>466</v>
+      </c>
+      <c r="O32" s="36" t="s">
+        <v>474</v>
+      </c>
+      <c r="R32" s="28" t="s">
+        <v>492</v>
+      </c>
+      <c r="U32" s="36" t="s">
+        <v>495</v>
+      </c>
+      <c r="X32" s="30" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="33" spans="7:24" ht="27" customHeight="1">
+      <c r="G33" s="31">
+        <v>7</v>
+      </c>
+      <c r="I33" s="30" t="s">
+        <v>453</v>
+      </c>
+      <c r="J33" s="41" t="s">
+        <v>466</v>
+      </c>
+      <c r="L33" s="31" t="s">
+        <v>468</v>
+      </c>
+      <c r="M33" s="41" t="s">
+        <v>466</v>
+      </c>
+      <c r="O33" s="30" t="s">
+        <v>476</v>
+      </c>
+      <c r="R33" s="28" t="s">
+        <v>493</v>
+      </c>
+      <c r="U33" s="28" t="s">
+        <v>475</v>
+      </c>
+      <c r="X33" s="30" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="34" spans="7:24" ht="27" customHeight="1">
+      <c r="G34" s="31">
+        <v>8</v>
+      </c>
+      <c r="I34" s="30" t="s">
+        <v>455</v>
+      </c>
+      <c r="J34" s="41" t="s">
+        <v>466</v>
+      </c>
+      <c r="O34" s="37" t="s">
+        <v>477</v>
+      </c>
+      <c r="R34" s="28" t="s">
+        <v>494</v>
+      </c>
+      <c r="U34" s="28" t="s">
+        <v>496</v>
+      </c>
+      <c r="X34" s="28" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="35" spans="7:24" ht="27" customHeight="1">
+      <c r="G35" s="31">
+        <v>9</v>
+      </c>
+      <c r="I35" s="30" t="s">
+        <v>456</v>
+      </c>
+      <c r="J35" s="41" t="s">
+        <v>466</v>
+      </c>
+      <c r="O35" s="37" t="s">
+        <v>479</v>
+      </c>
+      <c r="R35" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="U35" s="28" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="36" spans="7:24" ht="27" customHeight="1">
+      <c r="G36" s="31">
+        <v>10</v>
+      </c>
+      <c r="I36" s="30" t="s">
+        <v>457</v>
+      </c>
+      <c r="J36" s="41" t="s">
+        <v>466</v>
+      </c>
+      <c r="O36" s="28" t="s">
+        <v>480</v>
+      </c>
+      <c r="R36" s="28" t="s">
+        <v>486</v>
+      </c>
+      <c r="U36" s="28" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="37" spans="7:24" ht="27" customHeight="1">
+      <c r="G37" s="31">
+        <v>11</v>
+      </c>
+      <c r="I37" s="30" t="s">
+        <v>458</v>
+      </c>
+      <c r="J37" s="41" t="s">
+        <v>466</v>
+      </c>
+      <c r="O37" s="37" t="s">
+        <v>481</v>
+      </c>
+      <c r="U37" s="28" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="38" spans="7:24" ht="27" customHeight="1">
+      <c r="G38" s="31">
+        <v>12</v>
+      </c>
+      <c r="I38" s="31" t="s">
+        <v>468</v>
+      </c>
+      <c r="J38" s="41" t="s">
+        <v>466</v>
+      </c>
+      <c r="O38" s="37" t="s">
+        <v>455</v>
+      </c>
+      <c r="U38" s="28" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="39" spans="7:24" ht="27" customHeight="1">
+      <c r="G39" s="31">
+        <v>13</v>
+      </c>
+      <c r="O39" s="28" t="s">
+        <v>483</v>
+      </c>
+      <c r="U39" s="28" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="40" spans="7:24" ht="27" customHeight="1">
+      <c r="G40" s="31">
+        <v>14</v>
+      </c>
+      <c r="O40" s="28" t="s">
+        <v>485</v>
+      </c>
+      <c r="U40" s="28" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="41" spans="7:24" ht="27" customHeight="1">
+      <c r="G41" s="31">
+        <v>15</v>
+      </c>
+      <c r="O41" s="28" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="42" spans="7:24" ht="27" customHeight="1">
+      <c r="G42" s="31">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="7:24" ht="27" customHeight="1">
+      <c r="G43" s="31">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="7:24" ht="27" customHeight="1"/>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="61" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:R49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="27" customHeight="1"/>
+  <cols>
+    <col min="1" max="2" width="3.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="20.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="1" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="20.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="1"/>
+    <col min="11" max="11" width="20.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="22.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" style="1"/>
+    <col min="17" max="17" width="20.625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:18" ht="27" customHeight="1">
+      <c r="D1" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="2" spans="2:18" ht="27" customHeight="1">
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>436</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="I2" s="42" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" ht="27" customHeight="1">
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>522</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>438</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" ht="27" customHeight="1">
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>524</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>394</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="I4" s="42" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" ht="27" customHeight="1">
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>393</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>523</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>435</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="I5" s="42" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" ht="27" customHeight="1">
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>439</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>526</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>395</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" ht="27" customHeight="1">
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>525</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>392</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="I7" s="42" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" ht="27" customHeight="1">
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>435</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>527</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="I8" s="42" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" ht="27" customHeight="1">
+      <c r="B9" s="1">
+        <v>8</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>395</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" ht="27" customHeight="1">
+      <c r="B10" s="1">
+        <v>9</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>403</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" ht="27" customHeight="1">
+      <c r="B11" s="1">
+        <v>10</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" ht="27" customHeight="1">
+      <c r="B12" s="1">
+        <v>11</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>390</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" ht="27" customHeight="1">
+      <c r="B13" s="1">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E13" s="42" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" s="44" customFormat="1" ht="27" customHeight="1">
+      <c r="D16" s="44" t="s">
+        <v>568</v>
+      </c>
+      <c r="H16" s="44" t="s">
+        <v>569</v>
+      </c>
+      <c r="K16" s="44" t="s">
+        <v>570</v>
+      </c>
+      <c r="N16" s="44" t="s">
+        <v>582</v>
+      </c>
+      <c r="Q16" s="44" t="s">
+        <v>621</v>
+      </c>
+      <c r="R16" s="44" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" ht="27" customHeight="1">
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="I17" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="J17" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="L17" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="M17" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="N17" s="45" t="s">
+        <v>571</v>
+      </c>
+      <c r="O17" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="P17" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="R17" s="42" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" ht="27" customHeight="1">
+      <c r="B18" s="1">
+        <v>2</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>386</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E18" s="42" t="s">
+        <v>522</v>
+      </c>
+      <c r="G18" s="35" t="s">
+        <v>549</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="I18" s="42" t="s">
+        <v>522</v>
+      </c>
+      <c r="J18" s="35" t="s">
+        <v>549</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="L18" s="42" t="s">
+        <v>522</v>
+      </c>
+      <c r="M18" s="35" t="s">
+        <v>549</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="O18" s="42" t="s">
+        <v>522</v>
+      </c>
+      <c r="P18" s="35" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="R18" s="42" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" ht="27" customHeight="1">
+      <c r="B19" s="1">
+        <v>3</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>396</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="E19" s="42" t="s">
+        <v>635</v>
+      </c>
+      <c r="G19" s="35" t="s">
+        <v>396</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="I19" s="42" t="s">
+        <v>635</v>
+      </c>
+      <c r="J19" s="35" t="s">
+        <v>417</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="L19" s="42" t="s">
+        <v>636</v>
+      </c>
+      <c r="M19" s="35" t="s">
+        <v>417</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="O19" s="42" t="s">
+        <v>636</v>
+      </c>
+      <c r="P19" s="35" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="R19" s="42" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" ht="27" customHeight="1">
+      <c r="B20" s="1">
+        <v>4</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>407</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="E20" s="42" t="s">
+        <v>636</v>
+      </c>
+      <c r="G20" s="35" t="s">
+        <v>407</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="I20" s="42" t="s">
+        <v>636</v>
+      </c>
+      <c r="J20" s="35" t="s">
+        <v>427</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="L20" s="42" t="s">
+        <v>636</v>
+      </c>
+      <c r="M20" s="35" t="s">
+        <v>427</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="O20" s="42" t="s">
+        <v>636</v>
+      </c>
+      <c r="P20" s="35" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="R20" s="42" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" ht="27" customHeight="1">
+      <c r="B21" s="1">
+        <v>5</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>406</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="E21" s="42" t="s">
+        <v>636</v>
+      </c>
+      <c r="G21" s="35" t="s">
+        <v>406</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="I21" s="42" t="s">
+        <v>636</v>
+      </c>
+      <c r="J21" s="35" t="s">
+        <v>254</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="L21" s="42" t="s">
+        <v>635</v>
+      </c>
+      <c r="M21" s="35" t="s">
+        <v>387</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="O21" s="42" t="s">
+        <v>635</v>
+      </c>
+      <c r="P21" s="35" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="R21" s="42" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" ht="27" customHeight="1">
+      <c r="B22" s="1">
+        <v>6</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>404</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="E22" s="42" t="s">
+        <v>636</v>
+      </c>
+      <c r="G22" s="35" t="s">
+        <v>434</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="I22" s="42" t="s">
+        <v>636</v>
+      </c>
+      <c r="J22" s="35" t="s">
+        <v>255</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="L22" s="42" t="s">
+        <v>636</v>
+      </c>
+      <c r="M22" s="35" t="s">
+        <v>388</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="O22" s="42" t="s">
+        <v>636</v>
+      </c>
+      <c r="P22" s="28" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="R22" s="42" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" ht="27" customHeight="1">
+      <c r="B23" s="1">
+        <v>7</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>405</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="E23" s="42" t="s">
+        <v>636</v>
+      </c>
+      <c r="G23" s="35" t="s">
+        <v>409</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="I23" s="42" t="s">
+        <v>638</v>
+      </c>
+      <c r="J23" s="35" t="s">
+        <v>431</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="L23" s="42" t="s">
+        <v>636</v>
+      </c>
+      <c r="M23" s="35" t="s">
+        <v>432</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="O23" s="42" t="s">
+        <v>636</v>
+      </c>
+      <c r="P23" s="28" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="R23" s="42" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" ht="27" customHeight="1">
+      <c r="B24" s="1">
+        <v>8</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>434</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="E24" s="42" t="s">
+        <v>636</v>
+      </c>
+      <c r="G24" s="35" t="s">
+        <v>420</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="I24" s="42" t="s">
+        <v>636</v>
+      </c>
+      <c r="J24" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="L24" s="42" t="s">
+        <v>636</v>
+      </c>
+      <c r="M24" s="35" t="s">
+        <v>389</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="O24" s="42" t="s">
+        <v>636</v>
+      </c>
+      <c r="P24" s="28" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="R24" s="42" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" ht="27" customHeight="1">
+      <c r="B25" s="1">
+        <v>9</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>410</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="E25" s="42" t="s">
+        <v>638</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>411</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="I25" s="42" t="s">
+        <v>637</v>
+      </c>
+      <c r="J25" s="28" t="s">
+        <v>411</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="L25" s="42" t="s">
+        <v>637</v>
+      </c>
+      <c r="M25" s="28" t="s">
+        <v>411</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="O25" s="42" t="s">
+        <v>637</v>
+      </c>
+      <c r="P25" s="28" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="R25" s="42" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" ht="27" customHeight="1">
+      <c r="B26" s="1">
+        <v>10</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>420</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="E26" s="42" t="s">
+        <v>636</v>
+      </c>
+      <c r="G26" s="28" t="s">
+        <v>412</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="I26" s="42" t="s">
+        <v>636</v>
+      </c>
+      <c r="J26" s="28" t="s">
+        <v>412</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="L26" s="42" t="s">
+        <v>636</v>
+      </c>
+      <c r="M26" s="28" t="s">
+        <v>412</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="O26" s="42" t="s">
+        <v>636</v>
+      </c>
+      <c r="P26" s="28" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="R26" s="42" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" ht="27" customHeight="1">
+      <c r="B27" s="1">
+        <v>11</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>411</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="E27" s="42" t="s">
+        <v>637</v>
+      </c>
+      <c r="G27" s="28" t="s">
+        <v>413</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="I27" s="42" t="s">
+        <v>636</v>
+      </c>
+      <c r="J27" s="28" t="s">
+        <v>413</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="L27" s="42" t="s">
+        <v>636</v>
+      </c>
+      <c r="M27" s="28" t="s">
+        <v>413</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="O27" s="42" t="s">
+        <v>636</v>
+      </c>
+      <c r="P27" s="28" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="R27" s="42" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" ht="27" customHeight="1">
+      <c r="B28" s="1">
+        <v>12</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>412</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="E28" s="42" t="s">
+        <v>636</v>
+      </c>
+      <c r="G28" s="28" t="s">
+        <v>414</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="I28" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="J28" s="28" t="s">
+        <v>414</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="L28" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="M28" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="O28" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="P28" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="R28" s="42" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" ht="27" customHeight="1">
+      <c r="B29" s="1">
+        <v>13</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>413</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="E29" s="42" t="s">
+        <v>636</v>
+      </c>
+      <c r="G29" s="28" t="s">
+        <v>419</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="I29" s="42" t="s">
+        <v>635</v>
+      </c>
+      <c r="J29" s="28" t="s">
+        <v>430</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="L29" s="42" t="s">
+        <v>636</v>
+      </c>
+      <c r="M29" s="28" t="s">
+        <v>430</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="O29" s="42" t="s">
+        <v>636</v>
+      </c>
+      <c r="P29" s="28" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="R29" s="42" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" ht="27" customHeight="1">
+      <c r="B30" s="1">
+        <v>14</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>433</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="E30" s="42" t="s">
+        <v>636</v>
+      </c>
+      <c r="G30" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="I30" s="42" t="s">
+        <v>524</v>
+      </c>
+      <c r="J30" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="L30" s="42" t="s">
+        <v>524</v>
+      </c>
+      <c r="M30" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="O30" s="42" t="s">
+        <v>524</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="R30" s="42" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" ht="27" customHeight="1">
+      <c r="B31" s="1">
+        <v>15</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>414</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E31" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="G31" s="28" t="s">
+        <v>390</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="I31" s="42" t="s">
+        <v>531</v>
+      </c>
+      <c r="J31" s="28" t="s">
+        <v>390</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="L31" s="42" t="s">
+        <v>531</v>
+      </c>
+      <c r="M31" s="28" t="s">
+        <v>390</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="O31" s="42" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" ht="27" customHeight="1">
+      <c r="B32" s="1">
+        <v>16</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="E32" s="42" t="s">
+        <v>521</v>
+      </c>
+      <c r="G32" s="31" t="s">
+        <v>558</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="I32" s="42" t="s">
+        <v>526</v>
+      </c>
+      <c r="J32" s="31" t="s">
+        <v>558</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="L32" s="42" t="s">
+        <v>526</v>
+      </c>
+      <c r="M32" s="31" t="s">
+        <v>558</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="O32" s="42" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="27" customHeight="1">
+      <c r="B33" s="1">
+        <v>17</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>416</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="E33" s="42" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="27" customHeight="1">
+      <c r="D34" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="E34" s="42" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="27" customHeight="1">
+      <c r="D35" s="43"/>
+    </row>
+    <row r="36" spans="2:5" ht="27" customHeight="1">
+      <c r="D36" s="43"/>
+    </row>
+    <row r="37" spans="2:5" ht="27" customHeight="1">
+      <c r="D37" s="43"/>
+    </row>
+    <row r="38" spans="2:5" ht="27" customHeight="1">
+      <c r="D38" s="43"/>
+    </row>
+    <row r="39" spans="2:5" ht="27" customHeight="1">
+      <c r="D39" s="43"/>
+    </row>
+    <row r="40" spans="2:5" ht="27" customHeight="1">
+      <c r="D40" s="43"/>
+    </row>
+    <row r="41" spans="2:5" ht="27" customHeight="1">
+      <c r="D41" s="43"/>
+    </row>
+    <row r="42" spans="2:5" ht="27" customHeight="1">
+      <c r="D42" s="43"/>
+    </row>
+    <row r="43" spans="2:5" ht="27" customHeight="1">
+      <c r="D43" s="43"/>
+    </row>
+    <row r="44" spans="2:5" ht="27" customHeight="1">
+      <c r="D44" s="43"/>
+    </row>
+    <row r="45" spans="2:5" ht="27" customHeight="1">
+      <c r="D45" s="43"/>
+    </row>
+    <row r="46" spans="2:5" ht="27" customHeight="1">
+      <c r="D46" s="43"/>
+    </row>
+    <row r="47" spans="2:5" ht="27" customHeight="1">
+      <c r="D47" s="43"/>
+    </row>
+    <row r="48" spans="2:5" ht="27" customHeight="1">
+      <c r="D48" s="43"/>
+    </row>
+    <row r="49" spans="4:4" ht="27" customHeight="1">
+      <c r="D49" s="43"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N15"/>
+  <dimension ref="A2:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.25" customWidth="1"/>
-    <col min="8" max="8" width="15.125" style="33" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.375" style="33" customWidth="1"/>
-    <col min="10" max="10" width="15.125" style="33" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="1.25" style="33" customWidth="1"/>
-    <col min="12" max="12" width="15.125" style="33" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="1.25" style="33" customWidth="1"/>
-    <col min="14" max="14" width="9" style="33" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="1.125" customWidth="1"/>
-    <col min="16" max="16" width="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="18.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="1.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14">
-      <c r="B2" s="32">
-        <v>1</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14">
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="H3" s="32" t="s">
-        <v>380</v>
-      </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32" t="s">
-        <v>381</v>
-      </c>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32" t="s">
-        <v>382</v>
-      </c>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14">
-      <c r="B4" s="32">
-        <v>2</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14">
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-    </row>
-    <row r="6" spans="2:14">
-      <c r="B6" s="32">
-        <v>3</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14">
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="H7" s="34" t="s">
-        <v>385</v>
-      </c>
-      <c r="I7" s="34"/>
-    </row>
-    <row r="8" spans="2:14">
-      <c r="B8" s="32">
-        <v>4</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14">
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-    </row>
-    <row r="10" spans="2:14">
-      <c r="B10" s="32">
-        <v>5</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14">
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="H11" s="32" t="s">
-        <v>378</v>
-      </c>
-      <c r="I11" s="32"/>
-    </row>
-    <row r="12" spans="2:14">
-      <c r="B12" s="32">
-        <v>6</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>383</v>
-      </c>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-    </row>
-    <row r="13" spans="2:14">
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="H13" s="32" t="s">
-        <v>383</v>
-      </c>
-      <c r="I13" s="32"/>
-    </row>
-    <row r="14" spans="2:14">
-      <c r="B14" s="32">
-        <v>7</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>384</v>
-      </c>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-    </row>
-    <row r="15" spans="2:14">
-      <c r="H15" s="32" t="s">
-        <v>379</v>
-      </c>
-      <c r="I15" s="34"/>
-    </row>
+    <row r="2" spans="1:7" s="32" customFormat="1" ht="29.1" customHeight="1" thickBot="1">
+      <c r="A2" s="30"/>
+      <c r="B2" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>423</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>425</v>
+      </c>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B3" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>423</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>425</v>
+      </c>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B4" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>423</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>425</v>
+      </c>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B5" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>423</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>425</v>
+      </c>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B6" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>423</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>425</v>
+      </c>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B7" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>423</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>425</v>
+      </c>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B8" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>423</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>425</v>
+      </c>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B9" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>423</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>425</v>
+      </c>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B10" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>423</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>425</v>
+      </c>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B11" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>423</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>425</v>
+      </c>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B12" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>423</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>425</v>
+      </c>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B13" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>423</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>425</v>
+      </c>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B14" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>423</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>425</v>
+      </c>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B15" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>423</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>425</v>
+      </c>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B16" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>423</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>425</v>
+      </c>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B17" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>423</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>425</v>
+      </c>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B18" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>423</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>425</v>
+      </c>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B19" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>423</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>425</v>
+      </c>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B20" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>423</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>425</v>
+      </c>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B21" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>423</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>425</v>
+      </c>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B22" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>423</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>425</v>
+      </c>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B23" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>423</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>425</v>
+      </c>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B24" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>423</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>425</v>
+      </c>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" s="33" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B25" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>423</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>425</v>
+      </c>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="14.25" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/的施工单统计.xlsx
+++ b/的施工单统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="710" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="出入登记" sheetId="2" r:id="rId1"/>
@@ -13,10 +13,13 @@
     <sheet name="设备出机房工单" sheetId="4" r:id="rId4"/>
     <sheet name="业务工单" sheetId="1" r:id="rId5"/>
     <sheet name="设备重启工单" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
-    <sheet name="Sheet4" sheetId="10" r:id="rId8"/>
-    <sheet name="Sheet2" sheetId="8" r:id="rId9"/>
-    <sheet name="Sheet3" sheetId="9" r:id="rId10"/>
+    <sheet name="机柜竣工工单" sheetId="12" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId8"/>
+    <sheet name="Sheet4" sheetId="10" r:id="rId9"/>
+    <sheet name="Sheet5" sheetId="13" r:id="rId10"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId11"/>
+    <sheet name="Sheet3" sheetId="9" r:id="rId12"/>
+    <sheet name="机柜布线规范" sheetId="11" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">业务工单!$A$3:$R$54</definedName>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1943" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2211" uniqueCount="803">
   <si>
     <t>客户编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1496,68 +1499,1490 @@
     <t>日期</t>
   </si>
   <si>
+    <t>搬移主机数量</t>
+  </si>
+  <si>
+    <t>搬移主机型号</t>
+  </si>
+  <si>
+    <t>CRM系统业务号码</t>
+  </si>
+  <si>
+    <t>工单附件</t>
+  </si>
+  <si>
+    <t>工单附件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重启时间</t>
+  </si>
+  <si>
+    <t>传真单号</t>
+  </si>
+  <si>
+    <t>服务器设备型号</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>人数</t>
+  </si>
+  <si>
+    <t>人数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>机房接待人员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工单编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>机架编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>施工类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>施工人员</t>
+  </si>
+  <si>
+    <t>施工人员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>证件名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>证件号码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人电话</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人姓名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>机房出入登记</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入机房事由</t>
+  </si>
+  <si>
+    <t>进入机房事由</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>批准部门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>批准部门联系人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>批准部门联系人电话</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>离开时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDC机房接待人员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户联系人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效期（天）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入机房名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>证件名称/证件号码/联系人电话</t>
+  </si>
+  <si>
+    <t>进入机房名称/事由</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>批准部门/联系人/电话</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>机房随工人签名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工单编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户联系人电话</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户联系人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户联系人电话</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>施工人员信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>存放机房机柜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原存放机房机柜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联工单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入机房事由类别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>要求重启时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>机房机柜名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系电话</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器固资号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>竣工时间</t>
+  </si>
+  <si>
+    <t>宽带类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>机架规格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>机架类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电路数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>customer_name</t>
+  </si>
+  <si>
+    <t>customer_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>customer_number</t>
+  </si>
+  <si>
+    <t>customer_number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fax_number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>contact_number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>call_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>construction_personnel</t>
+  </si>
+  <si>
+    <t>construction_personnel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>work_order</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>work_list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attachment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Room_cabinet_name</t>
+  </si>
+  <si>
+    <t>server_fixed_number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>server_device_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>request_restart_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>restart_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ddate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>=</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0perator </t>
+  </si>
+  <si>
+    <t xml:space="preserve">operator </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>To_date</t>
+  </si>
+  <si>
+    <t>contract_number</t>
+  </si>
+  <si>
+    <t>contract_number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>contact_person</t>
+  </si>
+  <si>
+    <t>contact_person</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>telephone_number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>construction_type</t>
+  </si>
+  <si>
+    <t>construction_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>circuit_requirements</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>completion_time</t>
+  </si>
+  <si>
+    <t>completion_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRM_serial_number_records</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>single_serial_number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>job_number</t>
+  </si>
+  <si>
+    <t>job_number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>job_attachment</t>
+  </si>
+  <si>
+    <t>job_attachment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0perator</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Access_level</t>
+  </si>
+  <si>
+    <t>port_coding</t>
+  </si>
+  <si>
+    <t>broadband_type</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>IP_address</t>
+  </si>
+  <si>
+    <t>IP_address_number</t>
+  </si>
+  <si>
+    <t>rack_number</t>
+  </si>
+  <si>
+    <t>required_completion_time</t>
+  </si>
+  <si>
+    <t>contact_telephone_number</t>
+  </si>
+  <si>
+    <t>frame_number</t>
+  </si>
+  <si>
+    <t>serial_number_CRM_records</t>
+  </si>
+  <si>
+    <t>the_single_serial_number</t>
+  </si>
+  <si>
+    <t>Rack_type</t>
+  </si>
+  <si>
+    <t>rack_specification</t>
+  </si>
+  <si>
+    <t>power_requirements</t>
+  </si>
+  <si>
+    <t>=models.CharField(max_length=30)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>=models.CharField(max_length=34)</t>
+  </si>
+  <si>
+    <t>设备重启工单</t>
+  </si>
+  <si>
+    <t>devRe_date</t>
+  </si>
+  <si>
+    <t>devRe_customer_name</t>
+  </si>
+  <si>
+    <t>devRe_customer_number</t>
+  </si>
+  <si>
+    <t>devRe_fax_number</t>
+  </si>
+  <si>
+    <t>devRe_contact_number</t>
+  </si>
+  <si>
+    <t>devRe_work_order</t>
+  </si>
+  <si>
+    <t>devRe_work_list</t>
+  </si>
+  <si>
+    <t>devRe_attachment</t>
+  </si>
+  <si>
+    <t>devRe_operator</t>
+  </si>
+  <si>
+    <t>devReB_Room_cabinet_name</t>
+  </si>
+  <si>
+    <t>devReB_server_fixed_number</t>
+  </si>
+  <si>
+    <t>devReB_server_device_type</t>
+  </si>
+  <si>
+    <t>devReB_request_restart_time</t>
+  </si>
+  <si>
+    <t>devReB_remark</t>
+  </si>
+  <si>
+    <t>devReB_restart_time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">devReB_operator </t>
+  </si>
+  <si>
+    <t>=models.DateTimeField(auto_now_add)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>=models.CharField(max_length=131)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>=models.CharField(max_length=13)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>=models.CharField(max_length=22)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>=models.CharField(max_length=15)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>=models.CharField(max_length=14)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>=models.DateTimeField()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>devRe_callphone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>devRe_remark</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>=models.TextField(max_length=137)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>=models.FilePathField()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>devRe_Request_rester_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>=models.CharField(max_length=31)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>=models.CharField(max_length=32)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>the_customer_unit_number</t>
+  </si>
+  <si>
+    <t>contact_name</t>
+  </si>
+  <si>
+    <t>ID_number</t>
+  </si>
+  <si>
+    <t>enter_the_room_for_classes</t>
+  </si>
+  <si>
+    <t>entering_the_room_for_entering_the_room_name</t>
+  </si>
+  <si>
+    <t>the_approval_of_the_Department</t>
+  </si>
+  <si>
+    <t>the_approval_department_approval_department_contacts</t>
+  </si>
+  <si>
+    <t>contact_telephone</t>
+  </si>
+  <si>
+    <t>related_work_orders</t>
+  </si>
+  <si>
+    <t>entry_time</t>
+  </si>
+  <si>
+    <t>departure_time</t>
+  </si>
+  <si>
+    <t>IDC_room_reception_staff</t>
+  </si>
+  <si>
+    <t>客户名称</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>IDC_Room_Reception_staff</t>
+  </si>
+  <si>
+    <t>entering_room_name</t>
+  </si>
+  <si>
+    <t>ID_number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0perator</t>
+  </si>
+  <si>
+    <t>enter_room_classes</t>
+  </si>
+  <si>
+    <t>entering_room_Reasons</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>enter_the_room</t>
+  </si>
+  <si>
+    <t>subject_categories</t>
+  </si>
+  <si>
+    <t>enter_the_room_for_entering_the_room_name</t>
+  </si>
+  <si>
+    <t>enter_the_time_period_(days)</t>
+  </si>
+  <si>
+    <t>approval_department_contacts_telephone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>approval_Department_contacts</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>period_days</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>机房出入登记</t>
+  </si>
+  <si>
+    <t>设备进机房工单</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>customer_contact</t>
+  </si>
+  <si>
+    <t>customer_contact_telephone_number</t>
+  </si>
+  <si>
+    <t>host</t>
+  </si>
+  <si>
+    <t>host_use</t>
+  </si>
+  <si>
+    <t>storage_room_cabinet</t>
+  </si>
+  <si>
+    <t>CRM_service_number</t>
+  </si>
+  <si>
+    <t>approval_department</t>
+  </si>
+  <si>
+    <t>approval_department_approval_department_contact</t>
+  </si>
+  <si>
+    <t>access_time</t>
+  </si>
+  <si>
+    <t>information_construction_workers</t>
+  </si>
+  <si>
+    <t>设备出机房工单</t>
+  </si>
+  <si>
+    <t>_server_fixed_number</t>
+  </si>
+  <si>
+    <t>_server_device_type</t>
+  </si>
+  <si>
+    <t>_request_restart_time</t>
+  </si>
+  <si>
+    <t>_remark</t>
+  </si>
+  <si>
+    <t>_restart_time</t>
+  </si>
+  <si>
+    <t>_customer_name</t>
+  </si>
+  <si>
+    <t>_customer_number</t>
+  </si>
+  <si>
+    <t>_contract_number</t>
+  </si>
+  <si>
+    <t>_contact_person</t>
+  </si>
+  <si>
+    <t>_telephone_number</t>
+  </si>
+  <si>
+    <t>_construction_type</t>
+  </si>
+  <si>
+    <t>_circuit_requirements</t>
+  </si>
+  <si>
+    <t>_completion_time</t>
+  </si>
+  <si>
+    <t>_CRM_serial_number_records</t>
+  </si>
+  <si>
+    <t>_single_serial_number</t>
+  </si>
+  <si>
+    <t>_construction_personnel</t>
+  </si>
+  <si>
+    <t>_job_number</t>
+  </si>
+  <si>
+    <t>_job_attachment</t>
+  </si>
+  <si>
+    <t>_customer_contact</t>
+  </si>
+  <si>
+    <t>_customer_contact_telephone_number_of_hosts</t>
+  </si>
+  <si>
+    <t>_move</t>
+  </si>
+  <si>
+    <t>_transport_model</t>
+  </si>
+  <si>
+    <t>_storage_room_cabinet</t>
+  </si>
+  <si>
+    <t>_CRM_service_number</t>
+  </si>
+  <si>
+    <t>_approval_department</t>
+  </si>
+  <si>
+    <t>_approval_department_approval_department_contact</t>
+  </si>
+  <si>
+    <t>_contact_telephone</t>
+  </si>
+  <si>
+    <t>_departure_time</t>
+  </si>
+  <si>
+    <t>_construction_personnel_information</t>
+  </si>
+  <si>
+    <t>host_number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>move_host_number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>host_model</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>contact_telephone_number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>customer_contact_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>customer_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>storage_room_cabinet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRM_service_number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>departure_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参观工单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Computer_room_Receptionist </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>visit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>visit_to_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>visit_customer_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>visit_number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>visit_contact_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>visit_contact_telephone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>visit_approval_department</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>visit_approval_Department_contacts</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>visit_approval_department_contacts_telephone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>visit_access_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>visit_period_days</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>job_number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>=models.IntegerField()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>=models.CharField(max_length=14)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>=models.CharField(max_length=35)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>=models.CharField(max_length=144)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>To_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>准许进入时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Permission_entry_ time </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>approval_of_the_Department</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>交换机要用配套耳朵固定在机柜顶端，有助于网线的走位。</t>
+  </si>
+  <si>
+    <t>贴好每台服务器资产号，并且通过标签打印机把资产号+条形码一起打印出来，每台打印两张一致的，设备前面以及边上各贴一个。</t>
+  </si>
+  <si>
+    <t>连接服务器与交换机两端的网线头后端要标记同编号的扎带标签，且与交换机端口号编号一致。</t>
+  </si>
+  <si>
+    <t>机柜布线时要确保电源线插头与服务器电源接头两端有标签扎带固定。</t>
+  </si>
+  <si>
+    <t>柜体与柜体之间走线一般是从柜体的顶部方向来进行布线。</t>
+  </si>
+  <si>
+    <t>电源线与网线从不同方位走线，每一小节用扎带扎好。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果机柜是含有内外网的交换机，应使用两种不同颜色的网线对其加以区分。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备进出风口要确保闸门敞开，以避免设备过热而造成死机现象。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>机柜内部的每一条网线都应该有所标签以免会后期的维护带来不必要的麻烦。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>机柜布线需要布设得井井有条。不能阻碍设备进出风口气流通过导致设备过热。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电源线与网线从不同方位走线，每一小节用扎带扎好。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有的线缆应捆扎整齐，每一小节用扎带捆扎，线缆两头做好线路标签。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>柜体与柜体之间走线应从柜体的顶部桥架来进行布线。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>光纤与网线分开捆扎，每一小节用扎带扎好。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>垂直线缆应沿柜体左右理线架每一小节捆扎，并与柜体保持垂直。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水平线缆应与柜体保持水平，线缆较多的应设置理线架。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>=models.CharField(max_length=60)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完工后应该清理不用的线路。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>=models.IntegerField(default=0)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> = models.ForeignKey("UserType", null=True, blank=True)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际人数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人姓名</t>
+  </si>
+  <si>
+    <t>联系人电话</t>
+  </si>
+  <si>
+    <t>进入机房事由类别</t>
+  </si>
+  <si>
+    <t>进入机房名称</t>
+  </si>
+  <si>
+    <t>批准部门</t>
+  </si>
+  <si>
+    <t>批准部门联系人</t>
+  </si>
+  <si>
+    <t>批准部门联系人电话</t>
+  </si>
+  <si>
+    <t>有效期（天）</t>
+  </si>
+  <si>
+    <t>工单编号</t>
+  </si>
+  <si>
+    <t>宁波电信镇海IDC机房</t>
+  </si>
+  <si>
+    <t>412826199202155630</t>
+  </si>
+  <si>
+    <t>宁波轩悦行电动汽车服务有限公司</t>
+  </si>
+  <si>
+    <t>李小庆</t>
+  </si>
+  <si>
+    <t>412724198711206413</t>
+  </si>
+  <si>
+    <t>360721199503150039</t>
+  </si>
+  <si>
+    <t>范前龙</t>
+  </si>
+  <si>
+    <t>341221199710015913</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 341221199310065452</t>
+  </si>
+  <si>
+    <t>450923199401189018</t>
+  </si>
+  <si>
+    <t>2017-09-11 09:00到2017-09-29 18:00</t>
+  </si>
+  <si>
+    <t>2个100G，1个200G节点OC建设，腾讯接口PM谢博18520880058</t>
+  </si>
+  <si>
+    <t>362531199103153015</t>
+  </si>
+  <si>
+    <t>2017-09-18 09:00到2017-09-29 18:00</t>
+  </si>
+  <si>
+    <t>2017年10月24日</t>
+  </si>
+  <si>
+    <t>330204198608275037</t>
+  </si>
+  <si>
+    <t>2017-10-25 09:00到2017-10-27 18:00</t>
+  </si>
+  <si>
+    <t>33028219841015823x</t>
+  </si>
+  <si>
+    <t>华为公司</t>
+  </si>
+  <si>
+    <t>阳光雨露</t>
+  </si>
+  <si>
+    <t>412702198711291410</t>
+  </si>
+  <si>
+    <t>2017-10-30 15:00到2017-11-02 18:00</t>
+  </si>
+  <si>
+    <t>进入机房，维护服务器。秦现辉 13186878187</t>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>客户单位</t>
-  </si>
-  <si>
-    <t>搬移主机数量</t>
-  </si>
-  <si>
-    <t>搬移主机型号</t>
-  </si>
-  <si>
-    <t>CRM系统业务号码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>证件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>证件号码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入机房名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入机房时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>事由说明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工单编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017年6月5日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘明晶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳市腾讯计算机系统有限公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>45062119960915355X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁波电信镇海IDC机房</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017年6月6日9点到2017年6月16日18点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2个OC节点建设，腾讯接口谢博18520880058</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017年6月9日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘明晶等人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳市腾讯计算机系统有限公司、华为公司、浪潮公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017年6月12日9点到2017年6月16日18点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2组OC节点建设，供应商配合设备上架，现场负责人刘明晶17319020203</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017年7月17日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>肖向前等人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国电信浙东云数据中心4-3机房</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017年7月18日-2017年8月15日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝网CDN节点实施，联系电话18368833216</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017年7月20日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊川等人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁波轩悦行电动汽车服务有限公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>420606198605181015</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>北欧机房</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器上架</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017年8月18日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张良</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>130628199211113013</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017年8月19日-2017年8月23日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后维护</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017年8月29日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄林</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国电信宁波IDC机房</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017年8月29日-2017年9月15日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝网CDN节点实施，联系电话18368599489</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>郝龙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017年9月8日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊良</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高波</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017年9月15日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊良等人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>400G OC节点建设，供应商协助设备上架</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017年10月13日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>庄道明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>331081198104107139</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有服务器在机房托管，进机房资产盘查</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20171013-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张龙保</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>42020419830309451X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017年10月23日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢国强</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江数云互联科技有限公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>320524197507283930</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙东云数据中心机房</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参观机房</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20171023-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨琴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>342524198505102024</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张勇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙东云数据中心1#-4-3机房</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器维护</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20171024-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王晶晶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017年10月25日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张天虹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁波华森信息科技有限公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>330683199103046812</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬迁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20171025-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商方方</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>410881198711282513</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017年10月26日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邵波</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>342531198802153710</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-10-26 09:00到2017-10-31 23:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备维修</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20171026-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017年10月27日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州维网科技有限公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>360721199503150039</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-10-28 09:00到2017-10-29 23:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>施工建设淘宝的两个临时端口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20171027-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017年10月30日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>秦现辉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20171030-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入时间</t>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>到单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员进机房工单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>people_number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID_name</t>
+  </si>
+  <si>
+    <t>=models.CharField(max_length=14)</t>
   </si>
   <si>
     <t>工单附件</t>
-  </si>
-  <si>
-    <t>工单附件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>重启时间</t>
-  </si>
-  <si>
-    <t>传真单号</t>
-  </si>
-  <si>
-    <t>服务器设备型号</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>人数</t>
-  </si>
-  <si>
-    <t>人数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>机房接待人员</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>工单编号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>机架编号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>施工类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>施工人员</t>
-  </si>
-  <si>
-    <t>施工人员</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>证件名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>批准部门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>批准部门</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1565,822 +2990,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>联系人电话</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系人姓名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>机房出入登记</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入机房事由</t>
-  </si>
-  <si>
-    <t>进入机房事由</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>批准部门</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>批准部门联系人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>批准部门联系人电话</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>离开时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IDC机房接待人员</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户联系人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>有效期（天）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入机房名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>证件名称/证件号码/联系人电话</t>
-  </si>
-  <si>
-    <t>进入机房名称/事由</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>批准部门/联系人/电话</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>机房随工人签名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>工单编号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IP地址</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户联系人电话</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户联系人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户联系人电话</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>施工人员信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>存放机房机柜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>原存放机房机柜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联工单</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入机房事由类别</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>要求重启时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>机房机柜名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系电话</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务器固资号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>竣工时间</t>
-  </si>
-  <si>
-    <t>宽带类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>机架规格</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>机架类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>电路数量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>customer_name</t>
-  </si>
-  <si>
-    <t>customer_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>customer_number</t>
-  </si>
-  <si>
-    <t>customer_number</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>fax_number</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>contact_number</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>call_time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>remark</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>construction_personnel</t>
-  </si>
-  <si>
-    <t>construction_personnel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>work_order</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>work_list</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>attachment</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Room_cabinet_name</t>
-  </si>
-  <si>
-    <t>server_fixed_number</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>server_device_type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>request_restart_time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>remark</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>restart_time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ddate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>=</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0perator </t>
-  </si>
-  <si>
-    <t xml:space="preserve">operator </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>To_date</t>
-  </si>
-  <si>
-    <t>contract_number</t>
-  </si>
-  <si>
-    <t>contract_number</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>contact_person</t>
-  </si>
-  <si>
-    <t>contact_person</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>telephone_number</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>construction_type</t>
-  </si>
-  <si>
-    <t>construction_type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>circuit_requirements</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>completion_time</t>
-  </si>
-  <si>
-    <t>completion_time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CRM_serial_number_records</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>single_serial_number</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>job_number</t>
-  </si>
-  <si>
-    <t>job_number</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>job_attachment</t>
-  </si>
-  <si>
-    <t>job_attachment</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0perator</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Access_level</t>
-  </si>
-  <si>
-    <t>port_coding</t>
-  </si>
-  <si>
-    <t>broadband_type</t>
-  </si>
-  <si>
-    <t>rate</t>
-  </si>
-  <si>
-    <t>IP_address</t>
-  </si>
-  <si>
-    <t>IP_address_number</t>
-  </si>
-  <si>
-    <t>rack_number</t>
-  </si>
-  <si>
-    <t>required_completion_time</t>
-  </si>
-  <si>
-    <t>contact_telephone_number</t>
-  </si>
-  <si>
-    <t>frame_number</t>
-  </si>
-  <si>
-    <t>serial_number_CRM_records</t>
-  </si>
-  <si>
-    <t>the_single_serial_number</t>
-  </si>
-  <si>
-    <t>Rack_type</t>
-  </si>
-  <si>
-    <t>rack_specification</t>
-  </si>
-  <si>
-    <t>power_requirements</t>
-  </si>
-  <si>
-    <t>=models.CharField(max_length=30)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>=models.CharField(max_length=34)</t>
-  </si>
-  <si>
-    <t>设备重启工单</t>
-  </si>
-  <si>
-    <t>devRe_date</t>
-  </si>
-  <si>
-    <t>devRe_customer_name</t>
-  </si>
-  <si>
-    <t>devRe_customer_number</t>
-  </si>
-  <si>
-    <t>devRe_fax_number</t>
-  </si>
-  <si>
-    <t>devRe_contact_number</t>
-  </si>
-  <si>
-    <t>devRe_work_order</t>
-  </si>
-  <si>
-    <t>devRe_work_list</t>
-  </si>
-  <si>
-    <t>devRe_attachment</t>
-  </si>
-  <si>
-    <t>devRe_operator</t>
-  </si>
-  <si>
-    <t>devReB_Room_cabinet_name</t>
-  </si>
-  <si>
-    <t>devReB_server_fixed_number</t>
-  </si>
-  <si>
-    <t>devReB_server_device_type</t>
-  </si>
-  <si>
-    <t>devReB_request_restart_time</t>
-  </si>
-  <si>
-    <t>devReB_remark</t>
-  </si>
-  <si>
-    <t>devReB_restart_time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">devReB_operator </t>
-  </si>
-  <si>
-    <t>=models.DateTimeField(auto_now_add)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>=models.CharField(max_length=131)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>=models.CharField(max_length=13)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>=models.CharField(max_length=22)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>=models.CharField(max_length=15)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>=models.CharField(max_length=14)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>=models.DateTimeField()</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>devRe_callphone</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>devRe_remark</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>=models.TextField(max_length=137)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>=models.FilePathField()</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>devRe_Request_rester_time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>=models.CharField(max_length=31)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>=models.CharField(max_length=32)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>the_customer_unit_number</t>
-  </si>
-  <si>
-    <t>contact_name</t>
-  </si>
-  <si>
-    <t>ID_number</t>
-  </si>
-  <si>
-    <t>enter_the_room_for_classes</t>
-  </si>
-  <si>
-    <t>entering_the_room_for_entering_the_room_name</t>
-  </si>
-  <si>
-    <t>the_approval_of_the_Department</t>
-  </si>
-  <si>
-    <t>the_approval_department_approval_department_contacts</t>
-  </si>
-  <si>
-    <t>contact_telephone</t>
-  </si>
-  <si>
-    <t>related_work_orders</t>
-  </si>
-  <si>
-    <t>entry_time</t>
-  </si>
-  <si>
-    <t>departure_time</t>
-  </si>
-  <si>
-    <t>IDC_room_reception_staff</t>
-  </si>
-  <si>
-    <t>客户名称</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>IDC_Room_Reception_staff</t>
-  </si>
-  <si>
-    <t>entering_room_name</t>
-  </si>
-  <si>
-    <t>approval_Department</t>
-  </si>
-  <si>
-    <t>approval_department_contacts</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID_number</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0perator</t>
+    <t>类别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>enter_room_classes</t>
-  </si>
-  <si>
-    <t>entering_room_Reasons</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>enter_the_room</t>
-  </si>
-  <si>
-    <t>subject_categories</t>
-  </si>
-  <si>
-    <t>enter_the_room_for_entering_the_room_name</t>
-  </si>
-  <si>
-    <t>enter_the_time_period_(days)</t>
-  </si>
-  <si>
-    <t>approval_department_contacts_telephone</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>approval_Department_contacts</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>period_days</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>机房出入登记</t>
-  </si>
-  <si>
-    <t>人员进机房工单</t>
-  </si>
-  <si>
-    <t>设备进机房工单</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>customer_contact</t>
-  </si>
-  <si>
-    <t>customer_contact_telephone_number</t>
-  </si>
-  <si>
-    <t>host</t>
-  </si>
-  <si>
-    <t>host_use</t>
-  </si>
-  <si>
-    <t>storage_room_cabinet</t>
-  </si>
-  <si>
-    <t>CRM_service_number</t>
-  </si>
-  <si>
-    <t>approval_department</t>
-  </si>
-  <si>
-    <t>approval_department_approval_department_contact</t>
-  </si>
-  <si>
-    <t>access_time</t>
-  </si>
-  <si>
-    <t>information_construction_workers</t>
-  </si>
-  <si>
-    <t>设备出机房工单</t>
-  </si>
-  <si>
-    <t>_server_fixed_number</t>
-  </si>
-  <si>
-    <t>_server_device_type</t>
-  </si>
-  <si>
-    <t>_request_restart_time</t>
-  </si>
-  <si>
-    <t>_remark</t>
-  </si>
-  <si>
-    <t>_restart_time</t>
-  </si>
-  <si>
-    <t>_customer_name</t>
-  </si>
-  <si>
-    <t>_customer_number</t>
-  </si>
-  <si>
-    <t>_contract_number</t>
-  </si>
-  <si>
-    <t>_contact_person</t>
-  </si>
-  <si>
-    <t>_telephone_number</t>
-  </si>
-  <si>
-    <t>_construction_type</t>
-  </si>
-  <si>
-    <t>_circuit_requirements</t>
-  </si>
-  <si>
-    <t>_completion_time</t>
-  </si>
-  <si>
-    <t>_CRM_serial_number_records</t>
-  </si>
-  <si>
-    <t>_single_serial_number</t>
-  </si>
-  <si>
-    <t>_construction_personnel</t>
-  </si>
-  <si>
-    <t>_job_number</t>
-  </si>
-  <si>
-    <t>_job_attachment</t>
-  </si>
-  <si>
-    <t>_customer_contact</t>
-  </si>
-  <si>
-    <t>_customer_contact_telephone_number_of_hosts</t>
-  </si>
-  <si>
-    <t>_move</t>
-  </si>
-  <si>
-    <t>_transport_model</t>
-  </si>
-  <si>
-    <t>_storage_room_cabinet</t>
-  </si>
-  <si>
-    <t>_CRM_service_number</t>
-  </si>
-  <si>
-    <t>_approval_department</t>
-  </si>
-  <si>
-    <t>_approval_department_approval_department_contact</t>
-  </si>
-  <si>
-    <t>_contact_telephone</t>
-  </si>
-  <si>
-    <t>_departure_time</t>
-  </si>
-  <si>
-    <t>_construction_personnel_information</t>
-  </si>
-  <si>
-    <t>host_number</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>move_host_number</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>host_model</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>contact_telephone_number</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>customer_contact_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>customer_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>storage_room_cabinet</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CRM_service_number</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>departure_time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>参观工单</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Computer_room_Receptionist </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>visit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>visit_to_date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>visit_customer_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>visit_number</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>visit_contact_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>visit_contact_telephone</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>visit_approval_department</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>visit_approval_Department_contacts</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>visit_approval_department_contacts_telephone</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>visit_access_time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>visit_period_days</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>job_number</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>=models.IntegerField()</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>=models.CharField(max_length=14)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>=models.CharField(max_length=35)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>=models.CharField(max_length=144)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>To_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>people_classes</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2388,7 +3006,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2531,6 +3149,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -2654,7 +3287,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2787,6 +3420,39 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2798,6 +3464,36 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3123,6 +3819,564 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:Q4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="2" spans="2:17" ht="40.5">
+      <c r="B2" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>548</v>
+      </c>
+      <c r="D2" s="56" t="s">
+        <v>395</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>406</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>405</v>
+      </c>
+      <c r="G2" s="55" t="s">
+        <v>433</v>
+      </c>
+      <c r="H2" s="55" t="s">
+        <v>408</v>
+      </c>
+      <c r="I2" s="55" t="s">
+        <v>419</v>
+      </c>
+      <c r="J2" s="28" t="s">
+        <v>410</v>
+      </c>
+      <c r="K2" s="28" t="s">
+        <v>411</v>
+      </c>
+      <c r="L2" s="28" t="s">
+        <v>412</v>
+      </c>
+      <c r="M2" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="N2" s="28" t="s">
+        <v>418</v>
+      </c>
+      <c r="O2" s="28" t="s">
+        <v>398</v>
+      </c>
+      <c r="P2" s="28" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q2" s="31" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" ht="27">
+      <c r="B4" s="55" t="s">
+        <v>548</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>395</v>
+      </c>
+      <c r="D4" s="55" t="s">
+        <v>433</v>
+      </c>
+      <c r="E4" s="55" t="s">
+        <v>419</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>410</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>418</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>398</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>389</v>
+      </c>
+      <c r="K4" s="31"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="18.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="1.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" s="32" customFormat="1" ht="29.1" customHeight="1" thickBot="1">
+      <c r="A2" s="30"/>
+      <c r="B2" s="34" t="s">
+        <v>420</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B3" s="34" t="s">
+        <v>420</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B4" s="34" t="s">
+        <v>420</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B5" s="34" t="s">
+        <v>420</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B6" s="34" t="s">
+        <v>420</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B7" s="34" t="s">
+        <v>420</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B8" s="34" t="s">
+        <v>420</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B9" s="34" t="s">
+        <v>420</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B10" s="34" t="s">
+        <v>420</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B11" s="34" t="s">
+        <v>420</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B12" s="34" t="s">
+        <v>420</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B13" s="34" t="s">
+        <v>420</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B14" s="34" t="s">
+        <v>420</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B15" s="34" t="s">
+        <v>420</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B16" s="34" t="s">
+        <v>420</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B17" s="34" t="s">
+        <v>420</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B18" s="34" t="s">
+        <v>420</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B19" s="34" t="s">
+        <v>420</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B20" s="34" t="s">
+        <v>420</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B21" s="34" t="s">
+        <v>420</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B22" s="34" t="s">
+        <v>420</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B23" s="34" t="s">
+        <v>420</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B24" s="34" t="s">
+        <v>420</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" s="33" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B25" s="34" t="s">
+        <v>420</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="14.25" thickTop="1"/>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:R23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3151,371 +4405,371 @@
   <sheetData>
     <row r="3" spans="3:18" ht="14.25">
       <c r="C3" s="40" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D3" t="s">
+        <v>579</v>
+      </c>
+      <c r="E3" t="s">
+        <v>580</v>
+      </c>
+      <c r="F3" t="s">
+        <v>581</v>
+      </c>
+      <c r="G3" t="s">
+        <v>582</v>
+      </c>
+      <c r="H3" t="s">
         <v>583</v>
-      </c>
-      <c r="E3" t="s">
-        <v>584</v>
-      </c>
-      <c r="F3" t="s">
-        <v>585</v>
-      </c>
-      <c r="G3" t="s">
-        <v>586</v>
-      </c>
-      <c r="H3" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="6" spans="3:18" ht="14.25">
       <c r="C6" s="40" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D6" t="s">
+        <v>584</v>
+      </c>
+      <c r="E6" t="s">
+        <v>585</v>
+      </c>
+      <c r="F6" t="s">
+        <v>586</v>
+      </c>
+      <c r="G6" t="s">
+        <v>587</v>
+      </c>
+      <c r="H6" t="s">
         <v>588</v>
       </c>
-      <c r="E6" t="s">
+      <c r="I6" t="s">
         <v>589</v>
       </c>
-      <c r="F6" t="s">
+      <c r="J6" t="s">
         <v>590</v>
       </c>
-      <c r="G6" t="s">
+      <c r="K6" t="s">
         <v>591</v>
       </c>
-      <c r="H6" t="s">
+      <c r="L6" t="s">
         <v>592</v>
       </c>
-      <c r="I6" t="s">
+      <c r="M6" t="s">
         <v>593</v>
       </c>
-      <c r="J6" t="s">
+      <c r="N6" t="s">
         <v>594</v>
       </c>
-      <c r="K6" t="s">
+      <c r="O6" t="s">
         <v>595</v>
       </c>
-      <c r="L6" t="s">
+      <c r="P6" t="s">
         <v>596</v>
-      </c>
-      <c r="M6" t="s">
-        <v>597</v>
-      </c>
-      <c r="N6" t="s">
-        <v>598</v>
-      </c>
-      <c r="O6" t="s">
-        <v>599</v>
-      </c>
-      <c r="P6" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="8" spans="3:18">
       <c r="C8" t="s">
+        <v>486</v>
+      </c>
+      <c r="D8" t="s">
         <v>487</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>488</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>489</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>490</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>491</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>492</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>493</v>
       </c>
-      <c r="J8" t="s">
-        <v>494</v>
-      </c>
       <c r="K8" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="11" spans="3:18">
       <c r="C11" t="s">
+        <v>468</v>
+      </c>
+      <c r="D11" t="s">
+        <v>445</v>
+      </c>
+      <c r="E11" t="s">
+        <v>447</v>
+      </c>
+      <c r="F11" t="s">
         <v>469</v>
       </c>
-      <c r="D11" t="s">
-        <v>446</v>
-      </c>
-      <c r="E11" t="s">
-        <v>448</v>
-      </c>
-      <c r="F11" t="s">
-        <v>470</v>
-      </c>
       <c r="G11" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H11" t="s">
+        <v>494</v>
+      </c>
+      <c r="I11" t="s">
+        <v>474</v>
+      </c>
+      <c r="J11" t="s">
         <v>495</v>
       </c>
-      <c r="I11" t="s">
-        <v>475</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>496</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>497</v>
       </c>
-      <c r="L11" t="s">
-        <v>498</v>
-      </c>
       <c r="M11" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="N11" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="O11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="14" spans="3:18">
       <c r="C14" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D14" t="s">
+        <v>536</v>
+      </c>
+      <c r="E14" t="s">
         <v>537</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
+        <v>534</v>
+      </c>
+      <c r="G14" t="s">
+        <v>535</v>
+      </c>
+      <c r="H14" t="s">
         <v>538</v>
       </c>
-      <c r="F14" t="s">
-        <v>535</v>
-      </c>
-      <c r="G14" t="s">
-        <v>536</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>539</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>540</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>541</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>542</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>543</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>544</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>545</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>546</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>547</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="16" spans="3:18">
       <c r="C16" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D16" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E16" t="s">
+        <v>537</v>
+      </c>
+      <c r="F16" t="s">
+        <v>494</v>
+      </c>
+      <c r="G16" t="s">
+        <v>549</v>
+      </c>
+      <c r="H16" t="s">
+        <v>535</v>
+      </c>
+      <c r="I16" t="s">
         <v>538</v>
       </c>
-      <c r="F16" t="s">
-        <v>495</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="J16" t="s">
+        <v>539</v>
+      </c>
+      <c r="K16" t="s">
+        <v>540</v>
+      </c>
+      <c r="L16" t="s">
+        <v>541</v>
+      </c>
+      <c r="M16" t="s">
+        <v>542</v>
+      </c>
+      <c r="N16" t="s">
+        <v>543</v>
+      </c>
+      <c r="O16" t="s">
+        <v>544</v>
+      </c>
+      <c r="P16" t="s">
+        <v>545</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>546</v>
+      </c>
+      <c r="R16" t="s">
         <v>550</v>
-      </c>
-      <c r="H16" t="s">
-        <v>536</v>
-      </c>
-      <c r="I16" t="s">
-        <v>539</v>
-      </c>
-      <c r="J16" t="s">
-        <v>540</v>
-      </c>
-      <c r="K16" t="s">
-        <v>541</v>
-      </c>
-      <c r="L16" t="s">
-        <v>542</v>
-      </c>
-      <c r="M16" t="s">
-        <v>543</v>
-      </c>
-      <c r="N16" t="s">
-        <v>544</v>
-      </c>
-      <c r="O16" t="s">
-        <v>545</v>
-      </c>
-      <c r="P16" t="s">
-        <v>546</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>547</v>
-      </c>
-      <c r="R16" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="18" spans="3:17">
       <c r="C18" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D18" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E18" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G18" t="s">
+        <v>558</v>
+      </c>
+      <c r="H18" t="s">
+        <v>559</v>
+      </c>
+      <c r="I18" t="s">
+        <v>560</v>
+      </c>
+      <c r="J18" t="s">
+        <v>541</v>
+      </c>
+      <c r="K18" t="s">
+        <v>542</v>
+      </c>
+      <c r="L18" t="s">
+        <v>543</v>
+      </c>
+      <c r="M18" t="s">
         <v>561</v>
       </c>
-      <c r="H18" t="s">
-        <v>562</v>
-      </c>
-      <c r="I18" t="s">
-        <v>563</v>
-      </c>
-      <c r="J18" t="s">
-        <v>542</v>
-      </c>
-      <c r="K18" t="s">
-        <v>543</v>
-      </c>
-      <c r="L18" t="s">
-        <v>544</v>
-      </c>
-      <c r="M18" t="s">
-        <v>564</v>
-      </c>
       <c r="N18" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="O18" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="P18" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="21" spans="3:17">
       <c r="C21" t="s">
+        <v>567</v>
+      </c>
+      <c r="D21" t="s">
+        <v>445</v>
+      </c>
+      <c r="E21" t="s">
+        <v>568</v>
+      </c>
+      <c r="F21" t="s">
+        <v>569</v>
+      </c>
+      <c r="G21" t="s">
+        <v>570</v>
+      </c>
+      <c r="H21" t="s">
         <v>571</v>
       </c>
-      <c r="D21" t="s">
-        <v>446</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="I21" t="s">
         <v>572</v>
       </c>
-      <c r="F21" t="s">
+      <c r="J21" t="s">
         <v>573</v>
       </c>
-      <c r="G21" t="s">
+      <c r="K21" t="s">
         <v>574</v>
       </c>
-      <c r="H21" t="s">
+      <c r="L21" t="s">
         <v>575</v>
       </c>
-      <c r="I21" t="s">
+      <c r="M21" t="s">
+        <v>543</v>
+      </c>
+      <c r="N21" t="s">
         <v>576</v>
       </c>
-      <c r="J21" t="s">
+      <c r="O21" t="s">
         <v>577</v>
       </c>
-      <c r="K21" t="s">
-        <v>578</v>
-      </c>
-      <c r="L21" t="s">
-        <v>579</v>
-      </c>
-      <c r="M21" t="s">
-        <v>544</v>
-      </c>
-      <c r="N21" t="s">
-        <v>580</v>
-      </c>
-      <c r="O21" t="s">
-        <v>581</v>
-      </c>
       <c r="P21" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Q21" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="23" spans="3:17" ht="14.25">
       <c r="C23" s="40" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="D23" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="E23" t="s">
+        <v>597</v>
+      </c>
+      <c r="F23" t="s">
+        <v>598</v>
+      </c>
+      <c r="G23" t="s">
+        <v>599</v>
+      </c>
+      <c r="H23" t="s">
+        <v>600</v>
+      </c>
+      <c r="I23" t="s">
         <v>601</v>
       </c>
-      <c r="F23" t="s">
+      <c r="J23" t="s">
         <v>602</v>
       </c>
-      <c r="G23" t="s">
+      <c r="K23" t="s">
         <v>603</v>
       </c>
-      <c r="H23" t="s">
+      <c r="L23" t="s">
         <v>604</v>
       </c>
-      <c r="I23" t="s">
+      <c r="M23" t="s">
         <v>605</v>
       </c>
-      <c r="J23" t="s">
+      <c r="N23" t="s">
         <v>606</v>
       </c>
-      <c r="K23" t="s">
+      <c r="O23" t="s">
         <v>607</v>
       </c>
-      <c r="L23" t="s">
-        <v>608</v>
-      </c>
-      <c r="M23" t="s">
-        <v>609</v>
-      </c>
-      <c r="N23" t="s">
-        <v>610</v>
-      </c>
-      <c r="O23" t="s">
-        <v>611</v>
-      </c>
       <c r="P23" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="Q23" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
   </sheetData>
@@ -3525,16 +4779,1186 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="9" style="46"/>
+    <col min="2" max="2" width="9" style="48"/>
+    <col min="3" max="3" width="63.625" style="50" customWidth="1"/>
+    <col min="4" max="4" width="5.375" style="46" customWidth="1"/>
+    <col min="5" max="5" width="50.875" style="46" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="46"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="44.1" customHeight="1">
+      <c r="B2" s="47">
+        <v>1</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>646</v>
+      </c>
+      <c r="D2" s="51">
+        <v>1</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="44.1" customHeight="1">
+      <c r="B3" s="48">
+        <v>2</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>647</v>
+      </c>
+      <c r="D3" s="53">
+        <v>2</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="44.1" customHeight="1">
+      <c r="B4" s="48">
+        <v>3</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>639</v>
+      </c>
+      <c r="D4" s="53">
+        <v>3</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="44.1" customHeight="1">
+      <c r="B5" s="48">
+        <v>4</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>640</v>
+      </c>
+      <c r="D5" s="53">
+        <v>4</v>
+      </c>
+      <c r="E5" s="54" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="44.1" customHeight="1">
+      <c r="B6" s="48">
+        <v>5</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>644</v>
+      </c>
+      <c r="D6" s="51">
+        <v>5</v>
+      </c>
+      <c r="E6" s="54" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="44.1" customHeight="1">
+      <c r="B7" s="48">
+        <v>6</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>641</v>
+      </c>
+      <c r="D7" s="53">
+        <v>6</v>
+      </c>
+      <c r="E7" s="52" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="44.1" customHeight="1">
+      <c r="B8" s="48">
+        <v>7</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>642</v>
+      </c>
+      <c r="D8" s="53">
+        <v>7</v>
+      </c>
+      <c r="E8" s="54" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="44.1" customHeight="1">
+      <c r="B9" s="48">
+        <v>8</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>643</v>
+      </c>
+      <c r="D9" s="53">
+        <v>8</v>
+      </c>
+      <c r="E9" s="54" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="44.1" customHeight="1">
+      <c r="B10" s="48">
+        <v>9</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>645</v>
+      </c>
+      <c r="D10" s="51">
+        <v>9</v>
+      </c>
+      <c r="E10" s="52" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="44.1" customHeight="1">
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+    </row>
+    <row r="12" spans="2:5" ht="44.1" customHeight="1">
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:T36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D3" sqref="D3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3.375" style="61" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="62" customWidth="1"/>
+    <col min="3" max="3" width="33.125" style="61" customWidth="1"/>
+    <col min="4" max="4" width="7.125" style="61" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="61" customWidth="1"/>
+    <col min="6" max="6" width="19.5" style="61" customWidth="1"/>
+    <col min="7" max="7" width="28.25" style="61" customWidth="1"/>
+    <col min="8" max="8" width="35.875" style="61" customWidth="1"/>
+    <col min="9" max="9" width="60.25" style="61" customWidth="1"/>
+    <col min="10" max="11" width="11.125" style="61" customWidth="1"/>
+    <col min="12" max="12" width="19" style="61" customWidth="1"/>
+    <col min="13" max="13" width="11.625" style="61" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="61"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:20">
+      <c r="B2" s="62" t="s">
+        <v>385</v>
+      </c>
+      <c r="C2" s="61" t="s">
+        <v>548</v>
+      </c>
+      <c r="D2" s="61" t="s">
+        <v>395</v>
+      </c>
+      <c r="E2" s="61" t="s">
+        <v>661</v>
+      </c>
+      <c r="F2" s="61" t="s">
+        <v>662</v>
+      </c>
+      <c r="G2" s="61" t="s">
+        <v>664</v>
+      </c>
+      <c r="H2" s="61" t="s">
+        <v>663</v>
+      </c>
+      <c r="I2" s="61" t="s">
+        <v>408</v>
+      </c>
+      <c r="N2" s="61" t="s">
+        <v>665</v>
+      </c>
+      <c r="O2" s="61" t="s">
+        <v>666</v>
+      </c>
+      <c r="P2" s="61" t="s">
+        <v>667</v>
+      </c>
+      <c r="Q2" s="61" t="s">
+        <v>786</v>
+      </c>
+      <c r="R2" s="61" t="s">
+        <v>668</v>
+      </c>
+      <c r="S2" s="61" t="s">
+        <v>669</v>
+      </c>
+      <c r="T2" s="61" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="26.25" customHeight="1">
+      <c r="B3" s="63" t="s">
+        <v>787</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="G3" s="64" t="s">
+        <v>697</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>698</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>699</v>
+      </c>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="64" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="33" customHeight="1">
+      <c r="A4" s="61">
+        <v>1</v>
+      </c>
+      <c r="B4" s="65" t="s">
+        <v>701</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>704</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>702</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>705</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>706</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>707</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>708</v>
+      </c>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+    </row>
+    <row r="5" spans="1:20" ht="33" customHeight="1">
+      <c r="A5" s="61">
+        <v>2</v>
+      </c>
+      <c r="B5" s="65" t="s">
+        <v>709</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>704</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>710</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>705</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>706</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>712</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>713</v>
+      </c>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+    </row>
+    <row r="6" spans="1:20" ht="33" customHeight="1">
+      <c r="A6" s="61">
+        <v>3</v>
+      </c>
+      <c r="B6" s="65" t="s">
+        <v>714</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>704</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>715</v>
+      </c>
+      <c r="F6" s="65" t="s">
+        <v>671</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>716</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>717</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>718</v>
+      </c>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+    </row>
+    <row r="7" spans="1:20" ht="33" customHeight="1">
+      <c r="A7" s="61">
+        <v>4</v>
+      </c>
+      <c r="B7" s="65" t="s">
+        <v>719</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>704</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>720</v>
+      </c>
+      <c r="F7" s="65" t="s">
+        <v>722</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>723</v>
+      </c>
+      <c r="H7" s="16">
+        <v>42937</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>724</v>
+      </c>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+    </row>
+    <row r="8" spans="1:20" ht="33" customHeight="1">
+      <c r="A8" s="61">
+        <v>5</v>
+      </c>
+      <c r="B8" s="65" t="s">
+        <v>725</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>704</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>726</v>
+      </c>
+      <c r="F8" s="65" t="s">
+        <v>727</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>723</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>728</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>729</v>
+      </c>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+    </row>
+    <row r="9" spans="1:20" ht="33" customHeight="1">
+      <c r="A9" s="61">
+        <v>6</v>
+      </c>
+      <c r="B9" s="65" t="s">
+        <v>725</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>704</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>673</v>
+      </c>
+      <c r="F9" s="65" t="s">
+        <v>674</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>723</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>728</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>729</v>
+      </c>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+    </row>
+    <row r="10" spans="1:20" ht="33" customHeight="1">
+      <c r="A10" s="61">
+        <v>7</v>
+      </c>
+      <c r="B10" s="65" t="s">
+        <v>730</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>704</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>731</v>
+      </c>
+      <c r="F10" s="65" t="s">
+        <v>675</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>732</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>733</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>734</v>
+      </c>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+    </row>
+    <row r="11" spans="1:20" ht="33" customHeight="1">
+      <c r="A11" s="61">
+        <v>8</v>
+      </c>
+      <c r="B11" s="65" t="s">
+        <v>730</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>704</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>676</v>
+      </c>
+      <c r="F11" s="65" t="s">
+        <v>677</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>732</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>733</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>734</v>
+      </c>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+    </row>
+    <row r="12" spans="1:20" ht="33" customHeight="1">
+      <c r="A12" s="61">
+        <v>9</v>
+      </c>
+      <c r="B12" s="65" t="s">
+        <v>730</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>704</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>735</v>
+      </c>
+      <c r="F12" s="65" t="s">
+        <v>678</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>732</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>733</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>734</v>
+      </c>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+    </row>
+    <row r="13" spans="1:20" ht="33" customHeight="1">
+      <c r="A13" s="61">
+        <v>10</v>
+      </c>
+      <c r="B13" s="65" t="s">
+        <v>736</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>704</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>737</v>
+      </c>
+      <c r="F13" s="65" t="s">
+        <v>679</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>670</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>680</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>681</v>
+      </c>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+    </row>
+    <row r="14" spans="1:20" ht="33" customHeight="1">
+      <c r="A14" s="61">
+        <v>11</v>
+      </c>
+      <c r="B14" s="65" t="s">
+        <v>736</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>704</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>738</v>
+      </c>
+      <c r="F14" s="65" t="s">
+        <v>682</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>670</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>680</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>681</v>
+      </c>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+    </row>
+    <row r="15" spans="1:20" ht="33" customHeight="1">
+      <c r="A15" s="61">
+        <v>12</v>
+      </c>
+      <c r="B15" s="65" t="s">
+        <v>739</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>704</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>740</v>
+      </c>
+      <c r="F15" s="65" t="s">
+        <v>679</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>670</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>683</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>741</v>
+      </c>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+    </row>
+    <row r="16" spans="1:20" ht="33" customHeight="1">
+      <c r="A16" s="61">
+        <v>13</v>
+      </c>
+      <c r="B16" s="65" t="s">
+        <v>742</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>672</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>704</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>743</v>
+      </c>
+      <c r="F16" s="65" t="s">
+        <v>744</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>723</v>
+      </c>
+      <c r="H16" s="65" t="s">
+        <v>742</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>745</v>
+      </c>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="33" customHeight="1">
+      <c r="A17" s="61">
+        <v>14</v>
+      </c>
+      <c r="B17" s="65" t="s">
+        <v>742</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>672</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>704</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>747</v>
+      </c>
+      <c r="F17" s="65" t="s">
+        <v>748</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>723</v>
+      </c>
+      <c r="H17" s="65" t="s">
+        <v>742</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>745</v>
+      </c>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="33" customHeight="1">
+      <c r="A18" s="61">
+        <v>15</v>
+      </c>
+      <c r="B18" s="65" t="s">
+        <v>749</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>751</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>704</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>750</v>
+      </c>
+      <c r="F18" s="65" t="s">
+        <v>752</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>753</v>
+      </c>
+      <c r="H18" s="16">
+        <v>43032</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>754</v>
+      </c>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="33" customHeight="1">
+      <c r="A19" s="61">
+        <v>16</v>
+      </c>
+      <c r="B19" s="65" t="s">
+        <v>749</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>751</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>704</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>756</v>
+      </c>
+      <c r="F19" s="65" t="s">
+        <v>757</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>753</v>
+      </c>
+      <c r="H19" s="16">
+        <v>43032</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>754</v>
+      </c>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="33" customHeight="1">
+      <c r="A20" s="61">
+        <v>17</v>
+      </c>
+      <c r="B20" s="65" t="s">
+        <v>684</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>704</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>758</v>
+      </c>
+      <c r="F20" s="65" t="s">
+        <v>685</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>759</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>686</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>760</v>
+      </c>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="33" customHeight="1">
+      <c r="A21" s="61">
+        <v>18</v>
+      </c>
+      <c r="B21" s="65" t="s">
+        <v>684</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>704</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>762</v>
+      </c>
+      <c r="F21" s="65" t="s">
+        <v>687</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>759</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>686</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>760</v>
+      </c>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="33" customHeight="1">
+      <c r="A22" s="61">
+        <v>19</v>
+      </c>
+      <c r="B22" s="65" t="s">
+        <v>763</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>765</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>704</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>764</v>
+      </c>
+      <c r="F22" s="65" t="s">
+        <v>766</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>723</v>
+      </c>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17" t="s">
+        <v>767</v>
+      </c>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="33" customHeight="1">
+      <c r="A23" s="61">
+        <v>20</v>
+      </c>
+      <c r="B23" s="65" t="s">
+        <v>763</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>765</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>704</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>769</v>
+      </c>
+      <c r="F23" s="65" t="s">
+        <v>770</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>723</v>
+      </c>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17" t="s">
+        <v>767</v>
+      </c>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="33" customHeight="1">
+      <c r="A24" s="61">
+        <v>21</v>
+      </c>
+      <c r="B24" s="65" t="s">
+        <v>771</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>688</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>704</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>772</v>
+      </c>
+      <c r="F24" s="65" t="s">
+        <v>773</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>759</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>774</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>775</v>
+      </c>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="33" customHeight="1">
+      <c r="A25" s="61">
+        <v>22</v>
+      </c>
+      <c r="B25" s="65" t="s">
+        <v>777</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>778</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>704</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>731</v>
+      </c>
+      <c r="F25" s="65" t="s">
+        <v>779</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>759</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>780</v>
+      </c>
+      <c r="I25" s="17" t="s">
+        <v>781</v>
+      </c>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="33" customHeight="1">
+      <c r="A26" s="61">
+        <v>23</v>
+      </c>
+      <c r="B26" s="65" t="s">
+        <v>783</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>689</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>704</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>784</v>
+      </c>
+      <c r="F26" s="65" t="s">
+        <v>690</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>759</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>691</v>
+      </c>
+      <c r="I26" s="17" t="s">
+        <v>692</v>
+      </c>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="33" customHeight="1">
+      <c r="B27" s="65"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+    </row>
+    <row r="28" spans="1:13" ht="33" customHeight="1">
+      <c r="B28" s="65"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+    </row>
+    <row r="29" spans="1:13" ht="33" customHeight="1">
+      <c r="B29" s="65"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+    </row>
+    <row r="30" spans="1:13" ht="33" customHeight="1">
+      <c r="B30" s="65"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+    </row>
+    <row r="31" spans="1:13" ht="33" customHeight="1">
+      <c r="B31" s="65"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+    </row>
+    <row r="32" spans="1:13" ht="33" customHeight="1">
+      <c r="B32" s="65"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+    </row>
+    <row r="33" spans="2:13" ht="33" customHeight="1">
+      <c r="B33" s="65"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+    </row>
+    <row r="34" spans="2:13" ht="33" customHeight="1">
+      <c r="B34" s="65"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+    </row>
+    <row r="35" spans="2:13" ht="33" customHeight="1">
+      <c r="B35" s="65"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+    </row>
+    <row r="36" spans="2:13" ht="33" customHeight="1">
+      <c r="B36" s="65"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3544,7 +5968,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:I3"/>
     </sheetView>
   </sheetViews>
@@ -3563,16 +5987,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="33.75" customHeight="1">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="57" t="s">
         <v>322</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
     </row>
     <row r="3" spans="1:9" ht="27">
       <c r="B3" s="2" t="s">
@@ -4500,7 +6924,7 @@
   <dimension ref="A2:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:J3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4518,16 +6942,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="33.75" customHeight="1">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="57" t="s">
         <v>323</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
     </row>
     <row r="3" spans="1:10" ht="27">
       <c r="B3" s="2" t="s">
@@ -5199,7 +7623,7 @@
   <dimension ref="A2:R112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R3" sqref="B3:R3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="33" customHeight="1"/>
@@ -5226,22 +7650,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="33" customHeight="1">
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="59" t="s">
         <v>324</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
     </row>
     <row r="3" spans="1:18" ht="33" customHeight="1">
       <c r="B3" s="2" t="s">
@@ -5293,7 +7717,7 @@
         <v>29</v>
       </c>
       <c r="R3" s="29" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="33" customHeight="1">
@@ -9801,13 +12225,28 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:AB44"/>
+  <dimension ref="B1:AB44"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9825,6 +12264,11 @@
     <col min="26" max="16384" width="9" style="31"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:26" ht="29.25" customHeight="1">
+      <c r="I1" s="31" t="s">
+        <v>789</v>
+      </c>
+    </row>
     <row r="2" spans="2:26" ht="27" customHeight="1">
       <c r="B2" s="28">
         <v>1</v>
@@ -9833,61 +12277,61 @@
         <v>378</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I2" s="28" t="s">
         <v>385</v>
       </c>
       <c r="J2" s="35" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="K2" s="35" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="L2" s="35" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="M2" s="35" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="N2" s="35" t="s">
+        <v>403</v>
+      </c>
+      <c r="O2" s="35" t="s">
         <v>404</v>
       </c>
-      <c r="O2" s="35" t="s">
-        <v>405</v>
-      </c>
       <c r="P2" s="35" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="Q2" s="35" t="s">
+        <v>409</v>
+      </c>
+      <c r="R2" s="35" t="s">
+        <v>419</v>
+      </c>
+      <c r="S2" s="28" t="s">
         <v>410</v>
       </c>
-      <c r="R2" s="35" t="s">
-        <v>420</v>
-      </c>
-      <c r="S2" s="28" t="s">
+      <c r="T2" s="28" t="s">
         <v>411</v>
       </c>
-      <c r="T2" s="28" t="s">
+      <c r="U2" s="28" t="s">
         <v>412</v>
       </c>
-      <c r="U2" s="28" t="s">
+      <c r="V2" s="28" t="s">
+        <v>432</v>
+      </c>
+      <c r="W2" s="28" t="s">
         <v>413</v>
       </c>
-      <c r="V2" s="28" t="s">
-        <v>433</v>
-      </c>
-      <c r="W2" s="28" t="s">
+      <c r="X2" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="X2" s="28" t="s">
+      <c r="Y2" s="28" t="s">
         <v>415</v>
       </c>
-      <c r="Y2" s="28" t="s">
-        <v>416</v>
-      </c>
       <c r="Z2" s="31" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="3" spans="2:26" ht="27" customHeight="1">
@@ -9906,52 +12350,52 @@
         <v>380</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>385</v>
+        <v>788</v>
       </c>
       <c r="J4" s="35" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="K4" s="35" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="L4" s="35" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="M4" s="35" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="N4" s="35" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O4" s="35" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="P4" s="35" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="Q4" s="28" t="s">
+        <v>410</v>
+      </c>
+      <c r="R4" s="28" t="s">
         <v>411</v>
       </c>
-      <c r="R4" s="28" t="s">
+      <c r="S4" s="28" t="s">
         <v>412</v>
       </c>
-      <c r="S4" s="28" t="s">
-        <v>413</v>
-      </c>
       <c r="T4" s="28" t="s">
+        <v>417</v>
+      </c>
+      <c r="U4" s="28" t="s">
         <v>418</v>
       </c>
-      <c r="U4" s="28" t="s">
-        <v>419</v>
-      </c>
       <c r="V4" s="28" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="W4" s="28" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="X4" s="31" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="5" spans="2:26" ht="27" customHeight="1">
@@ -9973,13 +12417,13 @@
         <v>211</v>
       </c>
       <c r="J6" s="35" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="K6" s="35" t="s">
+        <v>427</v>
+      </c>
+      <c r="L6" s="35" t="s">
         <v>428</v>
-      </c>
-      <c r="L6" s="35" t="s">
-        <v>429</v>
       </c>
       <c r="M6" s="35" t="s">
         <v>254</v>
@@ -9988,31 +12432,31 @@
         <v>255</v>
       </c>
       <c r="O6" s="35" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="P6" s="35" t="s">
         <v>217</v>
       </c>
       <c r="Q6" s="28" t="s">
+        <v>410</v>
+      </c>
+      <c r="R6" s="28" t="s">
         <v>411</v>
       </c>
-      <c r="R6" s="28" t="s">
+      <c r="S6" s="28" t="s">
         <v>412</v>
       </c>
-      <c r="S6" s="28" t="s">
+      <c r="T6" s="28" t="s">
         <v>413</v>
       </c>
-      <c r="T6" s="28" t="s">
-        <v>414</v>
-      </c>
       <c r="U6" s="28" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="V6" s="28" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="W6" s="28" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="7" spans="2:26" ht="27" customHeight="1">
@@ -10034,46 +12478,46 @@
         <v>385</v>
       </c>
       <c r="J8" s="35" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="K8" s="35" t="s">
+        <v>427</v>
+      </c>
+      <c r="L8" s="35" t="s">
         <v>428</v>
       </c>
-      <c r="L8" s="35" t="s">
+      <c r="M8" s="35" t="s">
+        <v>386</v>
+      </c>
+      <c r="N8" s="35" t="s">
+        <v>387</v>
+      </c>
+      <c r="O8" s="35" t="s">
+        <v>431</v>
+      </c>
+      <c r="P8" s="35" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q8" s="28" t="s">
+        <v>410</v>
+      </c>
+      <c r="R8" s="28" t="s">
+        <v>411</v>
+      </c>
+      <c r="S8" s="28" t="s">
+        <v>412</v>
+      </c>
+      <c r="T8" s="28" t="s">
+        <v>414</v>
+      </c>
+      <c r="U8" s="28" t="s">
         <v>429</v>
       </c>
-      <c r="M8" s="35" t="s">
-        <v>387</v>
-      </c>
-      <c r="N8" s="35" t="s">
-        <v>388</v>
-      </c>
-      <c r="O8" s="35" t="s">
-        <v>432</v>
-      </c>
-      <c r="P8" s="35" t="s">
+      <c r="V8" s="28" t="s">
+        <v>398</v>
+      </c>
+      <c r="W8" s="28" t="s">
         <v>389</v>
-      </c>
-      <c r="Q8" s="28" t="s">
-        <v>411</v>
-      </c>
-      <c r="R8" s="28" t="s">
-        <v>412</v>
-      </c>
-      <c r="S8" s="28" t="s">
-        <v>413</v>
-      </c>
-      <c r="T8" s="28" t="s">
-        <v>415</v>
-      </c>
-      <c r="U8" s="28" t="s">
-        <v>430</v>
-      </c>
-      <c r="V8" s="28" t="s">
-        <v>399</v>
-      </c>
-      <c r="W8" s="28" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="9" spans="2:26" ht="27" customHeight="1">
@@ -10095,40 +12539,40 @@
         <v>385</v>
       </c>
       <c r="J10" s="35" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="K10" s="35" t="s">
+        <v>396</v>
+      </c>
+      <c r="L10" s="35" t="s">
+        <v>416</v>
+      </c>
+      <c r="M10" s="35" t="s">
+        <v>426</v>
+      </c>
+      <c r="N10" s="28" t="s">
+        <v>410</v>
+      </c>
+      <c r="O10" s="28" t="s">
+        <v>411</v>
+      </c>
+      <c r="P10" s="28" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q10" s="28" t="s">
+        <v>413</v>
+      </c>
+      <c r="R10" s="28" t="s">
+        <v>414</v>
+      </c>
+      <c r="S10" s="28" t="s">
         <v>397</v>
       </c>
-      <c r="L10" s="35" t="s">
-        <v>417</v>
-      </c>
-      <c r="M10" s="35" t="s">
-        <v>427</v>
-      </c>
-      <c r="N10" s="28" t="s">
-        <v>411</v>
-      </c>
-      <c r="O10" s="28" t="s">
-        <v>412</v>
-      </c>
-      <c r="P10" s="28" t="s">
-        <v>413</v>
-      </c>
-      <c r="Q10" s="28" t="s">
-        <v>414</v>
-      </c>
-      <c r="R10" s="28" t="s">
-        <v>415</v>
-      </c>
-      <c r="S10" s="28" t="s">
+      <c r="T10" s="28" t="s">
         <v>398</v>
       </c>
-      <c r="T10" s="28" t="s">
-        <v>399</v>
-      </c>
       <c r="U10" s="28" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="11" spans="2:26" ht="27" customHeight="1">
@@ -10158,13 +12602,13 @@
         <v>2</v>
       </c>
       <c r="M12" s="35" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="N12" s="35" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="O12" s="28" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="P12" s="28" t="s">
         <v>16</v>
@@ -10176,13 +12620,13 @@
         <v>29</v>
       </c>
       <c r="S12" s="28" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="T12" s="28" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="U12" s="28" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="13" spans="2:26" ht="27" customHeight="1">
@@ -10190,46 +12634,46 @@
       <c r="C13" s="28"/>
       <c r="E13" s="28"/>
       <c r="I13" s="30" t="s">
+        <v>468</v>
+      </c>
+      <c r="J13" s="36" t="s">
+        <v>445</v>
+      </c>
+      <c r="K13" s="36" t="s">
+        <v>447</v>
+      </c>
+      <c r="L13" s="36" t="s">
         <v>469</v>
       </c>
-      <c r="J13" s="36" t="s">
-        <v>446</v>
-      </c>
-      <c r="K13" s="36" t="s">
-        <v>448</v>
-      </c>
-      <c r="L13" s="36" t="s">
-        <v>470</v>
-      </c>
       <c r="M13" s="36" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="N13" s="36" t="s">
+        <v>494</v>
+      </c>
+      <c r="O13" s="28" t="s">
+        <v>474</v>
+      </c>
+      <c r="P13" s="28" t="s">
         <v>495</v>
       </c>
-      <c r="O13" s="28" t="s">
-        <v>475</v>
-      </c>
-      <c r="P13" s="28" t="s">
+      <c r="Q13" s="28" t="s">
         <v>496</v>
       </c>
-      <c r="Q13" s="28" t="s">
+      <c r="R13" s="28" t="s">
         <v>497</v>
       </c>
-      <c r="R13" s="28" t="s">
-        <v>498</v>
-      </c>
       <c r="S13" s="28" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="T13" s="28" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="U13" s="28" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="V13" s="28" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="14" spans="2:26" ht="27" customHeight="1">
@@ -10237,16 +12681,16 @@
       <c r="C14" s="28"/>
       <c r="E14" s="28"/>
       <c r="O14" s="28" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="P14" s="28" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Q14" s="28" t="s">
         <v>16</v>
       </c>
       <c r="R14" s="28" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="S14" s="28" t="s">
         <v>18</v>
@@ -10255,7 +12699,7 @@
         <v>8</v>
       </c>
       <c r="U14" s="28" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="15" spans="2:26" ht="27" customHeight="1">
@@ -10263,28 +12707,28 @@
       <c r="C15" s="28"/>
       <c r="E15" s="28"/>
       <c r="O15" s="30" t="s">
+        <v>498</v>
+      </c>
+      <c r="P15" s="30" t="s">
         <v>499</v>
       </c>
-      <c r="P15" s="30" t="s">
+      <c r="Q15" s="30" t="s">
+        <v>492</v>
+      </c>
+      <c r="R15" s="30" t="s">
+        <v>492</v>
+      </c>
+      <c r="S15" s="30" t="s">
         <v>500</v>
       </c>
-      <c r="Q15" s="30" t="s">
+      <c r="T15" s="30" t="s">
         <v>493</v>
       </c>
-      <c r="R15" s="30" t="s">
-        <v>493</v>
-      </c>
-      <c r="S15" s="30" t="s">
-        <v>501</v>
-      </c>
-      <c r="T15" s="30" t="s">
-        <v>494</v>
-      </c>
       <c r="U15" s="30" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="V15" s="28" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="16" spans="2:26" ht="27" customHeight="1">
@@ -10320,16 +12764,16 @@
         <v>2</v>
       </c>
       <c r="M17" s="35" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="N17" s="35" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="O17" s="28" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="P17" s="28" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="Q17" s="28" t="s">
         <v>8</v>
@@ -10341,13 +12785,13 @@
         <v>29</v>
       </c>
       <c r="T17" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="U17" s="28" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="V17" s="28" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="18" spans="2:28" ht="27" customHeight="1">
@@ -10355,49 +12799,49 @@
       <c r="C18" s="30"/>
       <c r="E18" s="28"/>
       <c r="I18" s="30" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="J18" s="36" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="K18" s="36" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L18" s="36" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="M18" s="36" t="s">
+        <v>472</v>
+      </c>
+      <c r="N18" s="36" t="s">
         <v>473</v>
       </c>
-      <c r="N18" s="36" t="s">
-        <v>474</v>
-      </c>
       <c r="O18" s="30" t="s">
+        <v>475</v>
+      </c>
+      <c r="P18" s="37" t="s">
         <v>476</v>
       </c>
-      <c r="P18" s="37" t="s">
-        <v>477</v>
-      </c>
       <c r="Q18" s="37" t="s">
+        <v>478</v>
+      </c>
+      <c r="R18" s="28" t="s">
         <v>479</v>
       </c>
-      <c r="R18" s="28" t="s">
+      <c r="S18" s="37" t="s">
         <v>480</v>
       </c>
-      <c r="S18" s="37" t="s">
-        <v>481</v>
-      </c>
       <c r="T18" s="37" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="U18" s="28" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="V18" s="28" t="s">
+        <v>484</v>
+      </c>
+      <c r="W18" s="28" t="s">
         <v>485</v>
-      </c>
-      <c r="W18" s="28" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="19" spans="2:28" ht="27" customHeight="1">
@@ -10418,13 +12862,13 @@
         <v>5</v>
       </c>
       <c r="R19" s="28" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="S19" s="37" t="s">
         <v>6</v>
       </c>
       <c r="T19" s="37" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="U19" s="28" t="s">
         <v>7</v>
@@ -10436,7 +12880,7 @@
         <v>8</v>
       </c>
       <c r="X19" s="28" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="Y19" s="30"/>
       <c r="Z19" s="30"/>
@@ -10455,34 +12899,34 @@
       <c r="N20" s="36"/>
       <c r="O20" s="30"/>
       <c r="P20" s="28" t="s">
+        <v>486</v>
+      </c>
+      <c r="Q20" s="28" t="s">
         <v>487</v>
       </c>
-      <c r="Q20" s="28" t="s">
+      <c r="R20" s="28" t="s">
         <v>488</v>
       </c>
-      <c r="R20" s="28" t="s">
+      <c r="S20" s="28" t="s">
         <v>489</v>
       </c>
-      <c r="S20" s="28" t="s">
+      <c r="T20" s="28" t="s">
         <v>490</v>
       </c>
-      <c r="T20" s="28" t="s">
+      <c r="U20" s="28" t="s">
         <v>491</v>
       </c>
-      <c r="U20" s="28" t="s">
+      <c r="V20" s="28" t="s">
         <v>492</v>
       </c>
-      <c r="V20" s="28" t="s">
+      <c r="W20" s="28" t="s">
         <v>493</v>
       </c>
-      <c r="W20" s="28" t="s">
-        <v>494</v>
-      </c>
       <c r="X20" s="28" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="Y20" s="28" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="Z20" s="30"/>
       <c r="AA20" s="30"/>
@@ -10506,108 +12950,108 @@
         <v>0</v>
       </c>
       <c r="L22" s="35" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="M22" s="35" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="N22" s="35" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="O22" s="28" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="P22" s="28" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="Q22" s="28" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="R22" s="28" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="S22" s="28" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="23" spans="2:28" ht="27" customHeight="1">
       <c r="E23" s="30"/>
       <c r="I23" s="30" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J23" s="36" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="K23" s="36" t="s">
+        <v>448</v>
+      </c>
+      <c r="L23" s="36" t="s">
         <v>449</v>
       </c>
-      <c r="L23" s="36" t="s">
+      <c r="M23" s="36" t="s">
         <v>450</v>
       </c>
-      <c r="M23" s="36" t="s">
+      <c r="N23" s="36" t="s">
         <v>451</v>
       </c>
-      <c r="N23" s="36" t="s">
+      <c r="O23" s="28" t="s">
         <v>452</v>
       </c>
-      <c r="O23" s="28" t="s">
-        <v>453</v>
-      </c>
       <c r="P23" s="28" t="s">
+        <v>454</v>
+      </c>
+      <c r="Q23" s="28" t="s">
         <v>455</v>
       </c>
-      <c r="Q23" s="28" t="s">
+      <c r="R23" s="28" t="s">
         <v>456</v>
       </c>
-      <c r="R23" s="28" t="s">
+      <c r="S23" s="28" t="s">
         <v>457</v>
       </c>
-      <c r="S23" s="28" t="s">
-        <v>458</v>
-      </c>
       <c r="T23" s="31" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="24" spans="2:28" ht="27" customHeight="1">
       <c r="G24" s="38"/>
       <c r="O24" s="28" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="P24" s="28" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="Q24" s="28" t="s">
+        <v>393</v>
+      </c>
+      <c r="R24" s="28" t="s">
+        <v>434</v>
+      </c>
+      <c r="S24" s="28" t="s">
         <v>394</v>
       </c>
-      <c r="R24" s="28" t="s">
-        <v>435</v>
-      </c>
-      <c r="S24" s="28" t="s">
-        <v>395</v>
-      </c>
       <c r="T24" s="28" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="25" spans="2:28" ht="27" customHeight="1">
       <c r="O25" s="31" t="s">
+        <v>458</v>
+      </c>
+      <c r="P25" s="31" t="s">
         <v>459</v>
       </c>
-      <c r="P25" s="31" t="s">
+      <c r="Q25" s="31" t="s">
         <v>460</v>
       </c>
-      <c r="Q25" s="31" t="s">
+      <c r="R25" s="31" t="s">
         <v>461</v>
       </c>
-      <c r="R25" s="31" t="s">
+      <c r="S25" s="31" t="s">
         <v>462</v>
       </c>
-      <c r="S25" s="31" t="s">
+      <c r="T25" s="31" t="s">
         <v>463</v>
-      </c>
-      <c r="T25" s="31" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="26" spans="2:28" ht="27" customHeight="1"/>
@@ -10616,28 +13060,28 @@
         <v>1</v>
       </c>
       <c r="I27" s="30" t="s">
+        <v>464</v>
+      </c>
+      <c r="J27" s="41" t="s">
+        <v>501</v>
+      </c>
+      <c r="L27" s="31" t="s">
+        <v>458</v>
+      </c>
+      <c r="M27" s="41" t="s">
         <v>465</v>
       </c>
-      <c r="J27" s="41" t="s">
-        <v>502</v>
-      </c>
-      <c r="L27" s="31" t="s">
-        <v>459</v>
-      </c>
-      <c r="M27" s="41" t="s">
-        <v>466</v>
-      </c>
       <c r="O27" s="30" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="R27" s="28" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="U27" s="30" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="X27" s="30" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="28" spans="2:28" ht="27" customHeight="1">
@@ -10645,28 +13089,28 @@
         <v>2</v>
       </c>
       <c r="I28" s="36" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="J28" s="41" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="L28" s="31" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="M28" s="41" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O28" s="36" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="R28" s="28" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="U28" s="36" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="X28" s="30" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="29" spans="2:28" ht="27" customHeight="1">
@@ -10674,28 +13118,28 @@
         <v>3</v>
       </c>
       <c r="I29" s="36" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="J29" s="41" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="L29" s="31" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="M29" s="41" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O29" s="36" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="R29" s="28" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="U29" s="36" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="X29" s="30" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="30" spans="2:28" ht="27" customHeight="1">
@@ -10703,28 +13147,28 @@
         <v>4</v>
       </c>
       <c r="I30" s="36" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J30" s="41" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="L30" s="31" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M30" s="41" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O30" s="36" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="R30" s="28" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="U30" s="36" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="X30" s="30" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="31" spans="2:28" ht="27" customHeight="1">
@@ -10732,28 +13176,28 @@
         <v>5</v>
       </c>
       <c r="I31" s="36" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J31" s="41" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="L31" s="31" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M31" s="41" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O31" s="36" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="R31" s="28" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="U31" s="36" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="X31" s="30" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="32" spans="2:28" ht="27" customHeight="1">
@@ -10761,28 +13205,28 @@
         <v>6</v>
       </c>
       <c r="I32" s="36" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="J32" s="41" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="L32" s="31" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="M32" s="41" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O32" s="36" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="R32" s="28" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="U32" s="36" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="X32" s="30" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="33" spans="7:24" ht="27" customHeight="1">
@@ -10790,28 +13234,28 @@
         <v>7</v>
       </c>
       <c r="I33" s="30" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J33" s="41" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="L33" s="31" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="M33" s="41" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O33" s="30" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="R33" s="28" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="U33" s="28" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="X33" s="30" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="34" spans="7:24" ht="27" customHeight="1">
@@ -10819,22 +13263,22 @@
         <v>8</v>
       </c>
       <c r="I34" s="30" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="J34" s="41" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O34" s="37" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="R34" s="28" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="U34" s="28" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="X34" s="28" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="35" spans="7:24" ht="27" customHeight="1">
@@ -10842,19 +13286,19 @@
         <v>9</v>
       </c>
       <c r="I35" s="30" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J35" s="41" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O35" s="37" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="R35" s="28" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="U35" s="28" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="36" spans="7:24" ht="27" customHeight="1">
@@ -10862,19 +13306,19 @@
         <v>10</v>
       </c>
       <c r="I36" s="30" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J36" s="41" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O36" s="28" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="R36" s="28" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="U36" s="28" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="37" spans="7:24" ht="27" customHeight="1">
@@ -10882,16 +13326,16 @@
         <v>11</v>
       </c>
       <c r="I37" s="30" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J37" s="41" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O37" s="37" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="U37" s="28" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="38" spans="7:24" ht="27" customHeight="1">
@@ -10899,16 +13343,16 @@
         <v>12</v>
       </c>
       <c r="I38" s="31" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J38" s="41" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O38" s="37" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="U38" s="28" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="39" spans="7:24" ht="27" customHeight="1">
@@ -10916,10 +13360,10 @@
         <v>13</v>
       </c>
       <c r="O39" s="28" t="s">
+        <v>482</v>
+      </c>
+      <c r="U39" s="28" t="s">
         <v>483</v>
-      </c>
-      <c r="U39" s="28" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="40" spans="7:24" ht="27" customHeight="1">
@@ -10927,10 +13371,10 @@
         <v>14</v>
       </c>
       <c r="O40" s="28" t="s">
+        <v>484</v>
+      </c>
+      <c r="U40" s="28" t="s">
         <v>485</v>
-      </c>
-      <c r="U40" s="28" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="41" spans="7:24" ht="27" customHeight="1">
@@ -10938,7 +13382,7 @@
         <v>15</v>
       </c>
       <c r="O41" s="28" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="42" spans="7:24" ht="27" customHeight="1">
@@ -10959,40 +13403,43 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R49"/>
+  <dimension ref="B1:U48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="3.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="20.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="1" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="20.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="20.625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="22.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="22.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.125" style="66" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="22.5" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21" style="1" customWidth="1"/>
-    <col min="15" max="15" width="20.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9" style="1"/>
-    <col min="17" max="17" width="20.625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="20.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="1"/>
+    <col min="14" max="14" width="22.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="22.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="27" customHeight="1">
+    <row r="1" spans="2:21" ht="27" customHeight="1">
       <c r="D1" s="1" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="2" spans="2:18" ht="27" customHeight="1">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="2" spans="2:21" ht="27" customHeight="1">
       <c r="B2" s="1">
         <v>1</v>
       </c>
@@ -11000,22 +13447,22 @@
         <v>385</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E2" s="42" t="s">
-        <v>521</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>436</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="I2" s="42" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="3" spans="2:18" ht="27" customHeight="1">
+        <v>520</v>
+      </c>
+      <c r="J2" s="28" t="s">
+        <v>435</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="L2" s="42" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" ht="27" customHeight="1">
       <c r="B3" s="1">
         <v>2</v>
       </c>
@@ -11023,22 +13470,22 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>522</v>
-      </c>
-      <c r="G3" s="28" t="s">
-        <v>438</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="I3" s="42" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="4" spans="2:18" ht="27" customHeight="1">
+        <v>521</v>
+      </c>
+      <c r="J3" s="28" t="s">
+        <v>437</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="L3" s="42" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" ht="27" customHeight="1">
       <c r="B4" s="1">
         <v>3</v>
       </c>
@@ -11046,201 +13493,202 @@
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>524</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>394</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="I4" s="42" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="5" spans="2:18" ht="27" customHeight="1">
+        <v>523</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>393</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="L4" s="42" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" ht="27" customHeight="1">
       <c r="B5" s="1">
         <v>4</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>523</v>
-      </c>
-      <c r="G5" s="28" t="s">
-        <v>435</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="I5" s="42" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="6" spans="2:18" ht="27" customHeight="1">
+        <v>522</v>
+      </c>
+      <c r="J5" s="28" t="s">
+        <v>434</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="L5" s="42" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" ht="27" customHeight="1">
       <c r="B6" s="1">
         <v>5</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>526</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>395</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="7" spans="2:18" ht="27" customHeight="1">
+        <v>525</v>
+      </c>
+      <c r="J6" s="28" t="s">
+        <v>394</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" ht="27" customHeight="1">
       <c r="B7" s="1">
         <v>6</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E7" s="42" t="s">
-        <v>525</v>
-      </c>
-      <c r="G7" s="28" t="s">
-        <v>392</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="I7" s="42" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="8" spans="2:18" ht="27" customHeight="1">
+        <v>524</v>
+      </c>
+      <c r="J7" s="28" t="s">
+        <v>391</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="L7" s="42" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" ht="27" customHeight="1">
       <c r="B8" s="1">
         <v>7</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E8" s="42" t="s">
-        <v>527</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="I8" s="42" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="9" spans="2:18" ht="27" customHeight="1">
+      <c r="K8" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="L8" s="42" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" ht="27" customHeight="1">
       <c r="B9" s="1">
         <v>8</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="E9" s="42" t="s">
         <v>529</v>
       </c>
-      <c r="E9" s="42" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18" ht="27" customHeight="1">
+    </row>
+    <row r="10" spans="2:21" ht="27" customHeight="1">
       <c r="B10" s="1">
         <v>9</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E10" s="42" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18" ht="27" customHeight="1">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" ht="27" customHeight="1">
       <c r="B11" s="1">
         <v>10</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E11" s="42" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="12" spans="2:18" ht="27" customHeight="1">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" ht="27" customHeight="1">
       <c r="B12" s="1">
         <v>11</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="13" spans="2:18" ht="27" customHeight="1">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" ht="27" customHeight="1">
       <c r="B13" s="1">
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E13" s="42" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="16" spans="2:18" s="44" customFormat="1" ht="27" customHeight="1">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" s="44" customFormat="1" ht="27" customHeight="1">
       <c r="D16" s="44" t="s">
-        <v>568</v>
-      </c>
-      <c r="H16" s="44" t="s">
-        <v>569</v>
-      </c>
-      <c r="K16" s="44" t="s">
-        <v>570</v>
-      </c>
+        <v>565</v>
+      </c>
+      <c r="F16" s="44" t="s">
+        <v>658</v>
+      </c>
+      <c r="G16" s="67"/>
       <c r="N16" s="44" t="s">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="Q16" s="44" t="s">
-        <v>621</v>
-      </c>
-      <c r="R16" s="44" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="17" spans="2:18" ht="27" customHeight="1">
+        <v>578</v>
+      </c>
+      <c r="T16" s="44" t="s">
+        <v>617</v>
+      </c>
+      <c r="U16" s="44" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" ht="27" customHeight="1">
       <c r="B17" s="1">
         <v>1</v>
       </c>
@@ -11248,1304 +13696,874 @@
         <v>385</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="E17" s="42" t="s">
-        <v>521</v>
-      </c>
-      <c r="G17" s="28" t="s">
-        <v>385</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="I17" s="42" t="s">
-        <v>521</v>
-      </c>
-      <c r="J17" s="28" t="s">
+        <v>520</v>
+      </c>
+      <c r="M17" s="28" t="s">
         <v>211</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="L17" s="42" t="s">
-        <v>521</v>
-      </c>
-      <c r="M17" s="28" t="s">
-        <v>385</v>
-      </c>
-      <c r="N17" s="45" t="s">
-        <v>571</v>
+      <c r="N17" s="1" t="s">
+        <v>567</v>
       </c>
       <c r="O17" s="42" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="P17" s="28" t="s">
         <v>385</v>
       </c>
-      <c r="Q17" s="1" t="s">
-        <v>624</v>
+      <c r="Q17" s="45" t="s">
+        <v>567</v>
       </c>
       <c r="R17" s="42" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="18" spans="2:18" ht="27" customHeight="1">
+        <v>520</v>
+      </c>
+      <c r="S17" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="U17" s="42" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" ht="27" customHeight="1">
       <c r="B18" s="1">
         <v>2</v>
       </c>
-      <c r="C18" s="35" t="s">
-        <v>386</v>
+      <c r="C18" s="55" t="s">
+        <v>548</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E18" s="42" t="s">
-        <v>522</v>
-      </c>
-      <c r="G18" s="35" t="s">
-        <v>549</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="I18" s="42" t="s">
-        <v>522</v>
-      </c>
-      <c r="J18" s="35" t="s">
-        <v>549</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="L18" s="42" t="s">
-        <v>522</v>
+        <v>655</v>
       </c>
       <c r="M18" s="35" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>617</v>
+        <v>445</v>
       </c>
       <c r="O18" s="42" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="P18" s="35" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="R18" s="42" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="19" spans="2:18" ht="27" customHeight="1">
+        <v>521</v>
+      </c>
+      <c r="S18" s="35" t="s">
+        <v>548</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="U18" s="42" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" ht="27" customHeight="1">
       <c r="B19" s="1">
         <v>3</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="56" t="s">
+        <v>660</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="E19" s="42" t="s">
+        <v>657</v>
+      </c>
+      <c r="M19" s="35" t="s">
+        <v>416</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="O19" s="42" t="s">
+        <v>632</v>
+      </c>
+      <c r="P19" s="35" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="R19" s="42" t="s">
+        <v>632</v>
+      </c>
+      <c r="S19" s="35" t="s">
         <v>396</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="E19" s="42" t="s">
-        <v>635</v>
-      </c>
-      <c r="G19" s="35" t="s">
-        <v>396</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="I19" s="42" t="s">
-        <v>635</v>
-      </c>
-      <c r="J19" s="35" t="s">
-        <v>417</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="L19" s="42" t="s">
-        <v>636</v>
-      </c>
-      <c r="M19" s="35" t="s">
-        <v>417</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="O19" s="42" t="s">
-        <v>636</v>
-      </c>
-      <c r="P19" s="35" t="s">
-        <v>397</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="R19" s="42" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="20" spans="2:18" ht="27" customHeight="1">
+      <c r="T19" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="U19" s="42" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" ht="27" customHeight="1">
       <c r="B20" s="1">
         <v>4</v>
       </c>
-      <c r="C20" s="35" t="s">
-        <v>407</v>
+      <c r="C20" s="55" t="s">
+        <v>433</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>538</v>
+        <v>556</v>
       </c>
       <c r="E20" s="42" t="s">
-        <v>636</v>
-      </c>
-      <c r="G20" s="35" t="s">
-        <v>407</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="I20" s="42" t="s">
-        <v>636</v>
-      </c>
-      <c r="J20" s="35" t="s">
-        <v>427</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="L20" s="42" t="s">
-        <v>636</v>
-      </c>
+        <v>632</v>
+      </c>
+      <c r="F20" s="35" t="s">
+        <v>406</v>
+      </c>
+      <c r="G20" s="66" t="s">
+        <v>537</v>
+      </c>
+      <c r="H20" s="42" t="s">
+        <v>632</v>
+      </c>
+      <c r="I20" s="42"/>
       <c r="M20" s="35" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>615</v>
+        <v>569</v>
       </c>
       <c r="O20" s="42" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="P20" s="35" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>627</v>
+        <v>611</v>
       </c>
       <c r="R20" s="42" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="21" spans="2:18" ht="27" customHeight="1">
+        <v>632</v>
+      </c>
+      <c r="S20" s="35" t="s">
+        <v>416</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="U20" s="42" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" ht="27" customHeight="1">
       <c r="B21" s="1">
         <v>5</v>
       </c>
-      <c r="C21" s="35" t="s">
-        <v>406</v>
+      <c r="C21" s="55" t="s">
+        <v>409</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>495</v>
+        <v>557</v>
       </c>
       <c r="E21" s="42" t="s">
-        <v>636</v>
-      </c>
-      <c r="G21" s="35" t="s">
-        <v>406</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="I21" s="42" t="s">
-        <v>636</v>
-      </c>
-      <c r="J21" s="35" t="s">
+        <v>634</v>
+      </c>
+      <c r="F21" s="35" t="s">
+        <v>405</v>
+      </c>
+      <c r="G21" s="66" t="s">
+        <v>494</v>
+      </c>
+      <c r="H21" s="42" t="s">
+        <v>632</v>
+      </c>
+      <c r="I21" s="42"/>
+      <c r="M21" s="35" t="s">
         <v>254</v>
       </c>
-      <c r="K21" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="L21" s="42" t="s">
-        <v>635</v>
-      </c>
-      <c r="M21" s="35" t="s">
-        <v>387</v>
-      </c>
       <c r="N21" s="1" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="O21" s="42" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="P21" s="35" t="s">
-        <v>427</v>
+        <v>386</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>628</v>
+        <v>609</v>
       </c>
       <c r="R21" s="42" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="22" spans="2:18" ht="27" customHeight="1">
+        <v>631</v>
+      </c>
+      <c r="S21" s="35" t="s">
+        <v>426</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="U21" s="42" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" ht="27" customHeight="1">
       <c r="B22" s="1">
         <v>6</v>
       </c>
-      <c r="C22" s="35" t="s">
-        <v>404</v>
+      <c r="C22" s="55" t="s">
+        <v>419</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="E22" s="42" t="s">
-        <v>636</v>
-      </c>
-      <c r="G22" s="35" t="s">
-        <v>434</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="I22" s="42" t="s">
-        <v>636</v>
-      </c>
-      <c r="J22" s="35" t="s">
+        <v>632</v>
+      </c>
+      <c r="F22" s="35" t="s">
+        <v>403</v>
+      </c>
+      <c r="G22" s="66" t="s">
+        <v>553</v>
+      </c>
+      <c r="H22" s="42" t="s">
+        <v>632</v>
+      </c>
+      <c r="I22" s="42"/>
+      <c r="M22" s="35" t="s">
         <v>255</v>
       </c>
-      <c r="K22" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="L22" s="42" t="s">
-        <v>636</v>
-      </c>
-      <c r="M22" s="35" t="s">
-        <v>388</v>
-      </c>
       <c r="N22" s="1" t="s">
-        <v>614</v>
+        <v>571</v>
       </c>
       <c r="O22" s="42" t="s">
-        <v>636</v>
-      </c>
-      <c r="P22" s="28" t="s">
-        <v>411</v>
+        <v>632</v>
+      </c>
+      <c r="P22" s="35" t="s">
+        <v>387</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>629</v>
+        <v>610</v>
       </c>
       <c r="R22" s="42" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="23" spans="2:18" ht="27" customHeight="1">
+        <v>632</v>
+      </c>
+      <c r="S22" s="28" t="s">
+        <v>410</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="U22" s="42" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" ht="27" customHeight="1">
       <c r="B23" s="1">
         <v>7</v>
       </c>
-      <c r="C23" s="35" t="s">
-        <v>405</v>
+      <c r="C23" s="28" t="s">
+        <v>432</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="E23" s="42" t="s">
-        <v>636</v>
-      </c>
-      <c r="G23" s="35" t="s">
-        <v>409</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="I23" s="42" t="s">
-        <v>638</v>
-      </c>
-      <c r="J23" s="35" t="s">
+        <v>632</v>
+      </c>
+      <c r="F23" s="35" t="s">
+        <v>404</v>
+      </c>
+      <c r="G23" s="66" t="s">
+        <v>552</v>
+      </c>
+      <c r="H23" s="42" t="s">
+        <v>632</v>
+      </c>
+      <c r="I23" s="42"/>
+      <c r="M23" s="35" t="s">
+        <v>430</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="O23" s="42" t="s">
+        <v>632</v>
+      </c>
+      <c r="P23" s="35" t="s">
         <v>431</v>
       </c>
-      <c r="K23" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="L23" s="42" t="s">
-        <v>636</v>
-      </c>
-      <c r="M23" s="35" t="s">
-        <v>432</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="O23" s="42" t="s">
-        <v>636</v>
-      </c>
-      <c r="P23" s="28" t="s">
-        <v>412</v>
-      </c>
       <c r="Q23" s="1" t="s">
-        <v>630</v>
+        <v>614</v>
       </c>
       <c r="R23" s="42" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="24" spans="2:18" ht="27" customHeight="1">
+        <v>632</v>
+      </c>
+      <c r="S23" s="28" t="s">
+        <v>411</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="U23" s="42" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" ht="27" customHeight="1">
       <c r="B24" s="1">
         <v>8</v>
       </c>
-      <c r="C24" s="35" t="s">
-        <v>434</v>
+      <c r="C24" s="28" t="s">
+        <v>413</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="E24" s="42" t="s">
-        <v>636</v>
-      </c>
-      <c r="G24" s="35" t="s">
-        <v>420</v>
+        <v>520</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="I24" s="42" t="s">
-        <v>636</v>
-      </c>
-      <c r="J24" s="35" t="s">
+        <v>659</v>
+      </c>
+      <c r="M24" s="35" t="s">
         <v>217</v>
       </c>
-      <c r="K24" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="L24" s="42" t="s">
-        <v>636</v>
-      </c>
-      <c r="M24" s="35" t="s">
-        <v>389</v>
-      </c>
       <c r="N24" s="1" t="s">
-        <v>619</v>
+        <v>573</v>
       </c>
       <c r="O24" s="42" t="s">
-        <v>636</v>
-      </c>
-      <c r="P24" s="28" t="s">
-        <v>413</v>
+        <v>632</v>
+      </c>
+      <c r="P24" s="35" t="s">
+        <v>388</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>631</v>
+        <v>615</v>
       </c>
       <c r="R24" s="42" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="25" spans="2:18" ht="27" customHeight="1">
+        <v>632</v>
+      </c>
+      <c r="S24" s="28" t="s">
+        <v>412</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="U24" s="42" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" ht="27" customHeight="1">
       <c r="B25" s="1">
         <v>9</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="28" t="s">
+        <v>414</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E25" s="42" t="s">
+        <v>520</v>
+      </c>
+      <c r="M25" s="28" t="s">
         <v>410</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="E25" s="42" t="s">
-        <v>638</v>
-      </c>
-      <c r="G25" s="28" t="s">
-        <v>411</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="I25" s="42" t="s">
-        <v>637</v>
-      </c>
-      <c r="J25" s="28" t="s">
-        <v>411</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="L25" s="42" t="s">
-        <v>637</v>
-      </c>
-      <c r="M25" s="28" t="s">
-        <v>411</v>
-      </c>
       <c r="N25" s="1" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="O25" s="42" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="P25" s="28" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>632</v>
+        <v>574</v>
       </c>
       <c r="R25" s="42" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="26" spans="2:18" ht="27" customHeight="1">
+        <v>633</v>
+      </c>
+      <c r="S25" s="28" t="s">
+        <v>413</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="U25" s="42" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" ht="27" customHeight="1">
       <c r="B26" s="1">
         <v>10</v>
       </c>
-      <c r="C26" s="35" t="s">
-        <v>420</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="E26" s="42" t="s">
-        <v>636</v>
-      </c>
-      <c r="G26" s="28" t="s">
-        <v>412</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="I26" s="42" t="s">
-        <v>636</v>
-      </c>
-      <c r="J26" s="28" t="s">
-        <v>412</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="L26" s="42" t="s">
-        <v>636</v>
-      </c>
+      <c r="C26" s="28"/>
+      <c r="E26" s="42"/>
       <c r="M26" s="28" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="O26" s="42" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="P26" s="28" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>633</v>
+        <v>563</v>
       </c>
       <c r="R26" s="42" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="27" spans="2:18" ht="27" customHeight="1">
+        <v>632</v>
+      </c>
+      <c r="S26" s="28" t="s">
+        <v>418</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="U26" s="42" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" ht="27" customHeight="1">
       <c r="B27" s="1">
         <v>11</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="E27" s="42" t="s">
-        <v>637</v>
-      </c>
-      <c r="G27" s="28" t="s">
-        <v>413</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="I27" s="42" t="s">
-        <v>636</v>
-      </c>
-      <c r="J27" s="28" t="s">
-        <v>413</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="L27" s="42" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="M27" s="28" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="O27" s="42" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="P27" s="28" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>622</v>
+        <v>562</v>
       </c>
       <c r="R27" s="42" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="28" spans="2:18" ht="27" customHeight="1">
+        <v>632</v>
+      </c>
+      <c r="S27" s="28" t="s">
+        <v>397</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="U27" s="42" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" ht="27" customHeight="1">
       <c r="B28" s="1">
         <v>12</v>
       </c>
-      <c r="C28" s="28" t="s">
-        <v>412</v>
-      </c>
       <c r="D28" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E28" s="42" t="s">
-        <v>636</v>
-      </c>
-      <c r="G28" s="28" t="s">
+        <v>632</v>
+      </c>
+      <c r="M28" s="28" t="s">
+        <v>413</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="O28" s="42" t="s">
+        <v>520</v>
+      </c>
+      <c r="P28" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="I28" s="42" t="s">
-        <v>521</v>
-      </c>
-      <c r="J28" s="28" t="s">
-        <v>414</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="L28" s="42" t="s">
-        <v>521</v>
-      </c>
-      <c r="M28" s="28" t="s">
-        <v>415</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="O28" s="42" t="s">
-        <v>521</v>
-      </c>
-      <c r="P28" s="28" t="s">
-        <v>399</v>
-      </c>
       <c r="Q28" s="1" t="s">
-        <v>634</v>
+        <v>616</v>
       </c>
       <c r="R28" s="42" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="29" spans="2:18" ht="27" customHeight="1">
+        <v>520</v>
+      </c>
+      <c r="S28" s="28" t="s">
+        <v>398</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="U28" s="42" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" ht="27" customHeight="1">
       <c r="B29" s="1">
         <v>13</v>
       </c>
-      <c r="C29" s="28" t="s">
-        <v>413</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="E29" s="42" t="s">
-        <v>636</v>
-      </c>
-      <c r="G29" s="28" t="s">
-        <v>419</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="I29" s="42" t="s">
-        <v>635</v>
-      </c>
-      <c r="J29" s="28" t="s">
-        <v>430</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="L29" s="42" t="s">
-        <v>636</v>
-      </c>
       <c r="M29" s="28" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="O29" s="42" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="P29" s="28" t="s">
-        <v>390</v>
+        <v>429</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>484</v>
+        <v>577</v>
       </c>
       <c r="R29" s="42" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="30" spans="2:18" ht="27" customHeight="1">
+        <v>632</v>
+      </c>
+      <c r="S29" s="28" t="s">
+        <v>389</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="U29" s="42" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" ht="27" customHeight="1">
       <c r="B30" s="1">
         <v>14</v>
       </c>
-      <c r="C30" s="28" t="s">
-        <v>433</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="E30" s="42" t="s">
-        <v>636</v>
-      </c>
-      <c r="G30" s="28" t="s">
-        <v>399</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="I30" s="42" t="s">
-        <v>524</v>
-      </c>
-      <c r="J30" s="28" t="s">
-        <v>399</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="L30" s="42" t="s">
-        <v>524</v>
-      </c>
       <c r="M30" s="28" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="O30" s="42" t="s">
-        <v>524</v>
+        <v>523</v>
+      </c>
+      <c r="P30" s="28" t="s">
+        <v>398</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>558</v>
+        <v>481</v>
       </c>
       <c r="R30" s="42" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="31" spans="2:18" ht="27" customHeight="1">
+        <v>523</v>
+      </c>
+      <c r="T30" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="U30" s="42" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" ht="27" customHeight="1">
       <c r="B31" s="1">
         <v>15</v>
       </c>
-      <c r="C31" s="28" t="s">
-        <v>414</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="E31" s="42" t="s">
-        <v>521</v>
-      </c>
-      <c r="G31" s="28" t="s">
-        <v>390</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="I31" s="42" t="s">
-        <v>531</v>
-      </c>
-      <c r="J31" s="28" t="s">
-        <v>390</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="L31" s="42" t="s">
-        <v>531</v>
-      </c>
       <c r="M31" s="28" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="O31" s="42" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="32" spans="2:18" ht="27" customHeight="1">
+        <v>530</v>
+      </c>
+      <c r="P31" s="28" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="R31" s="42" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21" ht="27" customHeight="1">
       <c r="B32" s="1">
         <v>16</v>
       </c>
-      <c r="C32" s="28" t="s">
-        <v>415</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="E32" s="42" t="s">
-        <v>521</v>
-      </c>
-      <c r="G32" s="31" t="s">
-        <v>558</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="I32" s="42" t="s">
-        <v>526</v>
-      </c>
-      <c r="J32" s="31" t="s">
-        <v>558</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="L32" s="42" t="s">
-        <v>526</v>
+      <c r="E32" s="35" t="s">
+        <v>406</v>
+      </c>
+      <c r="F32" s="35" t="s">
+        <v>405</v>
+      </c>
+      <c r="G32" s="68" t="s">
+        <v>403</v>
+      </c>
+      <c r="H32" s="35" t="s">
+        <v>404</v>
       </c>
       <c r="M32" s="31" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="O32" s="42" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" ht="27" customHeight="1">
+        <v>525</v>
+      </c>
+      <c r="P32" s="31" t="s">
+        <v>555</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="R32" s="42" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="27" customHeight="1">
       <c r="B33" s="1">
         <v>17</v>
       </c>
-      <c r="C33" s="28" t="s">
-        <v>416</v>
-      </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="43"/>
+    </row>
+    <row r="34" spans="2:9" ht="27" customHeight="1">
+      <c r="D34" s="43"/>
+    </row>
+    <row r="35" spans="2:9" ht="27" customHeight="1">
+      <c r="C35" s="44"/>
+      <c r="D35" s="44" t="s">
+        <v>790</v>
+      </c>
+      <c r="E35" s="44"/>
+    </row>
+    <row r="36" spans="2:9" ht="27" customHeight="1">
+      <c r="C36" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="E36" s="70" t="s">
+        <v>520</v>
+      </c>
+      <c r="G36" s="68" t="s">
+        <v>791</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="I36" s="70" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="27" customHeight="1">
+      <c r="C37" s="55" t="s">
+        <v>548</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="E37" s="70" t="s">
+        <v>521</v>
+      </c>
+      <c r="G37" s="68" t="s">
+        <v>792</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="I37" s="70" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" ht="27" customHeight="1">
+      <c r="C38" s="56" t="s">
+        <v>395</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>793</v>
+      </c>
+      <c r="E38" s="70" t="s">
+        <v>631</v>
+      </c>
+      <c r="G38" s="68" t="s">
+        <v>403</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>794</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" ht="27" customHeight="1">
+      <c r="C39" s="55" t="s">
+        <v>433</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="E39" s="70" t="s">
+        <v>632</v>
+      </c>
+      <c r="G39" s="68" t="s">
+        <v>799</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" ht="27" customHeight="1">
+      <c r="C40" s="55" t="s">
+        <v>408</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="E40" s="70" t="s">
+        <v>634</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>802</v>
+      </c>
+      <c r="I40" s="7"/>
+    </row>
+    <row r="41" spans="2:9" ht="27" customHeight="1">
+      <c r="C41" s="55" t="s">
+        <v>419</v>
+      </c>
+      <c r="D41" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="E33" s="42" t="s">
+      <c r="E41" s="70" t="s">
+        <v>632</v>
+      </c>
+      <c r="G41" s="66" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" ht="27" customHeight="1">
+      <c r="C42" s="28" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="34" spans="2:5" ht="27" customHeight="1">
-      <c r="D34" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="E34" s="42" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" ht="27" customHeight="1">
-      <c r="D35" s="43"/>
-    </row>
-    <row r="36" spans="2:5" ht="27" customHeight="1">
-      <c r="D36" s="43"/>
-    </row>
-    <row r="37" spans="2:5" ht="27" customHeight="1">
-      <c r="D37" s="43"/>
-    </row>
-    <row r="38" spans="2:5" ht="27" customHeight="1">
-      <c r="D38" s="43"/>
-    </row>
-    <row r="39" spans="2:5" ht="27" customHeight="1">
-      <c r="D39" s="43"/>
-    </row>
-    <row r="40" spans="2:5" ht="27" customHeight="1">
-      <c r="D40" s="43"/>
-    </row>
-    <row r="41" spans="2:5" ht="27" customHeight="1">
-      <c r="D41" s="43"/>
-    </row>
-    <row r="42" spans="2:5" ht="27" customHeight="1">
-      <c r="D42" s="43"/>
-    </row>
-    <row r="43" spans="2:5" ht="27" customHeight="1">
-      <c r="D43" s="43"/>
-    </row>
-    <row r="44" spans="2:5" ht="27" customHeight="1">
-      <c r="D44" s="43"/>
-    </row>
-    <row r="45" spans="2:5" ht="27" customHeight="1">
-      <c r="D45" s="43"/>
-    </row>
-    <row r="46" spans="2:5" ht="27" customHeight="1">
-      <c r="D46" s="43"/>
-    </row>
-    <row r="47" spans="2:5" ht="27" customHeight="1">
-      <c r="D47" s="43"/>
-    </row>
-    <row r="48" spans="2:5" ht="27" customHeight="1">
-      <c r="D48" s="43"/>
-    </row>
-    <row r="49" spans="4:4" ht="27" customHeight="1">
-      <c r="D49" s="43"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="18.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="1.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:7" s="32" customFormat="1" ht="29.1" customHeight="1" thickBot="1">
-      <c r="A2" s="30"/>
-      <c r="B2" s="34" t="s">
-        <v>421</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>422</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>423</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>425</v>
-      </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="34" t="s">
-        <v>421</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>422</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>423</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>425</v>
-      </c>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B4" s="34" t="s">
-        <v>421</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>422</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>423</v>
-      </c>
-      <c r="E4" s="34" t="s">
-        <v>425</v>
-      </c>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B5" s="34" t="s">
-        <v>421</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>422</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>423</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>425</v>
-      </c>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B6" s="34" t="s">
-        <v>421</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>422</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>423</v>
-      </c>
-      <c r="E6" s="34" t="s">
-        <v>425</v>
-      </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B7" s="34" t="s">
-        <v>421</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>422</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>423</v>
-      </c>
-      <c r="E7" s="34" t="s">
-        <v>425</v>
-      </c>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B8" s="34" t="s">
-        <v>421</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>422</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>423</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>425</v>
-      </c>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B9" s="34" t="s">
-        <v>421</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>422</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>423</v>
-      </c>
-      <c r="E9" s="34" t="s">
-        <v>425</v>
-      </c>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B10" s="34" t="s">
-        <v>421</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>422</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>423</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>425</v>
-      </c>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B11" s="34" t="s">
-        <v>421</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>422</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>423</v>
-      </c>
-      <c r="E11" s="34" t="s">
-        <v>425</v>
-      </c>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B12" s="34" t="s">
-        <v>421</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>422</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>423</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>425</v>
-      </c>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B13" s="34" t="s">
-        <v>421</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>422</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>423</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>425</v>
-      </c>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B14" s="34" t="s">
-        <v>421</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>422</v>
-      </c>
-      <c r="D14" s="34" t="s">
-        <v>423</v>
-      </c>
-      <c r="E14" s="34" t="s">
-        <v>425</v>
-      </c>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B15" s="34" t="s">
-        <v>421</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>422</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>423</v>
-      </c>
-      <c r="E15" s="34" t="s">
-        <v>425</v>
-      </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B16" s="34" t="s">
-        <v>421</v>
-      </c>
-      <c r="C16" s="34" t="s">
-        <v>422</v>
-      </c>
-      <c r="D16" s="34" t="s">
-        <v>423</v>
-      </c>
-      <c r="E16" s="34" t="s">
-        <v>425</v>
-      </c>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B17" s="34" t="s">
-        <v>421</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>422</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>423</v>
-      </c>
-      <c r="E17" s="34" t="s">
-        <v>425</v>
-      </c>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B18" s="34" t="s">
-        <v>421</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>422</v>
-      </c>
-      <c r="D18" s="34" t="s">
-        <v>423</v>
-      </c>
-      <c r="E18" s="34" t="s">
-        <v>425</v>
-      </c>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B19" s="34" t="s">
-        <v>421</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>422</v>
-      </c>
-      <c r="D19" s="34" t="s">
-        <v>423</v>
-      </c>
-      <c r="E19" s="34" t="s">
-        <v>425</v>
-      </c>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B20" s="34" t="s">
-        <v>421</v>
-      </c>
-      <c r="C20" s="34" t="s">
-        <v>422</v>
-      </c>
-      <c r="D20" s="34" t="s">
-        <v>423</v>
-      </c>
-      <c r="E20" s="34" t="s">
-        <v>425</v>
-      </c>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B21" s="34" t="s">
-        <v>421</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>422</v>
-      </c>
-      <c r="D21" s="34" t="s">
-        <v>423</v>
-      </c>
-      <c r="E21" s="34" t="s">
-        <v>425</v>
-      </c>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B22" s="34" t="s">
-        <v>421</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>422</v>
-      </c>
-      <c r="D22" s="34" t="s">
-        <v>423</v>
-      </c>
-      <c r="E22" s="34" t="s">
-        <v>425</v>
-      </c>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B23" s="34" t="s">
-        <v>421</v>
-      </c>
-      <c r="C23" s="34" t="s">
-        <v>422</v>
-      </c>
-      <c r="D23" s="34" t="s">
-        <v>423</v>
-      </c>
-      <c r="E23" s="34" t="s">
-        <v>425</v>
-      </c>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B24" s="34" t="s">
-        <v>421</v>
-      </c>
-      <c r="C24" s="34" t="s">
-        <v>422</v>
-      </c>
-      <c r="D24" s="34" t="s">
-        <v>423</v>
-      </c>
-      <c r="E24" s="34" t="s">
-        <v>425</v>
-      </c>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" s="33" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B25" s="34" t="s">
-        <v>421</v>
-      </c>
-      <c r="C25" s="34" t="s">
-        <v>422</v>
-      </c>
-      <c r="D25" s="34" t="s">
-        <v>423</v>
-      </c>
-      <c r="E25" s="34" t="s">
-        <v>425</v>
-      </c>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" ht="14.25" thickTop="1"/>
+      <c r="D42" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="E42" s="70" t="s">
+        <v>520</v>
+      </c>
+      <c r="G42" s="69" t="s">
+        <v>797</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="I42" s="70" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" ht="27" customHeight="1">
+      <c r="C43" s="28" t="s">
+        <v>418</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E43" s="70" t="s">
+        <v>631</v>
+      </c>
+      <c r="G43" s="68" t="s">
+        <v>791</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="I43" s="70" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" ht="27" customHeight="1">
+      <c r="C44" s="28" t="s">
+        <v>398</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="E44" s="70" t="s">
+        <v>523</v>
+      </c>
+      <c r="G44" s="68" t="s">
+        <v>792</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="I44" s="70" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" ht="27" customHeight="1">
+      <c r="C45" s="28" t="s">
+        <v>555</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="E45" s="70" t="s">
+        <v>525</v>
+      </c>
+      <c r="G45" s="4"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+    </row>
+    <row r="46" spans="2:9" ht="27" customHeight="1">
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="G46" s="66" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" ht="27" customHeight="1">
+      <c r="G47" s="28" t="s">
+        <v>398</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="I47" s="70" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" ht="27" customHeight="1">
+      <c r="G48" s="28" t="s">
+        <v>796</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="I48" s="70" t="s">
+        <v>530</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/的施工单统计.xlsx
+++ b/的施工单统计.xlsx
@@ -1,35 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="710" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="168" windowWidth="14808" windowHeight="7956" tabRatio="804" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="出入登记" sheetId="2" r:id="rId1"/>
+    <sheet name="人员入机房工单 (2)" sheetId="14" r:id="rId1"/>
     <sheet name="人员入机房工单" sheetId="3" r:id="rId2"/>
-    <sheet name="设备入机房工单" sheetId="5" r:id="rId3"/>
-    <sheet name="设备出机房工单" sheetId="4" r:id="rId4"/>
-    <sheet name="业务工单" sheetId="1" r:id="rId5"/>
-    <sheet name="设备重启工单" sheetId="6" r:id="rId6"/>
-    <sheet name="机柜竣工工单" sheetId="12" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId8"/>
-    <sheet name="Sheet4" sheetId="10" r:id="rId9"/>
-    <sheet name="Sheet5" sheetId="13" r:id="rId10"/>
-    <sheet name="Sheet2" sheetId="8" r:id="rId11"/>
-    <sheet name="Sheet3" sheetId="9" r:id="rId12"/>
-    <sheet name="机柜布线规范" sheetId="11" r:id="rId13"/>
+    <sheet name="出入登记" sheetId="2" r:id="rId3"/>
+    <sheet name="设备入机房工单" sheetId="5" r:id="rId4"/>
+    <sheet name="设备出机房工单" sheetId="4" r:id="rId5"/>
+    <sheet name="业务工单" sheetId="1" r:id="rId6"/>
+    <sheet name="设备重启工单" sheetId="6" r:id="rId7"/>
+    <sheet name="机柜竣工工单" sheetId="12" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId9"/>
+    <sheet name="Sheet4" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet5" sheetId="13" r:id="rId11"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId12"/>
+    <sheet name="Sheet3" sheetId="9" r:id="rId13"/>
+    <sheet name="机柜布线规范" sheetId="11" r:id="rId14"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">业务工单!$A$3:$R$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">业务工单!$A$3:$R$54</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2211" uniqueCount="803">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2401" uniqueCount="825">
   <si>
     <t>客户编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2569,437 +2570,502 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>客户单位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>证件</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>进入机房时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>事由说明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017年6月5日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘明晶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳市腾讯计算机系统有限公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>45062119960915355X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁波电信镇海IDC机房</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017年6月6日9点到2017年6月16日18点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2个OC节点建设，腾讯接口谢博18520880058</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017年6月9日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘明晶等人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳市腾讯计算机系统有限公司、华为公司、浪潮公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017年6月12日9点到2017年6月16日18点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2组OC节点建设，供应商配合设备上架，现场负责人刘明晶17319020203</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017年7月17日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>肖向前等人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国电信浙东云数据中心4-3机房</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017年7月18日-2017年8月15日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝网CDN节点实施，联系电话18368833216</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017年7月20日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊川等人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁波轩悦行电动汽车服务有限公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>420606198605181015</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>北欧机房</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器上架</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017年8月18日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张良</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>130628199211113013</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017年8月19日-2017年8月23日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>售后维护</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017年8月29日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄林</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国电信宁波IDC机房</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017年8月29日-2017年9月15日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝网CDN节点实施，联系电话18368599489</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>郝龙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017年9月8日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊良</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高波</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017年9月15日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊良等人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>400G OC节点建设，供应商协助设备上架</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017年10月13日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>庄道明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>331081198104107139</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有服务器在机房托管，进机房资产盘查</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20171013-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张龙保</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>42020419830309451X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017年10月23日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>谢国强</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江数云互联科技有限公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>320524197507283930</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙东云数据中心机房</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参观机房</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20171023-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨琴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>342524198505102024</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张勇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙东云数据中心1#-4-3机房</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器维护</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20171024-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王晶晶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017年10月25日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张天虹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁波华森信息科技有限公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>330683199103046812</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬迁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20171025-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商方方</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>410881198711282513</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017年10月26日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邵波</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>342531198802153710</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-10-26 09:00到2017-10-31 23:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备维修</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20171026-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017年10月27日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州维网科技有限公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>360721199503150039</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-10-28 09:00到2017-10-29 23:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>施工建设淘宝的两个临时端口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20171027-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017年10月30日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>秦现辉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20171030-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入时间</t>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>到单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员进机房工单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>people_number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID_name</t>
+  </si>
+  <si>
+    <t>=models.CharField(max_length=14)</t>
+  </si>
+  <si>
+    <t>工单附件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>批准部门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>批准部门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>证件号码</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>进入机房名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入机房时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>事由说明</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>工单编号</t>
+    <t>类别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>enter_room_classes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>people_classes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>=models.DateTimeField(auto_now_add=True)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>=models.IntegerField(default=1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别</t>
+  </si>
+  <si>
+    <t>people_classes</t>
+  </si>
+  <si>
+    <t>工单附件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>job_attachment</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2017年6月5日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘明晶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>深圳市腾讯计算机系统有限公司</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>45062119960915355X</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>宁波电信镇海IDC机房</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017年6月6日9点到2017年6月16日18点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2个OC节点建设，腾讯接口谢博18520880058</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2017年6月9日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘明晶等人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>深圳市腾讯计算机系统有限公司、华为公司、浪潮公司</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017年6月12日9点到2017年6月16日18点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2组OC节点建设，供应商配合设备上架，现场负责人刘明晶17319020203</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2017年7月17日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>肖向前等人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国电信浙东云数据中心4-3机房</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017年7月18日-2017年8月15日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>淘宝网CDN节点实施，联系电话18368833216</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2017年7月20日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>熊川等人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>宁波轩悦行电动汽车服务有限公司</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>420606198605181015</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>北欧机房</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务器上架</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2017年8月18日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>张良</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>130628199211113013</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017年8月19日-2017年8月23日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>售后维护</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2017年8月29日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄林</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国电信宁波IDC机房</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017年8月29日-2017年9月15日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>淘宝网CDN节点实施，联系电话18368599489</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>郝龙</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2017年9月8日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>熊良</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>高波</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2017年9月15日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>熊良等人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>400G OC节点建设，供应商协助设备上架</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2017年10月13日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>庄道明</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>331081198104107139</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>有服务器在机房托管，进机房资产盘查</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017年10月23日</t>
+  </si>
+  <si>
+    <t>2017年10月25日</t>
+  </si>
+  <si>
+    <t>2017年10月26日</t>
+  </si>
+  <si>
+    <t>2017年10月27日</t>
+  </si>
+  <si>
+    <t>2017年10月30日</t>
   </si>
   <si>
     <t>20171013-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>张龙保</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>42020419830309451X</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017年10月23日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>谢国强</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>浙江数云互联科技有限公司</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>320524197507283930</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>浙东云数据中心机房</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>参观机房</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>20171023-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨琴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>342524198505102024</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>张勇</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>浙东云数据中心1#-4-3机房</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务器维护</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>20171024-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>王晶晶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017年10月25日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>张天虹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>宁波华森信息科技有限公司</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>330683199103046812</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>搬迁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>20171025-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>商方方</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>410881198711282513</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017年10月26日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>邵波</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>342531198802153710</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017-10-26 09:00到2017-10-31 23:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备维修</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20171026-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017年10月27日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>杭州维网科技有限公司</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>360721199503150039</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017-10-28 09:00到2017-10-29 23:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>施工建设淘宝的两个临时端口</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20171027-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017年10月30日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>秦现辉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20171030-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入时间</t>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>到单</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>人员进机房工单</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>people_number</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID_name</t>
-  </si>
-  <si>
-    <t>=models.CharField(max_length=14)</t>
-  </si>
-  <si>
-    <t>工单附件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>批准部门</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>批准部门</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>证件号码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>类别</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>enter_room_classes</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>people_classes</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20171026-2</t>
+  </si>
+  <si>
+    <t>20171027-2</t>
+  </si>
+  <si>
+    <t>20171030-2</t>
   </si>
 </sst>
 </file>
@@ -3287,7 +3353,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3408,18 +3474,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3453,18 +3507,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3492,8 +3534,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3501,8 +3579,36 @@
     <cellStyle name="常规 2" xfId="2"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <mruColors>
       <color rgb="FFFFFFFF"/>
@@ -3803,109 +3909,2265 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:T36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="3.33203125" style="53" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" style="54" customWidth="1"/>
+    <col min="3" max="3" width="33.109375" style="53" customWidth="1"/>
+    <col min="4" max="4" width="7.109375" style="53" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="53" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" style="53" customWidth="1"/>
+    <col min="7" max="7" width="28.21875" style="53" customWidth="1"/>
+    <col min="8" max="8" width="35.88671875" style="53" customWidth="1"/>
+    <col min="9" max="9" width="60.21875" style="53" customWidth="1"/>
+    <col min="10" max="11" width="11.109375" style="53" customWidth="1"/>
+    <col min="12" max="12" width="19" style="53" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" style="53" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="53"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="28.8">
+      <c r="B1" s="61" t="s">
+        <v>385</v>
+      </c>
+      <c r="C1" s="68" t="s">
+        <v>548</v>
+      </c>
+      <c r="D1" s="69" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1" s="68" t="s">
+        <v>433</v>
+      </c>
+      <c r="F1" s="68" t="s">
+        <v>408</v>
+      </c>
+      <c r="G1" s="68" t="s">
+        <v>419</v>
+      </c>
+      <c r="H1" s="61" t="s">
+        <v>636</v>
+      </c>
+      <c r="I1" s="61" t="s">
+        <v>418</v>
+      </c>
+      <c r="J1" s="61" t="s">
+        <v>398</v>
+      </c>
+      <c r="K1" s="61" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="B2" s="54" t="s">
+        <v>385</v>
+      </c>
+      <c r="C2" s="53" t="s">
+        <v>548</v>
+      </c>
+      <c r="D2" s="53" t="s">
+        <v>395</v>
+      </c>
+      <c r="E2" s="53" t="s">
+        <v>661</v>
+      </c>
+      <c r="F2" s="53" t="s">
+        <v>662</v>
+      </c>
+      <c r="G2" s="53" t="s">
+        <v>664</v>
+      </c>
+      <c r="H2" s="53" t="s">
+        <v>663</v>
+      </c>
+      <c r="I2" s="53" t="s">
+        <v>408</v>
+      </c>
+      <c r="N2" s="53" t="s">
+        <v>665</v>
+      </c>
+      <c r="O2" s="53" t="s">
+        <v>666</v>
+      </c>
+      <c r="P2" s="53" t="s">
+        <v>667</v>
+      </c>
+      <c r="Q2" s="53" t="s">
+        <v>782</v>
+      </c>
+      <c r="R2" s="53" t="s">
+        <v>668</v>
+      </c>
+      <c r="S2" s="53" t="s">
+        <v>669</v>
+      </c>
+      <c r="T2" s="53" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="26.25" customHeight="1">
+      <c r="B3" s="55" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="H3" s="56" t="s">
+        <v>419</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>695</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>696</v>
+      </c>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="56" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="33" customHeight="1">
+      <c r="A4" s="53">
+        <v>1</v>
+      </c>
+      <c r="B4" s="57" t="s">
+        <v>697</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="17" t="s">
+        <v>700</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>698</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>701</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>702</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>703</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>704</v>
+      </c>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+    </row>
+    <row r="5" spans="1:20" ht="33" customHeight="1">
+      <c r="A5" s="53">
+        <v>2</v>
+      </c>
+      <c r="B5" s="57" t="s">
+        <v>705</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="17" t="s">
+        <v>700</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>706</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>701</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>702</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>708</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>709</v>
+      </c>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+    </row>
+    <row r="6" spans="1:20" ht="33" customHeight="1">
+      <c r="A6" s="53">
+        <v>3</v>
+      </c>
+      <c r="B6" s="57" t="s">
+        <v>710</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17" t="s">
+        <v>700</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>711</v>
+      </c>
+      <c r="G6" s="57" t="s">
+        <v>671</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>712</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>713</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>714</v>
+      </c>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+    </row>
+    <row r="7" spans="1:20" ht="33" customHeight="1">
+      <c r="A7" s="53">
+        <v>4</v>
+      </c>
+      <c r="B7" s="57" t="s">
+        <v>715</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="17" t="s">
+        <v>700</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>716</v>
+      </c>
+      <c r="G7" s="57" t="s">
+        <v>718</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>719</v>
+      </c>
+      <c r="I7" s="16">
+        <v>42937</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>720</v>
+      </c>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+    </row>
+    <row r="8" spans="1:20" ht="33" customHeight="1">
+      <c r="A8" s="53">
+        <v>5</v>
+      </c>
+      <c r="B8" s="57" t="s">
+        <v>721</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17" t="s">
+        <v>700</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>722</v>
+      </c>
+      <c r="G8" s="57" t="s">
+        <v>723</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>719</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>724</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>725</v>
+      </c>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+    </row>
+    <row r="9" spans="1:20" ht="33" customHeight="1">
+      <c r="A9" s="53">
+        <v>6</v>
+      </c>
+      <c r="B9" s="57" t="s">
+        <v>721</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17" t="s">
+        <v>700</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>673</v>
+      </c>
+      <c r="G9" s="57" t="s">
+        <v>674</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>719</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>724</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>725</v>
+      </c>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+    </row>
+    <row r="10" spans="1:20" ht="33" customHeight="1">
+      <c r="A10" s="53">
+        <v>7</v>
+      </c>
+      <c r="B10" s="57" t="s">
+        <v>726</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17" t="s">
+        <v>700</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>727</v>
+      </c>
+      <c r="G10" s="57" t="s">
+        <v>675</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>728</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>729</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>730</v>
+      </c>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+    </row>
+    <row r="11" spans="1:20" ht="33" customHeight="1">
+      <c r="A11" s="53">
+        <v>8</v>
+      </c>
+      <c r="B11" s="57" t="s">
+        <v>726</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17" t="s">
+        <v>700</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>676</v>
+      </c>
+      <c r="G11" s="57" t="s">
+        <v>677</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>728</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>729</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>730</v>
+      </c>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+    </row>
+    <row r="12" spans="1:20" ht="33" customHeight="1">
+      <c r="A12" s="53">
+        <v>9</v>
+      </c>
+      <c r="B12" s="57" t="s">
+        <v>726</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17" t="s">
+        <v>700</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>731</v>
+      </c>
+      <c r="G12" s="57" t="s">
+        <v>678</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>728</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>729</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>730</v>
+      </c>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+    </row>
+    <row r="13" spans="1:20" ht="33" customHeight="1">
+      <c r="A13" s="53">
+        <v>10</v>
+      </c>
+      <c r="B13" s="57" t="s">
+        <v>732</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="17" t="s">
+        <v>700</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>733</v>
+      </c>
+      <c r="G13" s="57" t="s">
+        <v>679</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>670</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>680</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>681</v>
+      </c>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+    </row>
+    <row r="14" spans="1:20" ht="33" customHeight="1">
+      <c r="A14" s="53">
+        <v>11</v>
+      </c>
+      <c r="B14" s="57" t="s">
+        <v>732</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="17" t="s">
+        <v>700</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>734</v>
+      </c>
+      <c r="G14" s="57" t="s">
+        <v>682</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>670</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>680</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>681</v>
+      </c>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+    </row>
+    <row r="15" spans="1:20" ht="33" customHeight="1">
+      <c r="A15" s="53">
+        <v>12</v>
+      </c>
+      <c r="B15" s="57" t="s">
+        <v>735</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="17" t="s">
+        <v>700</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>736</v>
+      </c>
+      <c r="G15" s="57" t="s">
+        <v>679</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>670</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>683</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>737</v>
+      </c>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+    </row>
+    <row r="16" spans="1:20" ht="33" customHeight="1">
+      <c r="A16" s="53">
+        <v>13</v>
+      </c>
+      <c r="B16" s="57" t="s">
+        <v>738</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>672</v>
+      </c>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17" t="s">
+        <v>700</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>739</v>
+      </c>
+      <c r="G16" s="57" t="s">
+        <v>740</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>719</v>
+      </c>
+      <c r="I16" s="57" t="s">
+        <v>738</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>741</v>
+      </c>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="33" customHeight="1">
+      <c r="A17" s="53">
+        <v>14</v>
+      </c>
+      <c r="B17" s="57" t="s">
+        <v>738</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>672</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17" t="s">
+        <v>700</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>743</v>
+      </c>
+      <c r="G17" s="57" t="s">
+        <v>744</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>719</v>
+      </c>
+      <c r="I17" s="57" t="s">
+        <v>738</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>741</v>
+      </c>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="33" customHeight="1">
+      <c r="A18" s="53">
+        <v>15</v>
+      </c>
+      <c r="B18" s="57" t="s">
+        <v>745</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>747</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17" t="s">
+        <v>700</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>746</v>
+      </c>
+      <c r="G18" s="57" t="s">
+        <v>748</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>749</v>
+      </c>
+      <c r="I18" s="16">
+        <v>43032</v>
+      </c>
+      <c r="J18" s="17" t="s">
+        <v>750</v>
+      </c>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="33" customHeight="1">
+      <c r="A19" s="53">
+        <v>16</v>
+      </c>
+      <c r="B19" s="57" t="s">
+        <v>745</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>747</v>
+      </c>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17" t="s">
+        <v>700</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>752</v>
+      </c>
+      <c r="G19" s="57" t="s">
+        <v>753</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>749</v>
+      </c>
+      <c r="I19" s="16">
+        <v>43032</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>750</v>
+      </c>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="33" customHeight="1">
+      <c r="A20" s="53">
+        <v>17</v>
+      </c>
+      <c r="B20" s="57" t="s">
+        <v>684</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="17" t="s">
+        <v>700</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>754</v>
+      </c>
+      <c r="G20" s="57" t="s">
+        <v>685</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>755</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>686</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>756</v>
+      </c>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="33" customHeight="1">
+      <c r="A21" s="53">
+        <v>18</v>
+      </c>
+      <c r="B21" s="57" t="s">
+        <v>684</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="17" t="s">
+        <v>700</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>758</v>
+      </c>
+      <c r="G21" s="57" t="s">
+        <v>687</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>755</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>686</v>
+      </c>
+      <c r="J21" s="17" t="s">
+        <v>756</v>
+      </c>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="33" customHeight="1">
+      <c r="A22" s="53">
+        <v>19</v>
+      </c>
+      <c r="B22" s="57" t="s">
+        <v>759</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>761</v>
+      </c>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17" t="s">
+        <v>700</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>760</v>
+      </c>
+      <c r="G22" s="57" t="s">
+        <v>762</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>719</v>
+      </c>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17" t="s">
+        <v>763</v>
+      </c>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="33" customHeight="1">
+      <c r="A23" s="53">
+        <v>20</v>
+      </c>
+      <c r="B23" s="57" t="s">
+        <v>759</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>761</v>
+      </c>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17" t="s">
+        <v>700</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>765</v>
+      </c>
+      <c r="G23" s="57" t="s">
+        <v>766</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>719</v>
+      </c>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17" t="s">
+        <v>763</v>
+      </c>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="33" customHeight="1">
+      <c r="A24" s="53">
+        <v>21</v>
+      </c>
+      <c r="B24" s="57" t="s">
+        <v>767</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>688</v>
+      </c>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17" t="s">
+        <v>700</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>768</v>
+      </c>
+      <c r="G24" s="57" t="s">
+        <v>769</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>755</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>770</v>
+      </c>
+      <c r="J24" s="17" t="s">
+        <v>771</v>
+      </c>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="33" customHeight="1">
+      <c r="A25" s="53">
+        <v>22</v>
+      </c>
+      <c r="B25" s="57" t="s">
+        <v>773</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>774</v>
+      </c>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17" t="s">
+        <v>700</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>727</v>
+      </c>
+      <c r="G25" s="57" t="s">
+        <v>775</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>755</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>776</v>
+      </c>
+      <c r="J25" s="17" t="s">
+        <v>777</v>
+      </c>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="33" customHeight="1">
+      <c r="A26" s="53">
+        <v>23</v>
+      </c>
+      <c r="B26" s="57" t="s">
+        <v>779</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>689</v>
+      </c>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17" t="s">
+        <v>700</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>780</v>
+      </c>
+      <c r="G26" s="57" t="s">
+        <v>690</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>755</v>
+      </c>
+      <c r="I26" s="17" t="s">
+        <v>691</v>
+      </c>
+      <c r="J26" s="17" t="s">
+        <v>692</v>
+      </c>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="33" customHeight="1">
+      <c r="B27" s="57"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+    </row>
+    <row r="28" spans="1:14" ht="33" customHeight="1">
+      <c r="B28" s="57"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+    </row>
+    <row r="29" spans="1:14" ht="33" customHeight="1">
+      <c r="B29" s="57"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+    </row>
+    <row r="30" spans="1:14" ht="33" customHeight="1">
+      <c r="B30" s="57"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+    </row>
+    <row r="31" spans="1:14" ht="33" customHeight="1">
+      <c r="B31" s="57"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+    </row>
+    <row r="32" spans="1:14" ht="33" customHeight="1">
+      <c r="B32" s="57"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+    </row>
+    <row r="33" spans="2:13" ht="33" customHeight="1">
+      <c r="B33" s="57"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+    </row>
+    <row r="34" spans="2:13" ht="33" customHeight="1">
+      <c r="B34" s="57"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+    </row>
+    <row r="35" spans="2:13" ht="33" customHeight="1">
+      <c r="B35" s="57"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+    </row>
+    <row r="36" spans="2:13" ht="33" customHeight="1">
+      <c r="B36" s="57"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Q4"/>
+  <dimension ref="B1:U49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:H4"/>
+    <sheetView topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36:C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="27" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="3.88671875" style="58" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="58" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="58" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="22.44140625" style="58" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="58" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.109375" style="58" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.109375" style="58" customWidth="1"/>
+    <col min="9" max="9" width="20.21875" style="58" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="58" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="22.44140625" style="58" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" style="58" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.44140625" style="58" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.77734375" style="58" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.109375" style="58" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="22.44140625" style="58" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11" style="58" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25" style="58" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.44140625" style="58" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="58"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="40.5">
-      <c r="B2" s="28" t="s">
+    <row r="1" spans="2:21" ht="27" customHeight="1">
+      <c r="D1" s="58" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="2" spans="2:21" ht="27" customHeight="1">
+      <c r="B2" s="58">
+        <v>1</v>
+      </c>
+      <c r="C2" s="61" t="s">
         <v>385</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="D2" s="58" t="s">
+        <v>504</v>
+      </c>
+      <c r="E2" s="66" t="s">
+        <v>520</v>
+      </c>
+      <c r="J2" s="61" t="s">
+        <v>435</v>
+      </c>
+      <c r="K2" s="58" t="s">
+        <v>513</v>
+      </c>
+      <c r="L2" s="66" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" ht="27" customHeight="1">
+      <c r="B3" s="58">
+        <v>2</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>505</v>
+      </c>
+      <c r="E3" s="66" t="s">
+        <v>521</v>
+      </c>
+      <c r="J3" s="61" t="s">
+        <v>437</v>
+      </c>
+      <c r="K3" s="58" t="s">
+        <v>514</v>
+      </c>
+      <c r="L3" s="66" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" ht="27" customHeight="1">
+      <c r="B4" s="58">
+        <v>3</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="58" t="s">
+        <v>506</v>
+      </c>
+      <c r="E4" s="66" t="s">
+        <v>523</v>
+      </c>
+      <c r="J4" s="61" t="s">
+        <v>393</v>
+      </c>
+      <c r="K4" s="58" t="s">
+        <v>515</v>
+      </c>
+      <c r="L4" s="66" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" ht="27" customHeight="1">
+      <c r="B5" s="58">
+        <v>4</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>392</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>507</v>
+      </c>
+      <c r="E5" s="66" t="s">
+        <v>522</v>
+      </c>
+      <c r="J5" s="61" t="s">
+        <v>434</v>
+      </c>
+      <c r="K5" s="58" t="s">
+        <v>516</v>
+      </c>
+      <c r="L5" s="66" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" ht="27" customHeight="1">
+      <c r="B6" s="58">
+        <v>5</v>
+      </c>
+      <c r="C6" s="60" t="s">
+        <v>438</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>508</v>
+      </c>
+      <c r="E6" s="66" t="s">
+        <v>525</v>
+      </c>
+      <c r="J6" s="61" t="s">
+        <v>394</v>
+      </c>
+      <c r="K6" s="58" t="s">
+        <v>517</v>
+      </c>
+      <c r="L6" s="58" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" ht="27" customHeight="1">
+      <c r="B7" s="58">
+        <v>6</v>
+      </c>
+      <c r="C7" s="60" t="s">
+        <v>436</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>527</v>
+      </c>
+      <c r="E7" s="66" t="s">
+        <v>524</v>
+      </c>
+      <c r="J7" s="61" t="s">
+        <v>391</v>
+      </c>
+      <c r="K7" s="58" t="s">
+        <v>518</v>
+      </c>
+      <c r="L7" s="66" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" ht="27" customHeight="1">
+      <c r="B8" s="58">
+        <v>7</v>
+      </c>
+      <c r="C8" s="61" t="s">
+        <v>434</v>
+      </c>
+      <c r="D8" s="58" t="s">
+        <v>531</v>
+      </c>
+      <c r="E8" s="66" t="s">
+        <v>526</v>
+      </c>
+      <c r="K8" s="58" t="s">
+        <v>519</v>
+      </c>
+      <c r="L8" s="66" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" ht="27" customHeight="1">
+      <c r="B9" s="58">
+        <v>8</v>
+      </c>
+      <c r="C9" s="61" t="s">
+        <v>394</v>
+      </c>
+      <c r="D9" s="58" t="s">
+        <v>528</v>
+      </c>
+      <c r="E9" s="66" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" ht="27" customHeight="1">
+      <c r="B10" s="58">
+        <v>9</v>
+      </c>
+      <c r="C10" s="61" t="s">
+        <v>402</v>
+      </c>
+      <c r="D10" s="58" t="s">
+        <v>509</v>
+      </c>
+      <c r="E10" s="66" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" ht="27" customHeight="1">
+      <c r="B11" s="58">
+        <v>10</v>
+      </c>
+      <c r="C11" s="61" t="s">
+        <v>398</v>
+      </c>
+      <c r="D11" s="58" t="s">
+        <v>510</v>
+      </c>
+      <c r="E11" s="66" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" ht="27" customHeight="1">
+      <c r="B12" s="58">
+        <v>11</v>
+      </c>
+      <c r="C12" s="61" t="s">
+        <v>389</v>
+      </c>
+      <c r="D12" s="58" t="s">
+        <v>511</v>
+      </c>
+      <c r="E12" s="66" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" ht="27" customHeight="1">
+      <c r="B13" s="58">
+        <v>12</v>
+      </c>
+      <c r="C13" s="58" t="s">
+        <v>512</v>
+      </c>
+      <c r="D13" s="58" t="s">
+        <v>512</v>
+      </c>
+      <c r="E13" s="66" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" s="59" customFormat="1" ht="27" customHeight="1">
+      <c r="D16" s="59" t="s">
+        <v>565</v>
+      </c>
+      <c r="F16" s="59" t="s">
+        <v>658</v>
+      </c>
+      <c r="N16" s="59" t="s">
+        <v>566</v>
+      </c>
+      <c r="Q16" s="59" t="s">
+        <v>578</v>
+      </c>
+      <c r="T16" s="59" t="s">
+        <v>617</v>
+      </c>
+      <c r="U16" s="59" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" ht="27" customHeight="1">
+      <c r="B17" s="58">
+        <v>1</v>
+      </c>
+      <c r="C17" s="61" t="s">
+        <v>385</v>
+      </c>
+      <c r="D17" s="58" t="s">
+        <v>635</v>
+      </c>
+      <c r="E17" s="66" t="s">
+        <v>520</v>
+      </c>
+      <c r="M17" s="61" t="s">
+        <v>211</v>
+      </c>
+      <c r="N17" s="58" t="s">
+        <v>567</v>
+      </c>
+      <c r="O17" s="66" t="s">
+        <v>520</v>
+      </c>
+      <c r="P17" s="61" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q17" s="67" t="s">
+        <v>567</v>
+      </c>
+      <c r="R17" s="66" t="s">
+        <v>520</v>
+      </c>
+      <c r="S17" s="61" t="s">
+        <v>385</v>
+      </c>
+      <c r="T17" s="58" t="s">
+        <v>620</v>
+      </c>
+      <c r="U17" s="66" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" ht="27" customHeight="1">
+      <c r="B18" s="58">
+        <v>2</v>
+      </c>
+      <c r="C18" s="68" t="s">
         <v>548</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D18" s="58" t="s">
+        <v>445</v>
+      </c>
+      <c r="E18" s="66" t="s">
+        <v>655</v>
+      </c>
+      <c r="M18" s="60" t="s">
+        <v>548</v>
+      </c>
+      <c r="N18" s="58" t="s">
+        <v>445</v>
+      </c>
+      <c r="O18" s="66" t="s">
+        <v>521</v>
+      </c>
+      <c r="P18" s="60" t="s">
+        <v>548</v>
+      </c>
+      <c r="Q18" s="58" t="s">
+        <v>613</v>
+      </c>
+      <c r="R18" s="66" t="s">
+        <v>521</v>
+      </c>
+      <c r="S18" s="60" t="s">
+        <v>548</v>
+      </c>
+      <c r="T18" s="58" t="s">
+        <v>621</v>
+      </c>
+      <c r="U18" s="66" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" ht="27" customHeight="1">
+      <c r="B19" s="58">
+        <v>3</v>
+      </c>
+      <c r="C19" s="69" t="s">
+        <v>660</v>
+      </c>
+      <c r="D19" s="58" t="s">
+        <v>554</v>
+      </c>
+      <c r="E19" s="66" t="s">
+        <v>657</v>
+      </c>
+      <c r="M19" s="60" t="s">
+        <v>416</v>
+      </c>
+      <c r="N19" s="58" t="s">
+        <v>568</v>
+      </c>
+      <c r="O19" s="66" t="s">
+        <v>632</v>
+      </c>
+      <c r="P19" s="60" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q19" s="58" t="s">
+        <v>612</v>
+      </c>
+      <c r="R19" s="66" t="s">
+        <v>632</v>
+      </c>
+      <c r="S19" s="60" t="s">
+        <v>396</v>
+      </c>
+      <c r="T19" s="58" t="s">
+        <v>622</v>
+      </c>
+      <c r="U19" s="66" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" ht="27" customHeight="1">
+      <c r="B20" s="58">
+        <v>4</v>
+      </c>
+      <c r="C20" s="68" t="s">
+        <v>433</v>
+      </c>
+      <c r="D20" s="58" t="s">
+        <v>556</v>
+      </c>
+      <c r="E20" s="66" t="s">
+        <v>632</v>
+      </c>
+      <c r="F20" s="60" t="s">
+        <v>406</v>
+      </c>
+      <c r="G20" s="58" t="s">
+        <v>537</v>
+      </c>
+      <c r="H20" s="66" t="s">
+        <v>632</v>
+      </c>
+      <c r="I20" s="66"/>
+      <c r="M20" s="60" t="s">
+        <v>426</v>
+      </c>
+      <c r="N20" s="58" t="s">
+        <v>569</v>
+      </c>
+      <c r="O20" s="66" t="s">
+        <v>632</v>
+      </c>
+      <c r="P20" s="60" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q20" s="58" t="s">
+        <v>611</v>
+      </c>
+      <c r="R20" s="66" t="s">
+        <v>632</v>
+      </c>
+      <c r="S20" s="60" t="s">
+        <v>416</v>
+      </c>
+      <c r="T20" s="58" t="s">
+        <v>623</v>
+      </c>
+      <c r="U20" s="66" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" ht="27" customHeight="1">
+      <c r="B21" s="58">
+        <v>5</v>
+      </c>
+      <c r="C21" s="68" t="s">
+        <v>409</v>
+      </c>
+      <c r="D21" s="58" t="s">
+        <v>557</v>
+      </c>
+      <c r="E21" s="66" t="s">
+        <v>634</v>
+      </c>
+      <c r="F21" s="60" t="s">
+        <v>405</v>
+      </c>
+      <c r="G21" s="58" t="s">
+        <v>494</v>
+      </c>
+      <c r="H21" s="66" t="s">
+        <v>632</v>
+      </c>
+      <c r="I21" s="66"/>
+      <c r="M21" s="60" t="s">
+        <v>254</v>
+      </c>
+      <c r="N21" s="58" t="s">
+        <v>608</v>
+      </c>
+      <c r="O21" s="66" t="s">
+        <v>631</v>
+      </c>
+      <c r="P21" s="60" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q21" s="58" t="s">
+        <v>609</v>
+      </c>
+      <c r="R21" s="66" t="s">
+        <v>631</v>
+      </c>
+      <c r="S21" s="60" t="s">
+        <v>426</v>
+      </c>
+      <c r="T21" s="58" t="s">
+        <v>624</v>
+      </c>
+      <c r="U21" s="66" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" ht="27" customHeight="1">
+      <c r="B22" s="58">
+        <v>6</v>
+      </c>
+      <c r="C22" s="68" t="s">
+        <v>419</v>
+      </c>
+      <c r="D22" s="58" t="s">
+        <v>551</v>
+      </c>
+      <c r="E22" s="66" t="s">
+        <v>632</v>
+      </c>
+      <c r="F22" s="60" t="s">
+        <v>403</v>
+      </c>
+      <c r="G22" s="58" t="s">
+        <v>553</v>
+      </c>
+      <c r="H22" s="66" t="s">
+        <v>632</v>
+      </c>
+      <c r="I22" s="66"/>
+      <c r="M22" s="60" t="s">
+        <v>255</v>
+      </c>
+      <c r="N22" s="58" t="s">
+        <v>571</v>
+      </c>
+      <c r="O22" s="66" t="s">
+        <v>632</v>
+      </c>
+      <c r="P22" s="60" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q22" s="58" t="s">
+        <v>610</v>
+      </c>
+      <c r="R22" s="66" t="s">
+        <v>632</v>
+      </c>
+      <c r="S22" s="61" t="s">
+        <v>410</v>
+      </c>
+      <c r="T22" s="58" t="s">
+        <v>625</v>
+      </c>
+      <c r="U22" s="66" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" ht="27" customHeight="1">
+      <c r="B23" s="58">
+        <v>7</v>
+      </c>
+      <c r="C23" s="61" t="s">
+        <v>432</v>
+      </c>
+      <c r="D23" s="58" t="s">
+        <v>544</v>
+      </c>
+      <c r="E23" s="66" t="s">
+        <v>632</v>
+      </c>
+      <c r="F23" s="60" t="s">
+        <v>404</v>
+      </c>
+      <c r="G23" s="58" t="s">
+        <v>552</v>
+      </c>
+      <c r="H23" s="66" t="s">
+        <v>632</v>
+      </c>
+      <c r="I23" s="66"/>
+      <c r="M23" s="60" t="s">
+        <v>430</v>
+      </c>
+      <c r="N23" s="58" t="s">
+        <v>572</v>
+      </c>
+      <c r="O23" s="66" t="s">
+        <v>632</v>
+      </c>
+      <c r="P23" s="60" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q23" s="58" t="s">
+        <v>614</v>
+      </c>
+      <c r="R23" s="66" t="s">
+        <v>632</v>
+      </c>
+      <c r="S23" s="61" t="s">
+        <v>411</v>
+      </c>
+      <c r="T23" s="58" t="s">
+        <v>626</v>
+      </c>
+      <c r="U23" s="66" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" ht="27" customHeight="1">
+      <c r="B24" s="58">
+        <v>8</v>
+      </c>
+      <c r="C24" s="61" t="s">
+        <v>413</v>
+      </c>
+      <c r="D24" s="58" t="s">
+        <v>545</v>
+      </c>
+      <c r="E24" s="66" t="s">
+        <v>520</v>
+      </c>
+      <c r="H24" s="58" t="s">
+        <v>659</v>
+      </c>
+      <c r="M24" s="60" t="s">
+        <v>217</v>
+      </c>
+      <c r="N24" s="58" t="s">
+        <v>573</v>
+      </c>
+      <c r="O24" s="66" t="s">
+        <v>632</v>
+      </c>
+      <c r="P24" s="60" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q24" s="58" t="s">
+        <v>615</v>
+      </c>
+      <c r="R24" s="66" t="s">
+        <v>632</v>
+      </c>
+      <c r="S24" s="61" t="s">
+        <v>412</v>
+      </c>
+      <c r="T24" s="58" t="s">
+        <v>627</v>
+      </c>
+      <c r="U24" s="66" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" ht="27" customHeight="1">
+      <c r="B25" s="58">
+        <v>9</v>
+      </c>
+      <c r="C25" s="61" t="s">
+        <v>414</v>
+      </c>
+      <c r="D25" s="58" t="s">
+        <v>546</v>
+      </c>
+      <c r="E25" s="66" t="s">
+        <v>520</v>
+      </c>
+      <c r="M25" s="61" t="s">
+        <v>410</v>
+      </c>
+      <c r="N25" s="58" t="s">
+        <v>574</v>
+      </c>
+      <c r="O25" s="66" t="s">
+        <v>633</v>
+      </c>
+      <c r="P25" s="61" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q25" s="58" t="s">
+        <v>574</v>
+      </c>
+      <c r="R25" s="66" t="s">
+        <v>633</v>
+      </c>
+      <c r="S25" s="61" t="s">
+        <v>413</v>
+      </c>
+      <c r="T25" s="58" t="s">
+        <v>628</v>
+      </c>
+      <c r="U25" s="66" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" ht="27" customHeight="1">
+      <c r="B26" s="58">
+        <v>10</v>
+      </c>
+      <c r="C26" s="61"/>
+      <c r="E26" s="66"/>
+      <c r="M26" s="61" t="s">
+        <v>411</v>
+      </c>
+      <c r="N26" s="58" t="s">
+        <v>563</v>
+      </c>
+      <c r="O26" s="66" t="s">
+        <v>632</v>
+      </c>
+      <c r="P26" s="61" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q26" s="58" t="s">
+        <v>563</v>
+      </c>
+      <c r="R26" s="66" t="s">
+        <v>632</v>
+      </c>
+      <c r="S26" s="61" t="s">
+        <v>418</v>
+      </c>
+      <c r="T26" s="58" t="s">
+        <v>629</v>
+      </c>
+      <c r="U26" s="66" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" ht="27" customHeight="1">
+      <c r="B27" s="58">
+        <v>11</v>
+      </c>
+      <c r="C27" s="61" t="s">
+        <v>415</v>
+      </c>
+      <c r="D27" s="58" t="s">
+        <v>550</v>
+      </c>
+      <c r="E27" s="66" t="s">
+        <v>632</v>
+      </c>
+      <c r="M27" s="61" t="s">
+        <v>412</v>
+      </c>
+      <c r="N27" s="58" t="s">
+        <v>562</v>
+      </c>
+      <c r="O27" s="66" t="s">
+        <v>632</v>
+      </c>
+      <c r="P27" s="61" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q27" s="58" t="s">
+        <v>562</v>
+      </c>
+      <c r="R27" s="66" t="s">
+        <v>632</v>
+      </c>
+      <c r="S27" s="61" t="s">
+        <v>397</v>
+      </c>
+      <c r="T27" s="58" t="s">
+        <v>618</v>
+      </c>
+      <c r="U27" s="66" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" ht="27" customHeight="1">
+      <c r="B28" s="58">
+        <v>12</v>
+      </c>
+      <c r="D28" s="58" t="s">
+        <v>555</v>
+      </c>
+      <c r="E28" s="66" t="s">
+        <v>632</v>
+      </c>
+      <c r="M28" s="61" t="s">
+        <v>413</v>
+      </c>
+      <c r="N28" s="58" t="s">
+        <v>576</v>
+      </c>
+      <c r="O28" s="66" t="s">
+        <v>520</v>
+      </c>
+      <c r="P28" s="61" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q28" s="58" t="s">
+        <v>616</v>
+      </c>
+      <c r="R28" s="66" t="s">
+        <v>520</v>
+      </c>
+      <c r="S28" s="61" t="s">
+        <v>398</v>
+      </c>
+      <c r="T28" s="58" t="s">
+        <v>630</v>
+      </c>
+      <c r="U28" s="66" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" ht="27" customHeight="1">
+      <c r="B29" s="58">
+        <v>13</v>
+      </c>
+      <c r="M29" s="61" t="s">
+        <v>429</v>
+      </c>
+      <c r="N29" s="58" t="s">
+        <v>577</v>
+      </c>
+      <c r="O29" s="66" t="s">
+        <v>632</v>
+      </c>
+      <c r="P29" s="61" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q29" s="58" t="s">
+        <v>577</v>
+      </c>
+      <c r="R29" s="66" t="s">
+        <v>632</v>
+      </c>
+      <c r="S29" s="61" t="s">
+        <v>389</v>
+      </c>
+      <c r="T29" s="58" t="s">
+        <v>483</v>
+      </c>
+      <c r="U29" s="66" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" ht="27" customHeight="1">
+      <c r="B30" s="58">
+        <v>14</v>
+      </c>
+      <c r="M30" s="61" t="s">
+        <v>398</v>
+      </c>
+      <c r="N30" s="58" t="s">
+        <v>481</v>
+      </c>
+      <c r="O30" s="66" t="s">
+        <v>523</v>
+      </c>
+      <c r="P30" s="61" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q30" s="58" t="s">
+        <v>481</v>
+      </c>
+      <c r="R30" s="66" t="s">
+        <v>523</v>
+      </c>
+      <c r="T30" s="58" t="s">
+        <v>555</v>
+      </c>
+      <c r="U30" s="66" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" ht="27" customHeight="1">
+      <c r="B31" s="58">
+        <v>15</v>
+      </c>
+      <c r="M31" s="61" t="s">
+        <v>389</v>
+      </c>
+      <c r="N31" s="58" t="s">
+        <v>483</v>
+      </c>
+      <c r="O31" s="66" t="s">
+        <v>530</v>
+      </c>
+      <c r="P31" s="61" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q31" s="58" t="s">
+        <v>483</v>
+      </c>
+      <c r="R31" s="66" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21" ht="27" customHeight="1">
+      <c r="B32" s="58">
+        <v>16</v>
+      </c>
+      <c r="E32" s="60" t="s">
+        <v>406</v>
+      </c>
+      <c r="F32" s="60" t="s">
+        <v>405</v>
+      </c>
+      <c r="G32" s="60" t="s">
+        <v>403</v>
+      </c>
+      <c r="H32" s="60" t="s">
+        <v>404</v>
+      </c>
+      <c r="M32" s="70" t="s">
+        <v>555</v>
+      </c>
+      <c r="N32" s="58" t="s">
+        <v>555</v>
+      </c>
+      <c r="O32" s="66" t="s">
+        <v>525</v>
+      </c>
+      <c r="P32" s="70" t="s">
+        <v>555</v>
+      </c>
+      <c r="Q32" s="58" t="s">
+        <v>555</v>
+      </c>
+      <c r="R32" s="66" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="27" customHeight="1">
+      <c r="B33" s="58">
+        <v>17</v>
+      </c>
+      <c r="D33" s="71"/>
+    </row>
+    <row r="34" spans="2:9" ht="27" customHeight="1">
+      <c r="D34" s="71"/>
+    </row>
+    <row r="35" spans="2:9" ht="27" customHeight="1">
+      <c r="C35" s="59"/>
+      <c r="D35" s="59" t="s">
+        <v>785</v>
+      </c>
+      <c r="E35" s="59"/>
+    </row>
+    <row r="36" spans="2:9" ht="27" customHeight="1">
+      <c r="C36" s="61" t="s">
+        <v>385</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="E36" s="72" t="s">
+        <v>798</v>
+      </c>
+      <c r="G36" s="60" t="s">
+        <v>786</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="I36" s="72" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="27" customHeight="1">
+      <c r="C37" s="68" t="s">
+        <v>548</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="E37" s="72" t="s">
+        <v>521</v>
+      </c>
+      <c r="G37" s="60" t="s">
+        <v>787</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="I37" s="72" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" ht="27" customHeight="1">
+      <c r="C38" s="69" t="s">
         <v>395</v>
       </c>
-      <c r="E2" s="35" t="s">
-        <v>406</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>405</v>
-      </c>
-      <c r="G2" s="55" t="s">
+      <c r="D38" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="E38" s="72" t="s">
+        <v>799</v>
+      </c>
+      <c r="G38" s="60" t="s">
+        <v>403</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" ht="27" customHeight="1">
+      <c r="C39" s="68" t="s">
         <v>433</v>
       </c>
-      <c r="H2" s="55" t="s">
+      <c r="D39" s="4" t="s">
+        <v>796</v>
+      </c>
+      <c r="E39" s="72" t="s">
+        <v>632</v>
+      </c>
+      <c r="G39" s="60" t="s">
+        <v>794</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" ht="27" customHeight="1">
+      <c r="C40" s="68" t="s">
         <v>408</v>
       </c>
-      <c r="I2" s="55" t="s">
+      <c r="D40" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="E40" s="72" t="s">
+        <v>634</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>797</v>
+      </c>
+      <c r="I40" s="72" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" ht="27" customHeight="1">
+      <c r="C41" s="68" t="s">
         <v>419</v>
       </c>
-      <c r="J2" s="28" t="s">
-        <v>410</v>
-      </c>
-      <c r="K2" s="28" t="s">
-        <v>411</v>
-      </c>
-      <c r="L2" s="28" t="s">
-        <v>412</v>
-      </c>
-      <c r="M2" s="28" t="s">
+      <c r="D41" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="E41" s="72" t="s">
+        <v>632</v>
+      </c>
+      <c r="G41" s="58" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" ht="27" customHeight="1">
+      <c r="C42" s="61" t="s">
         <v>636</v>
       </c>
-      <c r="N2" s="28" t="s">
+      <c r="D42" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="E42" s="72" t="s">
+        <v>520</v>
+      </c>
+      <c r="G42" s="61" t="s">
+        <v>792</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="I42" s="72" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" ht="27" customHeight="1">
+      <c r="C43" s="61" t="s">
         <v>418</v>
       </c>
-      <c r="O2" s="28" t="s">
+      <c r="D43" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="E43" s="72" t="s">
+        <v>799</v>
+      </c>
+      <c r="G43" s="60" t="s">
+        <v>786</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="I43" s="72" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" ht="27" customHeight="1">
+      <c r="C44" s="61" t="s">
         <v>398</v>
       </c>
-      <c r="P2" s="28" t="s">
-        <v>389</v>
-      </c>
-      <c r="Q2" s="31" t="s">
+      <c r="D44" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="E44" s="72" t="s">
+        <v>523</v>
+      </c>
+      <c r="G44" s="60" t="s">
+        <v>787</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="I44" s="72" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" ht="27" customHeight="1">
+      <c r="C45" s="61" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="4" spans="2:17" ht="27">
-      <c r="B4" s="55" t="s">
-        <v>548</v>
-      </c>
-      <c r="C4" s="56" t="s">
-        <v>395</v>
-      </c>
-      <c r="D4" s="55" t="s">
-        <v>433</v>
-      </c>
-      <c r="E4" s="55" t="s">
-        <v>419</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>410</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>636</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>418</v>
-      </c>
-      <c r="I4" s="28" t="s">
+      <c r="D45" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="E45" s="72" t="s">
+        <v>525</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" ht="27" customHeight="1">
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="G46" s="58" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" ht="27" customHeight="1">
+      <c r="G47" s="61" t="s">
         <v>398</v>
       </c>
-      <c r="J4" s="28" t="s">
-        <v>389</v>
-      </c>
-      <c r="K4" s="31"/>
+      <c r="H47" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="I47" s="72" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" ht="27" customHeight="1">
+      <c r="G48" s="61" t="s">
+        <v>791</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>803</v>
+      </c>
+      <c r="I48" s="72" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="49" spans="7:9" ht="27" customHeight="1">
+      <c r="G49" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>790</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3916,458 +6178,94 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G26"/>
+  <dimension ref="B2:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="B4" sqref="B4:H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="18.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="1.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="2" spans="1:7" s="32" customFormat="1" ht="29.1" customHeight="1" thickBot="1">
-      <c r="A2" s="30"/>
-      <c r="B2" s="34" t="s">
-        <v>420</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>421</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>422</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>424</v>
-      </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B3" s="34" t="s">
-        <v>420</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>421</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>422</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>424</v>
-      </c>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B4" s="34" t="s">
-        <v>420</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>421</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>422</v>
-      </c>
-      <c r="E4" s="34" t="s">
-        <v>424</v>
-      </c>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B5" s="34" t="s">
-        <v>420</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>421</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>422</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>424</v>
-      </c>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B6" s="34" t="s">
-        <v>420</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>421</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>422</v>
-      </c>
-      <c r="E6" s="34" t="s">
-        <v>424</v>
-      </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B7" s="34" t="s">
-        <v>420</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>421</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>422</v>
-      </c>
-      <c r="E7" s="34" t="s">
-        <v>424</v>
-      </c>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B8" s="34" t="s">
-        <v>420</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>421</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>422</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>424</v>
-      </c>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B9" s="34" t="s">
-        <v>420</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>421</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>422</v>
-      </c>
-      <c r="E9" s="34" t="s">
-        <v>424</v>
-      </c>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B10" s="34" t="s">
-        <v>420</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>421</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>422</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>424</v>
-      </c>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B11" s="34" t="s">
-        <v>420</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>421</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>422</v>
-      </c>
-      <c r="E11" s="34" t="s">
-        <v>424</v>
-      </c>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B12" s="34" t="s">
-        <v>420</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>421</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>422</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>424</v>
-      </c>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B13" s="34" t="s">
-        <v>420</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>421</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>422</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>424</v>
-      </c>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B14" s="34" t="s">
-        <v>420</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>421</v>
-      </c>
-      <c r="D14" s="34" t="s">
-        <v>422</v>
-      </c>
-      <c r="E14" s="34" t="s">
-        <v>424</v>
-      </c>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B15" s="34" t="s">
-        <v>420</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>421</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>422</v>
-      </c>
-      <c r="E15" s="34" t="s">
-        <v>424</v>
-      </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B16" s="34" t="s">
-        <v>420</v>
-      </c>
-      <c r="C16" s="34" t="s">
-        <v>421</v>
-      </c>
-      <c r="D16" s="34" t="s">
-        <v>422</v>
-      </c>
-      <c r="E16" s="34" t="s">
-        <v>424</v>
-      </c>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B17" s="34" t="s">
-        <v>420</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>421</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>422</v>
-      </c>
-      <c r="E17" s="34" t="s">
-        <v>424</v>
-      </c>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B18" s="34" t="s">
-        <v>420</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>421</v>
-      </c>
-      <c r="D18" s="34" t="s">
-        <v>422</v>
-      </c>
-      <c r="E18" s="34" t="s">
-        <v>424</v>
-      </c>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B19" s="34" t="s">
-        <v>420</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>421</v>
-      </c>
-      <c r="D19" s="34" t="s">
-        <v>422</v>
-      </c>
-      <c r="E19" s="34" t="s">
-        <v>424</v>
-      </c>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B20" s="34" t="s">
-        <v>420</v>
-      </c>
-      <c r="C20" s="34" t="s">
-        <v>421</v>
-      </c>
-      <c r="D20" s="34" t="s">
-        <v>422</v>
-      </c>
-      <c r="E20" s="34" t="s">
-        <v>424</v>
-      </c>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B21" s="34" t="s">
-        <v>420</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>421</v>
-      </c>
-      <c r="D21" s="34" t="s">
-        <v>422</v>
-      </c>
-      <c r="E21" s="34" t="s">
-        <v>424</v>
-      </c>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B22" s="34" t="s">
-        <v>420</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>421</v>
-      </c>
-      <c r="D22" s="34" t="s">
-        <v>422</v>
-      </c>
-      <c r="E22" s="34" t="s">
-        <v>424</v>
-      </c>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B23" s="34" t="s">
-        <v>420</v>
-      </c>
-      <c r="C23" s="34" t="s">
-        <v>421</v>
-      </c>
-      <c r="D23" s="34" t="s">
-        <v>422</v>
-      </c>
-      <c r="E23" s="34" t="s">
-        <v>424</v>
-      </c>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B24" s="34" t="s">
-        <v>420</v>
-      </c>
-      <c r="C24" s="34" t="s">
-        <v>421</v>
-      </c>
-      <c r="D24" s="34" t="s">
-        <v>422</v>
-      </c>
-      <c r="E24" s="34" t="s">
-        <v>424</v>
-      </c>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" s="33" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B25" s="34" t="s">
-        <v>420</v>
-      </c>
-      <c r="C25" s="34" t="s">
-        <v>421</v>
-      </c>
-      <c r="D25" s="34" t="s">
-        <v>422</v>
-      </c>
-      <c r="E25" s="34" t="s">
-        <v>424</v>
-      </c>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" ht="14.25" thickTop="1"/>
+    <row r="2" spans="2:17" ht="43.2">
+      <c r="B2" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>548</v>
+      </c>
+      <c r="D2" s="52" t="s">
+        <v>395</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>406</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>405</v>
+      </c>
+      <c r="G2" s="51" t="s">
+        <v>433</v>
+      </c>
+      <c r="H2" s="51" t="s">
+        <v>408</v>
+      </c>
+      <c r="I2" s="51" t="s">
+        <v>419</v>
+      </c>
+      <c r="J2" s="28" t="s">
+        <v>410</v>
+      </c>
+      <c r="K2" s="28" t="s">
+        <v>411</v>
+      </c>
+      <c r="L2" s="28" t="s">
+        <v>412</v>
+      </c>
+      <c r="M2" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="N2" s="28" t="s">
+        <v>418</v>
+      </c>
+      <c r="O2" s="28" t="s">
+        <v>398</v>
+      </c>
+      <c r="P2" s="28" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q2" s="31" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" ht="28.8">
+      <c r="B4" s="51" t="s">
+        <v>548</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>395</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>433</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>419</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>410</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>636</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>418</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>398</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>389</v>
+      </c>
+      <c r="K4" s="31"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4377,401 +6275,458 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:R23"/>
+  <dimension ref="A2:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:Q23"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="29.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="18.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="1.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:18" ht="14.25">
-      <c r="C3" s="40" t="s">
-        <v>458</v>
-      </c>
-      <c r="D3" t="s">
-        <v>579</v>
-      </c>
-      <c r="E3" t="s">
-        <v>580</v>
-      </c>
-      <c r="F3" t="s">
-        <v>581</v>
-      </c>
-      <c r="G3" t="s">
-        <v>582</v>
-      </c>
-      <c r="H3" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="6" spans="3:18" ht="14.25">
-      <c r="C6" s="40" t="s">
-        <v>468</v>
-      </c>
-      <c r="D6" t="s">
-        <v>584</v>
-      </c>
-      <c r="E6" t="s">
-        <v>585</v>
-      </c>
-      <c r="F6" t="s">
-        <v>586</v>
-      </c>
-      <c r="G6" t="s">
-        <v>587</v>
-      </c>
-      <c r="H6" t="s">
-        <v>588</v>
-      </c>
-      <c r="I6" t="s">
-        <v>589</v>
-      </c>
-      <c r="J6" t="s">
-        <v>590</v>
-      </c>
-      <c r="K6" t="s">
-        <v>591</v>
-      </c>
-      <c r="L6" t="s">
-        <v>592</v>
-      </c>
-      <c r="M6" t="s">
-        <v>593</v>
-      </c>
-      <c r="N6" t="s">
-        <v>594</v>
-      </c>
-      <c r="O6" t="s">
-        <v>595</v>
-      </c>
-      <c r="P6" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="8" spans="3:18">
-      <c r="C8" t="s">
-        <v>486</v>
-      </c>
-      <c r="D8" t="s">
-        <v>487</v>
-      </c>
-      <c r="E8" t="s">
-        <v>488</v>
-      </c>
-      <c r="F8" t="s">
-        <v>489</v>
-      </c>
-      <c r="G8" t="s">
-        <v>490</v>
-      </c>
-      <c r="H8" t="s">
-        <v>491</v>
-      </c>
-      <c r="I8" t="s">
-        <v>492</v>
-      </c>
-      <c r="J8" t="s">
-        <v>493</v>
-      </c>
-      <c r="K8" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="11" spans="3:18">
-      <c r="C11" t="s">
-        <v>468</v>
-      </c>
-      <c r="D11" t="s">
-        <v>445</v>
-      </c>
-      <c r="E11" t="s">
-        <v>447</v>
-      </c>
-      <c r="F11" t="s">
-        <v>469</v>
-      </c>
-      <c r="G11" t="s">
-        <v>471</v>
-      </c>
-      <c r="H11" t="s">
-        <v>494</v>
-      </c>
-      <c r="I11" t="s">
-        <v>474</v>
-      </c>
-      <c r="J11" t="s">
-        <v>495</v>
-      </c>
-      <c r="K11" t="s">
-        <v>496</v>
-      </c>
-      <c r="L11" t="s">
-        <v>497</v>
-      </c>
-      <c r="M11" t="s">
-        <v>453</v>
-      </c>
-      <c r="N11" t="s">
-        <v>481</v>
-      </c>
-      <c r="O11" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="14" spans="3:18">
-      <c r="C14" t="s">
-        <v>468</v>
-      </c>
-      <c r="D14" t="s">
-        <v>536</v>
-      </c>
-      <c r="E14" t="s">
-        <v>537</v>
-      </c>
-      <c r="F14" t="s">
-        <v>534</v>
-      </c>
-      <c r="G14" t="s">
-        <v>535</v>
-      </c>
-      <c r="H14" t="s">
-        <v>538</v>
-      </c>
-      <c r="I14" t="s">
-        <v>539</v>
-      </c>
-      <c r="J14" t="s">
-        <v>540</v>
-      </c>
-      <c r="K14" t="s">
-        <v>541</v>
-      </c>
-      <c r="L14" t="s">
-        <v>542</v>
-      </c>
-      <c r="M14" t="s">
-        <v>543</v>
-      </c>
-      <c r="N14" t="s">
-        <v>544</v>
-      </c>
-      <c r="O14" t="s">
-        <v>545</v>
-      </c>
-      <c r="P14" t="s">
-        <v>546</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="16" spans="3:18">
-      <c r="C16" t="s">
-        <v>468</v>
-      </c>
-      <c r="D16" t="s">
-        <v>445</v>
-      </c>
-      <c r="E16" t="s">
-        <v>537</v>
-      </c>
-      <c r="F16" t="s">
-        <v>494</v>
-      </c>
-      <c r="G16" t="s">
-        <v>549</v>
-      </c>
-      <c r="H16" t="s">
-        <v>535</v>
-      </c>
-      <c r="I16" t="s">
-        <v>538</v>
-      </c>
-      <c r="J16" t="s">
-        <v>539</v>
-      </c>
-      <c r="K16" t="s">
-        <v>540</v>
-      </c>
-      <c r="L16" t="s">
-        <v>541</v>
-      </c>
-      <c r="M16" t="s">
-        <v>542</v>
-      </c>
-      <c r="N16" t="s">
-        <v>543</v>
-      </c>
-      <c r="O16" t="s">
-        <v>544</v>
-      </c>
-      <c r="P16" t="s">
-        <v>545</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>546</v>
-      </c>
-      <c r="R16" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="18" spans="3:17">
-      <c r="C18" t="s">
-        <v>468</v>
-      </c>
-      <c r="D18" t="s">
-        <v>445</v>
-      </c>
-      <c r="E18" t="s">
-        <v>494</v>
-      </c>
-      <c r="F18" t="s">
-        <v>537</v>
-      </c>
-      <c r="G18" t="s">
-        <v>558</v>
-      </c>
-      <c r="H18" t="s">
-        <v>559</v>
-      </c>
-      <c r="I18" t="s">
-        <v>560</v>
-      </c>
-      <c r="J18" t="s">
-        <v>541</v>
-      </c>
-      <c r="K18" t="s">
-        <v>542</v>
-      </c>
-      <c r="L18" t="s">
-        <v>543</v>
-      </c>
-      <c r="M18" t="s">
-        <v>561</v>
-      </c>
-      <c r="N18" t="s">
-        <v>481</v>
-      </c>
-      <c r="O18" t="s">
-        <v>483</v>
-      </c>
-      <c r="P18" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17">
-      <c r="C21" t="s">
-        <v>567</v>
-      </c>
-      <c r="D21" t="s">
-        <v>445</v>
-      </c>
-      <c r="E21" t="s">
-        <v>568</v>
-      </c>
-      <c r="F21" t="s">
-        <v>569</v>
-      </c>
-      <c r="G21" t="s">
-        <v>570</v>
-      </c>
-      <c r="H21" t="s">
-        <v>571</v>
-      </c>
-      <c r="I21" t="s">
-        <v>572</v>
-      </c>
-      <c r="J21" t="s">
-        <v>573</v>
-      </c>
-      <c r="K21" t="s">
-        <v>574</v>
-      </c>
-      <c r="L21" t="s">
-        <v>575</v>
-      </c>
-      <c r="M21" t="s">
-        <v>543</v>
-      </c>
-      <c r="N21" t="s">
-        <v>576</v>
-      </c>
-      <c r="O21" t="s">
-        <v>577</v>
-      </c>
-      <c r="P21" t="s">
-        <v>481</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="23" spans="3:17" ht="14.25">
-      <c r="C23" s="40" t="s">
-        <v>567</v>
-      </c>
-      <c r="D23" t="s">
-        <v>584</v>
-      </c>
-      <c r="E23" t="s">
-        <v>597</v>
-      </c>
-      <c r="F23" t="s">
-        <v>598</v>
-      </c>
-      <c r="G23" t="s">
-        <v>599</v>
-      </c>
-      <c r="H23" t="s">
-        <v>600</v>
-      </c>
-      <c r="I23" t="s">
-        <v>601</v>
-      </c>
-      <c r="J23" t="s">
-        <v>602</v>
-      </c>
-      <c r="K23" t="s">
-        <v>603</v>
-      </c>
-      <c r="L23" t="s">
-        <v>604</v>
-      </c>
-      <c r="M23" t="s">
-        <v>605</v>
-      </c>
-      <c r="N23" t="s">
-        <v>606</v>
-      </c>
-      <c r="O23" t="s">
-        <v>607</v>
-      </c>
-      <c r="P23" t="s">
-        <v>595</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>596</v>
-      </c>
-    </row>
+    <row r="2" spans="1:7" s="32" customFormat="1" ht="29.1" customHeight="1" thickBot="1">
+      <c r="A2" s="30"/>
+      <c r="B2" s="34" t="s">
+        <v>420</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B3" s="34" t="s">
+        <v>420</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B4" s="34" t="s">
+        <v>420</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B5" s="34" t="s">
+        <v>420</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B6" s="34" t="s">
+        <v>420</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B7" s="34" t="s">
+        <v>420</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B8" s="34" t="s">
+        <v>420</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B9" s="34" t="s">
+        <v>420</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B10" s="34" t="s">
+        <v>420</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B11" s="34" t="s">
+        <v>420</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B12" s="34" t="s">
+        <v>420</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B13" s="34" t="s">
+        <v>420</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B14" s="34" t="s">
+        <v>420</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B15" s="34" t="s">
+        <v>420</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B16" s="34" t="s">
+        <v>420</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B17" s="34" t="s">
+        <v>420</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B18" s="34" t="s">
+        <v>420</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B19" s="34" t="s">
+        <v>420</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B20" s="34" t="s">
+        <v>420</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B21" s="34" t="s">
+        <v>420</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B22" s="34" t="s">
+        <v>420</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B23" s="34" t="s">
+        <v>420</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" s="30" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B24" s="34" t="s">
+        <v>420</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" s="33" customFormat="1" ht="29.1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B25" s="34" t="s">
+        <v>420</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="15" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4781,155 +6736,559 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:R23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23:Q23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:18">
+      <c r="C3" s="40" t="s">
+        <v>458</v>
+      </c>
+      <c r="D3" t="s">
+        <v>579</v>
+      </c>
+      <c r="E3" t="s">
+        <v>580</v>
+      </c>
+      <c r="F3" t="s">
+        <v>581</v>
+      </c>
+      <c r="G3" t="s">
+        <v>582</v>
+      </c>
+      <c r="H3" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="6" spans="3:18">
+      <c r="C6" s="40" t="s">
+        <v>468</v>
+      </c>
+      <c r="D6" t="s">
+        <v>584</v>
+      </c>
+      <c r="E6" t="s">
+        <v>585</v>
+      </c>
+      <c r="F6" t="s">
+        <v>586</v>
+      </c>
+      <c r="G6" t="s">
+        <v>587</v>
+      </c>
+      <c r="H6" t="s">
+        <v>588</v>
+      </c>
+      <c r="I6" t="s">
+        <v>589</v>
+      </c>
+      <c r="J6" t="s">
+        <v>590</v>
+      </c>
+      <c r="K6" t="s">
+        <v>591</v>
+      </c>
+      <c r="L6" t="s">
+        <v>592</v>
+      </c>
+      <c r="M6" t="s">
+        <v>593</v>
+      </c>
+      <c r="N6" t="s">
+        <v>594</v>
+      </c>
+      <c r="O6" t="s">
+        <v>595</v>
+      </c>
+      <c r="P6" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="8" spans="3:18">
+      <c r="C8" t="s">
+        <v>486</v>
+      </c>
+      <c r="D8" t="s">
+        <v>487</v>
+      </c>
+      <c r="E8" t="s">
+        <v>488</v>
+      </c>
+      <c r="F8" t="s">
+        <v>489</v>
+      </c>
+      <c r="G8" t="s">
+        <v>490</v>
+      </c>
+      <c r="H8" t="s">
+        <v>491</v>
+      </c>
+      <c r="I8" t="s">
+        <v>492</v>
+      </c>
+      <c r="J8" t="s">
+        <v>493</v>
+      </c>
+      <c r="K8" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="11" spans="3:18">
+      <c r="C11" t="s">
+        <v>468</v>
+      </c>
+      <c r="D11" t="s">
+        <v>445</v>
+      </c>
+      <c r="E11" t="s">
+        <v>447</v>
+      </c>
+      <c r="F11" t="s">
+        <v>469</v>
+      </c>
+      <c r="G11" t="s">
+        <v>471</v>
+      </c>
+      <c r="H11" t="s">
+        <v>494</v>
+      </c>
+      <c r="I11" t="s">
+        <v>474</v>
+      </c>
+      <c r="J11" t="s">
+        <v>495</v>
+      </c>
+      <c r="K11" t="s">
+        <v>496</v>
+      </c>
+      <c r="L11" t="s">
+        <v>497</v>
+      </c>
+      <c r="M11" t="s">
+        <v>453</v>
+      </c>
+      <c r="N11" t="s">
+        <v>481</v>
+      </c>
+      <c r="O11" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="14" spans="3:18">
+      <c r="C14" t="s">
+        <v>468</v>
+      </c>
+      <c r="D14" t="s">
+        <v>536</v>
+      </c>
+      <c r="E14" t="s">
+        <v>537</v>
+      </c>
+      <c r="F14" t="s">
+        <v>534</v>
+      </c>
+      <c r="G14" t="s">
+        <v>535</v>
+      </c>
+      <c r="H14" t="s">
+        <v>538</v>
+      </c>
+      <c r="I14" t="s">
+        <v>539</v>
+      </c>
+      <c r="J14" t="s">
+        <v>540</v>
+      </c>
+      <c r="K14" t="s">
+        <v>541</v>
+      </c>
+      <c r="L14" t="s">
+        <v>542</v>
+      </c>
+      <c r="M14" t="s">
+        <v>543</v>
+      </c>
+      <c r="N14" t="s">
+        <v>544</v>
+      </c>
+      <c r="O14" t="s">
+        <v>545</v>
+      </c>
+      <c r="P14" t="s">
+        <v>546</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="16" spans="3:18">
+      <c r="C16" t="s">
+        <v>468</v>
+      </c>
+      <c r="D16" t="s">
+        <v>445</v>
+      </c>
+      <c r="E16" t="s">
+        <v>537</v>
+      </c>
+      <c r="F16" t="s">
+        <v>494</v>
+      </c>
+      <c r="G16" t="s">
+        <v>549</v>
+      </c>
+      <c r="H16" t="s">
+        <v>535</v>
+      </c>
+      <c r="I16" t="s">
+        <v>538</v>
+      </c>
+      <c r="J16" t="s">
+        <v>539</v>
+      </c>
+      <c r="K16" t="s">
+        <v>540</v>
+      </c>
+      <c r="L16" t="s">
+        <v>541</v>
+      </c>
+      <c r="M16" t="s">
+        <v>542</v>
+      </c>
+      <c r="N16" t="s">
+        <v>543</v>
+      </c>
+      <c r="O16" t="s">
+        <v>544</v>
+      </c>
+      <c r="P16" t="s">
+        <v>545</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>546</v>
+      </c>
+      <c r="R16" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17">
+      <c r="C18" t="s">
+        <v>468</v>
+      </c>
+      <c r="D18" t="s">
+        <v>445</v>
+      </c>
+      <c r="E18" t="s">
+        <v>494</v>
+      </c>
+      <c r="F18" t="s">
+        <v>537</v>
+      </c>
+      <c r="G18" t="s">
+        <v>558</v>
+      </c>
+      <c r="H18" t="s">
+        <v>559</v>
+      </c>
+      <c r="I18" t="s">
+        <v>560</v>
+      </c>
+      <c r="J18" t="s">
+        <v>541</v>
+      </c>
+      <c r="K18" t="s">
+        <v>542</v>
+      </c>
+      <c r="L18" t="s">
+        <v>543</v>
+      </c>
+      <c r="M18" t="s">
+        <v>561</v>
+      </c>
+      <c r="N18" t="s">
+        <v>481</v>
+      </c>
+      <c r="O18" t="s">
+        <v>483</v>
+      </c>
+      <c r="P18" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17">
+      <c r="C21" t="s">
+        <v>567</v>
+      </c>
+      <c r="D21" t="s">
+        <v>445</v>
+      </c>
+      <c r="E21" t="s">
+        <v>568</v>
+      </c>
+      <c r="F21" t="s">
+        <v>569</v>
+      </c>
+      <c r="G21" t="s">
+        <v>570</v>
+      </c>
+      <c r="H21" t="s">
+        <v>571</v>
+      </c>
+      <c r="I21" t="s">
+        <v>572</v>
+      </c>
+      <c r="J21" t="s">
+        <v>573</v>
+      </c>
+      <c r="K21" t="s">
+        <v>574</v>
+      </c>
+      <c r="L21" t="s">
+        <v>575</v>
+      </c>
+      <c r="M21" t="s">
+        <v>543</v>
+      </c>
+      <c r="N21" t="s">
+        <v>576</v>
+      </c>
+      <c r="O21" t="s">
+        <v>577</v>
+      </c>
+      <c r="P21" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17">
+      <c r="C23" s="40" t="s">
+        <v>567</v>
+      </c>
+      <c r="D23" t="s">
+        <v>584</v>
+      </c>
+      <c r="E23" t="s">
+        <v>597</v>
+      </c>
+      <c r="F23" t="s">
+        <v>598</v>
+      </c>
+      <c r="G23" t="s">
+        <v>599</v>
+      </c>
+      <c r="H23" t="s">
+        <v>600</v>
+      </c>
+      <c r="I23" t="s">
+        <v>601</v>
+      </c>
+      <c r="J23" t="s">
+        <v>602</v>
+      </c>
+      <c r="K23" t="s">
+        <v>603</v>
+      </c>
+      <c r="L23" t="s">
+        <v>604</v>
+      </c>
+      <c r="M23" t="s">
+        <v>605</v>
+      </c>
+      <c r="N23" t="s">
+        <v>606</v>
+      </c>
+      <c r="O23" t="s">
+        <v>607</v>
+      </c>
+      <c r="P23" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>596</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="9" style="46"/>
-    <col min="2" max="2" width="9" style="48"/>
-    <col min="3" max="3" width="63.625" style="50" customWidth="1"/>
-    <col min="4" max="4" width="5.375" style="46" customWidth="1"/>
-    <col min="5" max="5" width="50.875" style="46" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="46"/>
+    <col min="1" max="1" width="9" style="42"/>
+    <col min="2" max="2" width="9" style="44"/>
+    <col min="3" max="3" width="63.6640625" style="46" customWidth="1"/>
+    <col min="4" max="4" width="5.33203125" style="42" customWidth="1"/>
+    <col min="5" max="5" width="50.88671875" style="42" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="42"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="44.1" customHeight="1">
-      <c r="B2" s="47">
+      <c r="B2" s="43">
         <v>1</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="45" t="s">
         <v>646</v>
       </c>
-      <c r="D2" s="51">
+      <c r="D2" s="47">
         <v>1</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="48" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="44.1" customHeight="1">
-      <c r="B3" s="48">
+      <c r="B3" s="44">
         <v>2</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="46" t="s">
         <v>647</v>
       </c>
-      <c r="D3" s="53">
+      <c r="D3" s="49">
         <v>2</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="E3" s="48" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="44.1" customHeight="1">
-      <c r="B4" s="48">
+      <c r="B4" s="44">
         <v>3</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="46" t="s">
         <v>639</v>
       </c>
-      <c r="D4" s="53">
+      <c r="D4" s="49">
         <v>3</v>
       </c>
-      <c r="E4" s="52" t="s">
+      <c r="E4" s="48" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="44.1" customHeight="1">
-      <c r="B5" s="48">
+      <c r="B5" s="44">
         <v>4</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="46" t="s">
         <v>640</v>
       </c>
-      <c r="D5" s="53">
+      <c r="D5" s="49">
         <v>4</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="50" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="44.1" customHeight="1">
-      <c r="B6" s="48">
+      <c r="B6" s="44">
         <v>5</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="46" t="s">
         <v>644</v>
       </c>
-      <c r="D6" s="51">
+      <c r="D6" s="47">
         <v>5</v>
       </c>
-      <c r="E6" s="54" t="s">
+      <c r="E6" s="50" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="44.1" customHeight="1">
-      <c r="B7" s="48">
+      <c r="B7" s="44">
         <v>6</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="46" t="s">
         <v>641</v>
       </c>
-      <c r="D7" s="53">
+      <c r="D7" s="49">
         <v>6</v>
       </c>
-      <c r="E7" s="52" t="s">
+      <c r="E7" s="48" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="44.1" customHeight="1">
-      <c r="B8" s="48">
+      <c r="B8" s="44">
         <v>7</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="46" t="s">
         <v>642</v>
       </c>
-      <c r="D8" s="53">
+      <c r="D8" s="49">
         <v>7</v>
       </c>
-      <c r="E8" s="54" t="s">
+      <c r="E8" s="50" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="44.1" customHeight="1">
-      <c r="B9" s="48">
+      <c r="B9" s="44">
         <v>8</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="46" t="s">
         <v>643</v>
       </c>
-      <c r="D9" s="53">
+      <c r="D9" s="49">
         <v>8</v>
       </c>
-      <c r="E9" s="54" t="s">
+      <c r="E9" s="50" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="44.1" customHeight="1">
-      <c r="B10" s="48">
+      <c r="B10" s="44">
         <v>9</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="46" t="s">
         <v>645</v>
       </c>
-      <c r="D10" s="51">
+      <c r="D10" s="47">
         <v>9</v>
       </c>
-      <c r="E10" s="52" t="s">
+      <c r="E10" s="48" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="44.1" customHeight="1">
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
     </row>
     <row r="12" spans="2:5" ht="44.1" customHeight="1">
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4939,1024 +7298,941 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:T36"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:F3"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="61" customWidth="1"/>
-    <col min="2" max="2" width="14.125" style="62" customWidth="1"/>
-    <col min="3" max="3" width="33.125" style="61" customWidth="1"/>
-    <col min="4" max="4" width="7.125" style="61" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="61" customWidth="1"/>
-    <col min="6" max="6" width="19.5" style="61" customWidth="1"/>
-    <col min="7" max="7" width="28.25" style="61" customWidth="1"/>
-    <col min="8" max="8" width="35.875" style="61" customWidth="1"/>
-    <col min="9" max="9" width="60.25" style="61" customWidth="1"/>
-    <col min="10" max="11" width="11.125" style="61" customWidth="1"/>
-    <col min="12" max="12" width="19" style="61" customWidth="1"/>
-    <col min="13" max="13" width="11.625" style="61" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="61"/>
+    <col min="1" max="1" width="3.5546875" style="58" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" style="74" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.44140625" style="58" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5546875" style="58" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" style="58" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.77734375" style="58" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.109375" style="58" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" style="58" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" style="58" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.5546875" style="58" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="58"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20">
-      <c r="B2" s="62" t="s">
+    <row r="1" spans="1:11">
+      <c r="B1" s="61" t="s">
         <v>385</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C1" s="68" t="s">
         <v>548</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D1" s="69" t="s">
         <v>395</v>
       </c>
-      <c r="E2" s="61" t="s">
-        <v>661</v>
-      </c>
-      <c r="F2" s="61" t="s">
-        <v>662</v>
-      </c>
-      <c r="G2" s="61" t="s">
-        <v>664</v>
-      </c>
-      <c r="H2" s="61" t="s">
-        <v>663</v>
-      </c>
-      <c r="I2" s="61" t="s">
+      <c r="E1" s="68" t="s">
+        <v>433</v>
+      </c>
+      <c r="F1" s="68" t="s">
         <v>408</v>
       </c>
-      <c r="N2" s="61" t="s">
-        <v>665</v>
-      </c>
-      <c r="O2" s="61" t="s">
-        <v>666</v>
-      </c>
-      <c r="P2" s="61" t="s">
-        <v>667</v>
-      </c>
-      <c r="Q2" s="61" t="s">
-        <v>786</v>
-      </c>
-      <c r="R2" s="61" t="s">
-        <v>668</v>
-      </c>
-      <c r="S2" s="61" t="s">
-        <v>669</v>
-      </c>
-      <c r="T2" s="61" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="26.25" customHeight="1">
-      <c r="B3" s="63" t="s">
-        <v>787</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>694</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>696</v>
-      </c>
-      <c r="G3" s="64" t="s">
+      <c r="G1" s="68" t="s">
+        <v>419</v>
+      </c>
+      <c r="H1" s="61" t="s">
+        <v>636</v>
+      </c>
+      <c r="I1" s="61" t="s">
+        <v>418</v>
+      </c>
+      <c r="J1" s="61" t="s">
+        <v>398</v>
+      </c>
+      <c r="K1" s="61" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="33" customHeight="1">
+      <c r="A2" s="58">
+        <v>1</v>
+      </c>
+      <c r="B2" s="73" t="s">
         <v>697</v>
       </c>
-      <c r="H3" s="15" t="s">
-        <v>698</v>
-      </c>
-      <c r="I3" s="15" t="s">
+      <c r="C2" s="4" t="s">
         <v>699</v>
       </c>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="64" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="33" customHeight="1">
-      <c r="A4" s="61">
+      <c r="D2" s="4">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="I2" s="4">
+        <v>11</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" ht="33" customHeight="1">
+      <c r="A3" s="58">
+        <v>2</v>
+      </c>
+      <c r="B3" s="73" t="s">
+        <v>705</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="D3" s="4">
+        <v>22</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="I3" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="65" t="s">
-        <v>701</v>
+      <c r="J3" s="4" t="s">
+        <v>742</v>
+      </c>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" ht="33" customHeight="1">
+      <c r="A4" s="58">
+        <v>3</v>
+      </c>
+      <c r="B4" s="73" t="s">
+        <v>710</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>703</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>704</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>702</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>705</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>706</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>707</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>708</v>
-      </c>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-    </row>
-    <row r="5" spans="1:20" ht="33" customHeight="1">
-      <c r="A5" s="61">
+        <v>316</v>
+      </c>
+      <c r="D4" s="4">
+        <v>33</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" ht="33" customHeight="1">
+      <c r="A5" s="58">
+        <v>4</v>
+      </c>
+      <c r="B5" s="73" t="s">
+        <v>715</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="D5" s="4">
+        <v>44</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="I5" s="4">
         <v>2</v>
       </c>
-      <c r="B5" s="65" t="s">
-        <v>709</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>711</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>704</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>710</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>705</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>706</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>712</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>713</v>
-      </c>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-    </row>
-    <row r="6" spans="1:20" ht="33" customHeight="1">
-      <c r="A6" s="61">
+      <c r="J5" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" ht="33" customHeight="1">
+      <c r="A6" s="58">
+        <v>5</v>
+      </c>
+      <c r="B6" s="73" t="s">
+        <v>721</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="4">
+        <v>55</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="I6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="65" t="s">
-        <v>714</v>
-      </c>
-      <c r="C6" s="17" t="s">
+      <c r="J6" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" ht="33" customHeight="1">
+      <c r="A7" s="58">
+        <v>6</v>
+      </c>
+      <c r="B7" s="73" t="s">
+        <v>721</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="4">
+        <v>66</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="I7" s="4">
+        <v>1</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" ht="33" customHeight="1">
+      <c r="A8" s="58">
+        <v>7</v>
+      </c>
+      <c r="B8" s="73" t="s">
+        <v>726</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="D6" s="17" t="s">
-        <v>704</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>715</v>
-      </c>
-      <c r="F6" s="65" t="s">
-        <v>671</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>716</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>717</v>
-      </c>
-      <c r="I6" s="17" t="s">
-        <v>718</v>
-      </c>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-    </row>
-    <row r="7" spans="1:20" ht="33" customHeight="1">
-      <c r="A7" s="61">
-        <v>4</v>
-      </c>
-      <c r="B7" s="65" t="s">
+      <c r="D8" s="4">
+        <v>77</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" ht="33" customHeight="1">
+      <c r="A9" s="58">
+        <v>8</v>
+      </c>
+      <c r="B9" s="73" t="s">
+        <v>726</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="D9" s="4">
+        <v>88</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="I9" s="4">
+        <v>2</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" ht="33" customHeight="1">
+      <c r="A10" s="58">
+        <v>9</v>
+      </c>
+      <c r="B10" s="73" t="s">
+        <v>726</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="D10" s="4">
+        <v>99</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="I10" s="4">
+        <v>3</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" ht="33" customHeight="1">
+      <c r="A11" s="58">
+        <v>10</v>
+      </c>
+      <c r="B11" s="73" t="s">
+        <v>732</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="D11" s="4">
+        <v>110</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="I11" s="4">
+        <v>1</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" ht="33" customHeight="1">
+      <c r="A12" s="58">
+        <v>11</v>
+      </c>
+      <c r="B12" s="73" t="s">
+        <v>732</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="D12" s="4">
+        <v>121</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="I12" s="4">
+        <v>1</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>781</v>
+      </c>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" ht="33" customHeight="1">
+      <c r="A13" s="58">
+        <v>12</v>
+      </c>
+      <c r="B13" s="73" t="s">
+        <v>735</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="D13" s="4">
+        <v>132</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="I13" s="4">
+        <v>2</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" ht="33" customHeight="1">
+      <c r="A14" s="58">
+        <v>13</v>
+      </c>
+      <c r="B14" s="73" t="s">
+        <v>738</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="D14" s="4">
+        <v>143</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>719</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>721</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>704</v>
-      </c>
-      <c r="E7" s="17" t="s">
+      <c r="H14" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="I14" s="4">
+        <v>3</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="33" customHeight="1">
+      <c r="A15" s="58">
+        <v>14</v>
+      </c>
+      <c r="B15" s="73" t="s">
+        <v>738</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="D15" s="4">
+        <v>154</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>741</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="I15" s="4">
+        <v>1</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="33" customHeight="1">
+      <c r="A16" s="58">
+        <v>15</v>
+      </c>
+      <c r="B16" s="73" t="s">
+        <v>745</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="D16" s="4">
+        <v>165</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="I16" s="4">
+        <v>1</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="1:11" ht="33" customHeight="1">
+      <c r="A17" s="58">
+        <v>16</v>
+      </c>
+      <c r="B17" s="73" t="s">
+        <v>745</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="D17" s="4">
+        <v>176</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="I17" s="4">
+        <v>2</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>820</v>
+      </c>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="1:11" ht="33" customHeight="1">
+      <c r="A18" s="58">
+        <v>17</v>
+      </c>
+      <c r="B18" s="73" t="s">
+        <v>684</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="D18" s="4">
+        <v>187</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>720</v>
       </c>
-      <c r="F7" s="65" t="s">
-        <v>722</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>723</v>
-      </c>
-      <c r="H7" s="16">
-        <v>42937</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>724</v>
-      </c>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-    </row>
-    <row r="8" spans="1:20" ht="33" customHeight="1">
-      <c r="A8" s="61">
-        <v>5</v>
-      </c>
-      <c r="B8" s="65" t="s">
+      <c r="F18" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="I18" s="4">
+        <v>3</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>820</v>
+      </c>
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" spans="1:11" ht="33" customHeight="1">
+      <c r="A19" s="58">
+        <v>18</v>
+      </c>
+      <c r="B19" s="73" t="s">
+        <v>684</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="D19" s="4">
+        <v>198</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>725</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="F19" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="I19" s="4">
+        <v>1</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" spans="1:11" ht="33" customHeight="1">
+      <c r="A20" s="58">
+        <v>19</v>
+      </c>
+      <c r="B20" s="73" t="s">
+        <v>759</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="D20" s="4">
+        <v>209</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="I20" s="4">
+        <v>1</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="1:11" ht="33" customHeight="1">
+      <c r="A21" s="58">
+        <v>20</v>
+      </c>
+      <c r="B21" s="73" t="s">
+        <v>759</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="D21" s="4">
+        <v>220</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="I21" s="4">
+        <v>2</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" spans="1:11" ht="33" customHeight="1">
+      <c r="A22" s="58">
+        <v>21</v>
+      </c>
+      <c r="B22" s="73" t="s">
+        <v>767</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="D22" s="4">
+        <v>231</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="I22" s="4">
+        <v>3</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="1:11" ht="33" customHeight="1">
+      <c r="A23" s="58">
+        <v>22</v>
+      </c>
+      <c r="B23" s="73" t="s">
+        <v>773</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="D23" s="4">
+        <v>242</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>777</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="I23" s="4">
+        <v>1</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" spans="1:11" ht="33" customHeight="1">
+      <c r="A24" s="58">
         <v>23</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>704</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>726</v>
-      </c>
-      <c r="F8" s="65" t="s">
-        <v>727</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>723</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>728</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>729</v>
-      </c>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-    </row>
-    <row r="9" spans="1:20" ht="33" customHeight="1">
-      <c r="A9" s="61">
-        <v>6</v>
-      </c>
-      <c r="B9" s="65" t="s">
-        <v>725</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>704</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>673</v>
-      </c>
-      <c r="F9" s="65" t="s">
-        <v>674</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>723</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>728</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>729</v>
-      </c>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-    </row>
-    <row r="10" spans="1:20" ht="33" customHeight="1">
-      <c r="A10" s="61">
-        <v>7</v>
-      </c>
-      <c r="B10" s="65" t="s">
-        <v>730</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>316</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>704</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>731</v>
-      </c>
-      <c r="F10" s="65" t="s">
-        <v>675</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>732</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>733</v>
-      </c>
-      <c r="I10" s="17" t="s">
-        <v>734</v>
-      </c>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-    </row>
-    <row r="11" spans="1:20" ht="33" customHeight="1">
-      <c r="A11" s="61">
-        <v>8</v>
-      </c>
-      <c r="B11" s="65" t="s">
-        <v>730</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>316</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>704</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>676</v>
-      </c>
-      <c r="F11" s="65" t="s">
-        <v>677</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>732</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>733</v>
-      </c>
-      <c r="I11" s="17" t="s">
-        <v>734</v>
-      </c>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-    </row>
-    <row r="12" spans="1:20" ht="33" customHeight="1">
-      <c r="A12" s="61">
-        <v>9</v>
-      </c>
-      <c r="B12" s="65" t="s">
-        <v>730</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>316</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>704</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>735</v>
-      </c>
-      <c r="F12" s="65" t="s">
-        <v>678</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>732</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>733</v>
-      </c>
-      <c r="I12" s="17" t="s">
-        <v>734</v>
-      </c>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-    </row>
-    <row r="13" spans="1:20" ht="33" customHeight="1">
-      <c r="A13" s="61">
-        <v>10</v>
-      </c>
-      <c r="B13" s="65" t="s">
-        <v>736</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>703</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>704</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>737</v>
-      </c>
-      <c r="F13" s="65" t="s">
-        <v>679</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>680</v>
-      </c>
-      <c r="I13" s="17" t="s">
-        <v>681</v>
-      </c>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-    </row>
-    <row r="14" spans="1:20" ht="33" customHeight="1">
-      <c r="A14" s="61">
-        <v>11</v>
-      </c>
-      <c r="B14" s="65" t="s">
-        <v>736</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>703</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>704</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>738</v>
-      </c>
-      <c r="F14" s="65" t="s">
-        <v>682</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>680</v>
-      </c>
-      <c r="I14" s="17" t="s">
-        <v>681</v>
-      </c>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-    </row>
-    <row r="15" spans="1:20" ht="33" customHeight="1">
-      <c r="A15" s="61">
-        <v>12</v>
-      </c>
-      <c r="B15" s="65" t="s">
-        <v>739</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>703</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>704</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>740</v>
-      </c>
-      <c r="F15" s="65" t="s">
-        <v>679</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="H15" s="17" t="s">
-        <v>683</v>
-      </c>
-      <c r="I15" s="17" t="s">
-        <v>741</v>
-      </c>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-    </row>
-    <row r="16" spans="1:20" ht="33" customHeight="1">
-      <c r="A16" s="61">
-        <v>13</v>
-      </c>
-      <c r="B16" s="65" t="s">
-        <v>742</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>672</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>704</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>743</v>
-      </c>
-      <c r="F16" s="65" t="s">
-        <v>744</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>723</v>
-      </c>
-      <c r="H16" s="65" t="s">
-        <v>742</v>
-      </c>
-      <c r="I16" s="17" t="s">
-        <v>745</v>
-      </c>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="33" customHeight="1">
-      <c r="A17" s="61">
-        <v>14</v>
-      </c>
-      <c r="B17" s="65" t="s">
-        <v>742</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>672</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>704</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>747</v>
-      </c>
-      <c r="F17" s="65" t="s">
-        <v>748</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>723</v>
-      </c>
-      <c r="H17" s="65" t="s">
-        <v>742</v>
-      </c>
-      <c r="I17" s="17" t="s">
-        <v>745</v>
-      </c>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="33" customHeight="1">
-      <c r="A18" s="61">
-        <v>15</v>
-      </c>
-      <c r="B18" s="65" t="s">
-        <v>749</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>751</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>704</v>
-      </c>
-      <c r="E18" s="17" t="s">
+      <c r="B24" s="73" t="s">
+        <v>779</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="D24" s="4">
+        <v>253</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>750</v>
       </c>
-      <c r="F18" s="65" t="s">
-        <v>752</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>753</v>
-      </c>
-      <c r="H18" s="16">
-        <v>43032</v>
-      </c>
-      <c r="I18" s="17" t="s">
-        <v>754</v>
-      </c>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17" t="s">
+      <c r="F24" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" ht="33" customHeight="1">
-      <c r="A19" s="61">
-        <v>16</v>
-      </c>
-      <c r="B19" s="65" t="s">
-        <v>749</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>751</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>704</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>756</v>
-      </c>
-      <c r="F19" s="65" t="s">
-        <v>757</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>753</v>
-      </c>
-      <c r="H19" s="16">
-        <v>43032</v>
-      </c>
-      <c r="I19" s="17" t="s">
-        <v>754</v>
-      </c>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="33" customHeight="1">
-      <c r="A20" s="61">
-        <v>17</v>
-      </c>
-      <c r="B20" s="65" t="s">
-        <v>684</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>703</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>704</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>758</v>
-      </c>
-      <c r="F20" s="65" t="s">
-        <v>685</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>759</v>
-      </c>
-      <c r="H20" s="16" t="s">
-        <v>686</v>
-      </c>
-      <c r="I20" s="17" t="s">
-        <v>760</v>
-      </c>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="33" customHeight="1">
-      <c r="A21" s="61">
-        <v>18</v>
-      </c>
-      <c r="B21" s="65" t="s">
-        <v>684</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>703</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>704</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>762</v>
-      </c>
-      <c r="F21" s="65" t="s">
-        <v>687</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>759</v>
-      </c>
-      <c r="H21" s="16" t="s">
-        <v>686</v>
-      </c>
-      <c r="I21" s="17" t="s">
-        <v>760</v>
-      </c>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="33" customHeight="1">
-      <c r="A22" s="61">
-        <v>19</v>
-      </c>
-      <c r="B22" s="65" t="s">
-        <v>763</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>765</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>704</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>764</v>
-      </c>
-      <c r="F22" s="65" t="s">
-        <v>766</v>
-      </c>
-      <c r="G22" s="17" t="s">
-        <v>723</v>
-      </c>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17" t="s">
-        <v>767</v>
-      </c>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="33" customHeight="1">
-      <c r="A23" s="61">
-        <v>20</v>
-      </c>
-      <c r="B23" s="65" t="s">
-        <v>763</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>765</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>704</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>769</v>
-      </c>
-      <c r="F23" s="65" t="s">
-        <v>770</v>
-      </c>
-      <c r="G23" s="17" t="s">
-        <v>723</v>
-      </c>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17" t="s">
-        <v>767</v>
-      </c>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="33" customHeight="1">
-      <c r="A24" s="61">
-        <v>21</v>
-      </c>
-      <c r="B24" s="65" t="s">
-        <v>771</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>688</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>704</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>772</v>
-      </c>
-      <c r="F24" s="65" t="s">
-        <v>773</v>
-      </c>
-      <c r="G24" s="17" t="s">
-        <v>759</v>
-      </c>
-      <c r="H24" s="16" t="s">
-        <v>774</v>
-      </c>
-      <c r="I24" s="17" t="s">
-        <v>775</v>
-      </c>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="33" customHeight="1">
-      <c r="A25" s="61">
-        <v>22</v>
-      </c>
-      <c r="B25" s="65" t="s">
-        <v>777</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>778</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>704</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>731</v>
-      </c>
-      <c r="F25" s="65" t="s">
-        <v>779</v>
-      </c>
-      <c r="G25" s="17" t="s">
-        <v>759</v>
-      </c>
-      <c r="H25" s="16" t="s">
-        <v>780</v>
-      </c>
-      <c r="I25" s="17" t="s">
-        <v>781</v>
-      </c>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="33" customHeight="1">
-      <c r="A26" s="61">
-        <v>23</v>
-      </c>
-      <c r="B26" s="65" t="s">
-        <v>783</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>689</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>704</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>784</v>
-      </c>
-      <c r="F26" s="65" t="s">
-        <v>690</v>
-      </c>
-      <c r="G26" s="17" t="s">
-        <v>759</v>
-      </c>
-      <c r="H26" s="17" t="s">
-        <v>691</v>
-      </c>
-      <c r="I26" s="17" t="s">
-        <v>692</v>
-      </c>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="33" customHeight="1">
-      <c r="B27" s="65"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-    </row>
-    <row r="28" spans="1:13" ht="33" customHeight="1">
-      <c r="B28" s="65"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-    </row>
-    <row r="29" spans="1:13" ht="33" customHeight="1">
-      <c r="B29" s="65"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-    </row>
-    <row r="30" spans="1:13" ht="33" customHeight="1">
-      <c r="B30" s="65"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-    </row>
-    <row r="31" spans="1:13" ht="33" customHeight="1">
-      <c r="B31" s="65"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-    </row>
-    <row r="32" spans="1:13" ht="33" customHeight="1">
-      <c r="B32" s="65"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-    </row>
-    <row r="33" spans="2:13" ht="33" customHeight="1">
-      <c r="B33" s="65"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-    </row>
-    <row r="34" spans="2:13" ht="33" customHeight="1">
-      <c r="B34" s="65"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="65"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-    </row>
-    <row r="35" spans="2:13" ht="33" customHeight="1">
-      <c r="B35" s="65"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="65"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-    </row>
-    <row r="36" spans="2:13" ht="33" customHeight="1">
-      <c r="B36" s="65"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="65"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
+      <c r="H24" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="I24" s="4">
+        <v>1</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" spans="1:11" ht="33" customHeight="1">
+      <c r="B25" s="73"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+    </row>
+    <row r="26" spans="1:11" ht="33" customHeight="1">
+      <c r="B26" s="73"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+    </row>
+    <row r="27" spans="1:11" ht="33" customHeight="1">
+      <c r="B27" s="73"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+    </row>
+    <row r="28" spans="1:11" ht="33" customHeight="1">
+      <c r="B28" s="73"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+    </row>
+    <row r="29" spans="1:11" ht="33" customHeight="1">
+      <c r="B29" s="73"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+    </row>
+    <row r="30" spans="1:11" ht="33" customHeight="1">
+      <c r="B30" s="73"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+    </row>
+    <row r="31" spans="1:11" ht="33" customHeight="1">
+      <c r="B31" s="73"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+    </row>
+    <row r="32" spans="1:11" ht="33" customHeight="1">
+      <c r="B32" s="73"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+    </row>
+    <row r="33" spans="2:11" ht="33" customHeight="1">
+      <c r="B33" s="73"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+    </row>
+    <row r="34" spans="2:11" ht="33" customHeight="1">
+      <c r="B34" s="73"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="73"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -5966,39 +8242,55 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I40"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
     <col min="3" max="3" width="20" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="39.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="39.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="12" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="33.75" customHeight="1">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="62" t="s">
         <v>322</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-    </row>
-    <row r="3" spans="1:9" ht="27">
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+    </row>
+    <row r="3" spans="1:9" ht="28.8">
       <c r="B3" s="2" t="s">
         <v>253</v>
       </c>
@@ -6919,7 +9211,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J33"/>
   <sheetViews>
@@ -6927,33 +9219,33 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
     <col min="3" max="3" width="20" style="1" customWidth="1"/>
     <col min="4" max="4" width="7" style="1" customWidth="1"/>
-    <col min="5" max="5" width="39.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="39.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="1" customWidth="1"/>
     <col min="9" max="10" width="12" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="33.75" customHeight="1">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="62" t="s">
         <v>323</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-    </row>
-    <row r="3" spans="1:10" ht="27">
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+    </row>
+    <row r="3" spans="1:10" ht="28.8">
       <c r="B3" s="2" t="s">
         <v>211</v>
       </c>
@@ -7615,7 +9907,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -7626,46 +9918,46 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="33" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="33" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="17.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.77734375" style="1" customWidth="1"/>
     <col min="9" max="9" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.33203125" style="1" customWidth="1"/>
     <col min="14" max="14" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.75" style="12" customWidth="1"/>
+    <col min="15" max="15" width="5.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="11.44140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.77734375" style="12" customWidth="1"/>
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="33" customHeight="1">
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="64" t="s">
         <v>324</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="60"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
     </row>
     <row r="3" spans="1:18" ht="33" customHeight="1">
       <c r="B3" s="2" t="s">
@@ -11909,7 +14201,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
@@ -11917,20 +14209,20 @@
       <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="24" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="24" customWidth="1"/>
-    <col min="4" max="4" width="25.125" style="24" customWidth="1"/>
-    <col min="5" max="5" width="10.875" style="24" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="24" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" style="24" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" style="24" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" style="24" customWidth="1"/>
     <col min="7" max="7" width="9" style="24"/>
-    <col min="8" max="8" width="14.375" style="24" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" style="24" customWidth="1"/>
     <col min="9" max="9" width="17" style="24" customWidth="1"/>
     <col min="10" max="10" width="9" style="25"/>
-    <col min="11" max="11" width="21.5" style="24" customWidth="1"/>
-    <col min="12" max="12" width="12.5" style="24" customWidth="1"/>
+    <col min="11" max="11" width="21.44140625" style="24" customWidth="1"/>
+    <col min="12" max="12" width="12.44140625" style="24" customWidth="1"/>
     <col min="13" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
@@ -12001,7 +14293,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16.5">
+    <row r="3" spans="1:12" ht="15.6">
       <c r="A3" s="24">
         <v>20170802</v>
       </c>
@@ -12065,7 +14357,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="16.5">
+    <row r="5" spans="1:12" ht="15.6">
       <c r="A5" s="24">
         <v>20170829</v>
       </c>
@@ -12097,7 +14389,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="16.5">
+    <row r="6" spans="1:12" ht="15.6">
       <c r="A6" s="24">
         <v>20170918</v>
       </c>
@@ -12129,7 +14421,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="16.5">
+    <row r="7" spans="1:12" ht="15.6">
       <c r="A7" s="24">
         <v>20170926</v>
       </c>
@@ -12223,7 +14515,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -12231,14 +14523,14 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -12249,24 +14541,24 @@
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="2.75" style="31" customWidth="1"/>
-    <col min="2" max="2" width="2.5" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="31" customWidth="1"/>
-    <col min="4" max="4" width="1.625" style="39" customWidth="1"/>
-    <col min="5" max="5" width="14.625" style="31" customWidth="1"/>
-    <col min="6" max="6" width="1.625" style="39" customWidth="1"/>
-    <col min="7" max="7" width="14.625" style="31" customWidth="1"/>
-    <col min="8" max="8" width="1.625" style="39" customWidth="1"/>
+    <col min="1" max="1" width="2.77734375" style="31" customWidth="1"/>
+    <col min="2" max="2" width="2.44140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="1.6640625" style="39" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="31" customWidth="1"/>
+    <col min="6" max="6" width="1.6640625" style="39" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="1.6640625" style="39" customWidth="1"/>
     <col min="9" max="9" width="9" style="31" bestFit="1" customWidth="1"/>
-    <col min="10" max="25" width="9.625" style="31" customWidth="1"/>
+    <col min="10" max="25" width="9.6640625" style="31" customWidth="1"/>
     <col min="26" max="16384" width="9" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:26" ht="29.25" customHeight="1">
       <c r="I1" s="31" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
     </row>
     <row r="2" spans="2:26" ht="27" customHeight="1">
@@ -12350,7 +14642,7 @@
         <v>380</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="J4" s="35" t="s">
         <v>548</v>
@@ -13401,1172 +15693,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="61" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:U48"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="27" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="3.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="3.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="22.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.125" style="66" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="22.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="22.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:21" ht="27" customHeight="1">
-      <c r="D1" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="2" spans="2:21" ht="27" customHeight="1">
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>385</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="E2" s="42" t="s">
-        <v>520</v>
-      </c>
-      <c r="J2" s="28" t="s">
-        <v>435</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="L2" s="42" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="3" spans="2:21" ht="27" customHeight="1">
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="E3" s="42" t="s">
-        <v>521</v>
-      </c>
-      <c r="J3" s="28" t="s">
-        <v>437</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="L3" s="42" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="4" spans="2:21" ht="27" customHeight="1">
-      <c r="B4" s="1">
-        <v>3</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E4" s="42" t="s">
-        <v>523</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>393</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="L4" s="42" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="5" spans="2:21" ht="27" customHeight="1">
-      <c r="B5" s="1">
-        <v>4</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>392</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="E5" s="42" t="s">
-        <v>522</v>
-      </c>
-      <c r="J5" s="28" t="s">
-        <v>434</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="L5" s="42" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="6" spans="2:21" ht="27" customHeight="1">
-      <c r="B6" s="1">
-        <v>5</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>438</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="E6" s="42" t="s">
-        <v>525</v>
-      </c>
-      <c r="J6" s="28" t="s">
-        <v>394</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="7" spans="2:21" ht="27" customHeight="1">
-      <c r="B7" s="1">
-        <v>6</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>436</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="E7" s="42" t="s">
-        <v>524</v>
-      </c>
-      <c r="J7" s="28" t="s">
-        <v>391</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="L7" s="42" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="8" spans="2:21" ht="27" customHeight="1">
-      <c r="B8" s="1">
-        <v>7</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>434</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>526</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="L8" s="42" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="9" spans="2:21" ht="27" customHeight="1">
-      <c r="B9" s="1">
-        <v>8</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>394</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="E9" s="42" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="10" spans="2:21" ht="27" customHeight="1">
-      <c r="B10" s="1">
-        <v>9</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>402</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="E10" s="42" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="11" spans="2:21" ht="27" customHeight="1">
-      <c r="B11" s="1">
-        <v>10</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>398</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="E11" s="42" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="12" spans="2:21" ht="27" customHeight="1">
-      <c r="B12" s="1">
-        <v>11</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>389</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="E12" s="42" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="13" spans="2:21" ht="27" customHeight="1">
-      <c r="B13" s="1">
-        <v>12</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="E13" s="42" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="16" spans="2:21" s="44" customFormat="1" ht="27" customHeight="1">
-      <c r="D16" s="44" t="s">
-        <v>565</v>
-      </c>
-      <c r="F16" s="44" t="s">
-        <v>658</v>
-      </c>
-      <c r="G16" s="67"/>
-      <c r="N16" s="44" t="s">
-        <v>566</v>
-      </c>
-      <c r="Q16" s="44" t="s">
-        <v>578</v>
-      </c>
-      <c r="T16" s="44" t="s">
-        <v>617</v>
-      </c>
-      <c r="U16" s="44" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="17" spans="2:21" ht="27" customHeight="1">
-      <c r="B17" s="1">
-        <v>1</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>385</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="E17" s="42" t="s">
-        <v>520</v>
-      </c>
-      <c r="M17" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="O17" s="42" t="s">
-        <v>520</v>
-      </c>
-      <c r="P17" s="28" t="s">
-        <v>385</v>
-      </c>
-      <c r="Q17" s="45" t="s">
-        <v>567</v>
-      </c>
-      <c r="R17" s="42" t="s">
-        <v>520</v>
-      </c>
-      <c r="S17" s="28" t="s">
-        <v>385</v>
-      </c>
-      <c r="T17" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="U17" s="42" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="18" spans="2:21" ht="27" customHeight="1">
-      <c r="B18" s="1">
-        <v>2</v>
-      </c>
-      <c r="C18" s="55" t="s">
-        <v>548</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="E18" s="42" t="s">
-        <v>655</v>
-      </c>
-      <c r="M18" s="35" t="s">
-        <v>548</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="O18" s="42" t="s">
-        <v>521</v>
-      </c>
-      <c r="P18" s="35" t="s">
-        <v>548</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="R18" s="42" t="s">
-        <v>521</v>
-      </c>
-      <c r="S18" s="35" t="s">
-        <v>548</v>
-      </c>
-      <c r="T18" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="U18" s="42" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="19" spans="2:21" ht="27" customHeight="1">
-      <c r="B19" s="1">
-        <v>3</v>
-      </c>
-      <c r="C19" s="56" t="s">
-        <v>660</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="E19" s="42" t="s">
-        <v>657</v>
-      </c>
-      <c r="M19" s="35" t="s">
-        <v>416</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="O19" s="42" t="s">
-        <v>632</v>
-      </c>
-      <c r="P19" s="35" t="s">
-        <v>416</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="R19" s="42" t="s">
-        <v>632</v>
-      </c>
-      <c r="S19" s="35" t="s">
-        <v>396</v>
-      </c>
-      <c r="T19" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="U19" s="42" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="20" spans="2:21" ht="27" customHeight="1">
-      <c r="B20" s="1">
-        <v>4</v>
-      </c>
-      <c r="C20" s="55" t="s">
-        <v>433</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="E20" s="42" t="s">
-        <v>632</v>
-      </c>
-      <c r="F20" s="35" t="s">
-        <v>406</v>
-      </c>
-      <c r="G20" s="66" t="s">
-        <v>537</v>
-      </c>
-      <c r="H20" s="42" t="s">
-        <v>632</v>
-      </c>
-      <c r="I20" s="42"/>
-      <c r="M20" s="35" t="s">
-        <v>426</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="O20" s="42" t="s">
-        <v>632</v>
-      </c>
-      <c r="P20" s="35" t="s">
-        <v>426</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="R20" s="42" t="s">
-        <v>632</v>
-      </c>
-      <c r="S20" s="35" t="s">
-        <v>416</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="U20" s="42" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="21" spans="2:21" ht="27" customHeight="1">
-      <c r="B21" s="1">
-        <v>5</v>
-      </c>
-      <c r="C21" s="55" t="s">
-        <v>409</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="E21" s="42" t="s">
-        <v>634</v>
-      </c>
-      <c r="F21" s="35" t="s">
-        <v>405</v>
-      </c>
-      <c r="G21" s="66" t="s">
-        <v>494</v>
-      </c>
-      <c r="H21" s="42" t="s">
-        <v>632</v>
-      </c>
-      <c r="I21" s="42"/>
-      <c r="M21" s="35" t="s">
-        <v>254</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="O21" s="42" t="s">
-        <v>631</v>
-      </c>
-      <c r="P21" s="35" t="s">
-        <v>386</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="R21" s="42" t="s">
-        <v>631</v>
-      </c>
-      <c r="S21" s="35" t="s">
-        <v>426</v>
-      </c>
-      <c r="T21" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="U21" s="42" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="22" spans="2:21" ht="27" customHeight="1">
-      <c r="B22" s="1">
-        <v>6</v>
-      </c>
-      <c r="C22" s="55" t="s">
-        <v>419</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="E22" s="42" t="s">
-        <v>632</v>
-      </c>
-      <c r="F22" s="35" t="s">
-        <v>403</v>
-      </c>
-      <c r="G22" s="66" t="s">
-        <v>553</v>
-      </c>
-      <c r="H22" s="42" t="s">
-        <v>632</v>
-      </c>
-      <c r="I22" s="42"/>
-      <c r="M22" s="35" t="s">
-        <v>255</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="O22" s="42" t="s">
-        <v>632</v>
-      </c>
-      <c r="P22" s="35" t="s">
-        <v>387</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="R22" s="42" t="s">
-        <v>632</v>
-      </c>
-      <c r="S22" s="28" t="s">
-        <v>410</v>
-      </c>
-      <c r="T22" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="U22" s="42" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="23" spans="2:21" ht="27" customHeight="1">
-      <c r="B23" s="1">
-        <v>7</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>432</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="E23" s="42" t="s">
-        <v>632</v>
-      </c>
-      <c r="F23" s="35" t="s">
-        <v>404</v>
-      </c>
-      <c r="G23" s="66" t="s">
-        <v>552</v>
-      </c>
-      <c r="H23" s="42" t="s">
-        <v>632</v>
-      </c>
-      <c r="I23" s="42"/>
-      <c r="M23" s="35" t="s">
-        <v>430</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="O23" s="42" t="s">
-        <v>632</v>
-      </c>
-      <c r="P23" s="35" t="s">
-        <v>431</v>
-      </c>
-      <c r="Q23" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="R23" s="42" t="s">
-        <v>632</v>
-      </c>
-      <c r="S23" s="28" t="s">
-        <v>411</v>
-      </c>
-      <c r="T23" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="U23" s="42" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="24" spans="2:21" ht="27" customHeight="1">
-      <c r="B24" s="1">
-        <v>8</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>413</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="E24" s="42" t="s">
-        <v>520</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="M24" s="35" t="s">
-        <v>217</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="O24" s="42" t="s">
-        <v>632</v>
-      </c>
-      <c r="P24" s="35" t="s">
-        <v>388</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="R24" s="42" t="s">
-        <v>632</v>
-      </c>
-      <c r="S24" s="28" t="s">
-        <v>412</v>
-      </c>
-      <c r="T24" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="U24" s="42" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="25" spans="2:21" ht="27" customHeight="1">
-      <c r="B25" s="1">
-        <v>9</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>414</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="E25" s="42" t="s">
-        <v>520</v>
-      </c>
-      <c r="M25" s="28" t="s">
-        <v>410</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="O25" s="42" t="s">
-        <v>633</v>
-      </c>
-      <c r="P25" s="28" t="s">
-        <v>410</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="R25" s="42" t="s">
-        <v>633</v>
-      </c>
-      <c r="S25" s="28" t="s">
-        <v>413</v>
-      </c>
-      <c r="T25" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="U25" s="42" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="26" spans="2:21" ht="27" customHeight="1">
-      <c r="B26" s="1">
-        <v>10</v>
-      </c>
-      <c r="C26" s="28"/>
-      <c r="E26" s="42"/>
-      <c r="M26" s="28" t="s">
-        <v>411</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="O26" s="42" t="s">
-        <v>632</v>
-      </c>
-      <c r="P26" s="28" t="s">
-        <v>411</v>
-      </c>
-      <c r="Q26" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="R26" s="42" t="s">
-        <v>632</v>
-      </c>
-      <c r="S26" s="28" t="s">
-        <v>418</v>
-      </c>
-      <c r="T26" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="U26" s="42" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="27" spans="2:21" ht="27" customHeight="1">
-      <c r="B27" s="1">
-        <v>11</v>
-      </c>
-      <c r="C27" s="28" t="s">
-        <v>415</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="E27" s="42" t="s">
-        <v>632</v>
-      </c>
-      <c r="M27" s="28" t="s">
-        <v>412</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="O27" s="42" t="s">
-        <v>632</v>
-      </c>
-      <c r="P27" s="28" t="s">
-        <v>412</v>
-      </c>
-      <c r="Q27" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="R27" s="42" t="s">
-        <v>632</v>
-      </c>
-      <c r="S27" s="28" t="s">
-        <v>397</v>
-      </c>
-      <c r="T27" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="U27" s="42" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="28" spans="2:21" ht="27" customHeight="1">
-      <c r="B28" s="1">
-        <v>12</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="E28" s="42" t="s">
-        <v>632</v>
-      </c>
-      <c r="M28" s="28" t="s">
-        <v>413</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="O28" s="42" t="s">
-        <v>520</v>
-      </c>
-      <c r="P28" s="28" t="s">
-        <v>414</v>
-      </c>
-      <c r="Q28" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="R28" s="42" t="s">
-        <v>520</v>
-      </c>
-      <c r="S28" s="28" t="s">
-        <v>398</v>
-      </c>
-      <c r="T28" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="U28" s="42" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="29" spans="2:21" ht="27" customHeight="1">
-      <c r="B29" s="1">
-        <v>13</v>
-      </c>
-      <c r="M29" s="28" t="s">
-        <v>429</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="O29" s="42" t="s">
-        <v>632</v>
-      </c>
-      <c r="P29" s="28" t="s">
-        <v>429</v>
-      </c>
-      <c r="Q29" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="R29" s="42" t="s">
-        <v>632</v>
-      </c>
-      <c r="S29" s="28" t="s">
-        <v>389</v>
-      </c>
-      <c r="T29" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="U29" s="42" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="30" spans="2:21" ht="27" customHeight="1">
-      <c r="B30" s="1">
-        <v>14</v>
-      </c>
-      <c r="M30" s="28" t="s">
-        <v>398</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="O30" s="42" t="s">
-        <v>523</v>
-      </c>
-      <c r="P30" s="28" t="s">
-        <v>398</v>
-      </c>
-      <c r="Q30" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="R30" s="42" t="s">
-        <v>523</v>
-      </c>
-      <c r="T30" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="U30" s="42" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="31" spans="2:21" ht="27" customHeight="1">
-      <c r="B31" s="1">
-        <v>15</v>
-      </c>
-      <c r="M31" s="28" t="s">
-        <v>389</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="O31" s="42" t="s">
-        <v>530</v>
-      </c>
-      <c r="P31" s="28" t="s">
-        <v>389</v>
-      </c>
-      <c r="Q31" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="R31" s="42" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="32" spans="2:21" ht="27" customHeight="1">
-      <c r="B32" s="1">
-        <v>16</v>
-      </c>
-      <c r="E32" s="35" t="s">
-        <v>406</v>
-      </c>
-      <c r="F32" s="35" t="s">
-        <v>405</v>
-      </c>
-      <c r="G32" s="68" t="s">
-        <v>403</v>
-      </c>
-      <c r="H32" s="35" t="s">
-        <v>404</v>
-      </c>
-      <c r="M32" s="31" t="s">
-        <v>555</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="O32" s="42" t="s">
-        <v>525</v>
-      </c>
-      <c r="P32" s="31" t="s">
-        <v>555</v>
-      </c>
-      <c r="Q32" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="R32" s="42" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" ht="27" customHeight="1">
-      <c r="B33" s="1">
-        <v>17</v>
-      </c>
-      <c r="D33" s="43"/>
-    </row>
-    <row r="34" spans="2:9" ht="27" customHeight="1">
-      <c r="D34" s="43"/>
-    </row>
-    <row r="35" spans="2:9" ht="27" customHeight="1">
-      <c r="C35" s="44"/>
-      <c r="D35" s="44" t="s">
-        <v>790</v>
-      </c>
-      <c r="E35" s="44"/>
-    </row>
-    <row r="36" spans="2:9" ht="27" customHeight="1">
-      <c r="C36" s="28" t="s">
-        <v>385</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="E36" s="70" t="s">
-        <v>520</v>
-      </c>
-      <c r="G36" s="68" t="s">
-        <v>791</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>537</v>
-      </c>
-      <c r="I36" s="70" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" ht="27" customHeight="1">
-      <c r="C37" s="55" t="s">
-        <v>548</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="E37" s="70" t="s">
-        <v>521</v>
-      </c>
-      <c r="G37" s="68" t="s">
-        <v>792</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>494</v>
-      </c>
-      <c r="I37" s="70" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" ht="27" customHeight="1">
-      <c r="C38" s="56" t="s">
-        <v>395</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>793</v>
-      </c>
-      <c r="E38" s="70" t="s">
-        <v>631</v>
-      </c>
-      <c r="G38" s="68" t="s">
-        <v>403</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>794</v>
-      </c>
-      <c r="I38" s="7" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" ht="27" customHeight="1">
-      <c r="C39" s="55" t="s">
-        <v>433</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>801</v>
-      </c>
-      <c r="E39" s="70" t="s">
-        <v>632</v>
-      </c>
-      <c r="G39" s="68" t="s">
-        <v>799</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>538</v>
-      </c>
-      <c r="I39" s="7" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" ht="27" customHeight="1">
-      <c r="C40" s="55" t="s">
-        <v>408</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>557</v>
-      </c>
-      <c r="E40" s="70" t="s">
-        <v>634</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>800</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>802</v>
-      </c>
-      <c r="I40" s="7"/>
-    </row>
-    <row r="41" spans="2:9" ht="27" customHeight="1">
-      <c r="C41" s="55" t="s">
-        <v>419</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="E41" s="70" t="s">
-        <v>632</v>
-      </c>
-      <c r="G41" s="66" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" ht="27" customHeight="1">
-      <c r="C42" s="28" t="s">
-        <v>636</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="E42" s="70" t="s">
-        <v>520</v>
-      </c>
-      <c r="G42" s="69" t="s">
-        <v>797</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>638</v>
-      </c>
-      <c r="I42" s="70" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" ht="27" customHeight="1">
-      <c r="C43" s="28" t="s">
-        <v>418</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>564</v>
-      </c>
-      <c r="E43" s="70" t="s">
-        <v>631</v>
-      </c>
-      <c r="G43" s="68" t="s">
-        <v>791</v>
-      </c>
-      <c r="H43" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="I43" s="70" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" ht="27" customHeight="1">
-      <c r="C44" s="28" t="s">
-        <v>398</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="E44" s="70" t="s">
-        <v>523</v>
-      </c>
-      <c r="G44" s="68" t="s">
-        <v>792</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>562</v>
-      </c>
-      <c r="I44" s="70" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" ht="27" customHeight="1">
-      <c r="C45" s="28" t="s">
-        <v>555</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>555</v>
-      </c>
-      <c r="E45" s="70" t="s">
-        <v>525</v>
-      </c>
-      <c r="G45" s="4"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-    </row>
-    <row r="46" spans="2:9" ht="27" customHeight="1">
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="G46" s="66" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" ht="27" customHeight="1">
-      <c r="G47" s="28" t="s">
-        <v>398</v>
-      </c>
-      <c r="H47" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="I47" s="70" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" ht="27" customHeight="1">
-      <c r="G48" s="28" t="s">
-        <v>796</v>
-      </c>
-      <c r="H48" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="I48" s="70" t="s">
-        <v>530</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/的施工单统计.xlsx
+++ b/的施工单统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="168" windowWidth="14808" windowHeight="7956" tabRatio="804" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="168" windowWidth="14808" windowHeight="7956" tabRatio="804" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="人员入机房工单 (2)" sheetId="14" r:id="rId1"/>
@@ -16,11 +16,12 @@
     <sheet name="设备重启工单" sheetId="6" r:id="rId7"/>
     <sheet name="机柜竣工工单" sheetId="12" r:id="rId8"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId9"/>
-    <sheet name="Sheet4" sheetId="10" r:id="rId10"/>
-    <sheet name="Sheet5" sheetId="13" r:id="rId11"/>
-    <sheet name="Sheet2" sheetId="8" r:id="rId12"/>
-    <sheet name="Sheet3" sheetId="9" r:id="rId13"/>
-    <sheet name="机柜布线规范" sheetId="11" r:id="rId14"/>
+    <sheet name="Sheet6" sheetId="15" r:id="rId10"/>
+    <sheet name="Sheet4" sheetId="10" r:id="rId11"/>
+    <sheet name="Sheet5" sheetId="13" r:id="rId12"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId13"/>
+    <sheet name="Sheet3" sheetId="9" r:id="rId14"/>
+    <sheet name="机柜布线规范" sheetId="11" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">业务工单!$A$3:$R$54</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2401" uniqueCount="825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2440" uniqueCount="836">
   <si>
     <t>客户编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3066,6 +3067,43 @@
   </si>
   <si>
     <t>20171030-2</t>
+  </si>
+  <si>
+    <t>ii.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>minSpareRows: 20,//显示空白行数</t>
+  </si>
+  <si>
+    <t>colHeaders: true,//是否显示表格头部字母表</t>
+  </si>
+  <si>
+    <t>contextMenu: true,//右键显示更多功能</t>
+  </si>
+  <si>
+    <t>manualColumnResize: true,//自定义列高</t>
+  </si>
+  <si>
+    <t>manualColumnMove: true,//是否能拖动列</t>
+  </si>
+  <si>
+    <t>manualRowMove: true,//是否能拖动行</t>
+  </si>
+  <si>
+    <t>columnSorting:true, //false/对象 //当值为true时，表示启用排序插件</t>
+  </si>
+  <si>
+    <t>rowHeaders: true,//是否显示列数字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>manualRowResize: true,//自定义行宽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3534,18 +3572,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3572,6 +3598,18 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3936,19 +3974,19 @@
       <c r="B1" s="61" t="s">
         <v>385</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="64" t="s">
         <v>548</v>
       </c>
-      <c r="D1" s="69" t="s">
+      <c r="D1" s="65" t="s">
         <v>395</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="64" t="s">
         <v>433</v>
       </c>
-      <c r="F1" s="68" t="s">
+      <c r="F1" s="64" t="s">
         <v>408</v>
       </c>
-      <c r="G1" s="68" t="s">
+      <c r="G1" s="64" t="s">
         <v>419</v>
       </c>
       <c r="H1" s="61" t="s">
@@ -4992,10 +5030,75 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:U49"/>
+  <dimension ref="C2:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="3" max="3" width="83" style="53" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:3">
+      <c r="C2" s="53" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3">
+      <c r="C3" s="53" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3">
+      <c r="C4" s="53" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3">
+      <c r="C5" s="53" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3">
+      <c r="C6" s="53" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7" s="53" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8" s="53" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9" s="53" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3">
+      <c r="C10" s="53" t="s">
+        <v>833</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:U51"/>
   <sheetViews>
     <sheetView topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36:C45"/>
+      <selection activeCell="C51" sqref="C51:N51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="27" customHeight="1"/>
@@ -5036,7 +5139,7 @@
       <c r="D2" s="58" t="s">
         <v>504</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="E2" s="62" t="s">
         <v>520</v>
       </c>
       <c r="J2" s="61" t="s">
@@ -5045,7 +5148,7 @@
       <c r="K2" s="58" t="s">
         <v>513</v>
       </c>
-      <c r="L2" s="66" t="s">
+      <c r="L2" s="62" t="s">
         <v>525</v>
       </c>
     </row>
@@ -5059,7 +5162,7 @@
       <c r="D3" s="58" t="s">
         <v>505</v>
       </c>
-      <c r="E3" s="66" t="s">
+      <c r="E3" s="62" t="s">
         <v>521</v>
       </c>
       <c r="J3" s="61" t="s">
@@ -5068,7 +5171,7 @@
       <c r="K3" s="58" t="s">
         <v>514</v>
       </c>
-      <c r="L3" s="66" t="s">
+      <c r="L3" s="62" t="s">
         <v>532</v>
       </c>
     </row>
@@ -5082,7 +5185,7 @@
       <c r="D4" s="58" t="s">
         <v>506</v>
       </c>
-      <c r="E4" s="66" t="s">
+      <c r="E4" s="62" t="s">
         <v>523</v>
       </c>
       <c r="J4" s="61" t="s">
@@ -5091,7 +5194,7 @@
       <c r="K4" s="58" t="s">
         <v>515</v>
       </c>
-      <c r="L4" s="66" t="s">
+      <c r="L4" s="62" t="s">
         <v>533</v>
       </c>
     </row>
@@ -5105,7 +5208,7 @@
       <c r="D5" s="58" t="s">
         <v>507</v>
       </c>
-      <c r="E5" s="66" t="s">
+      <c r="E5" s="62" t="s">
         <v>522</v>
       </c>
       <c r="J5" s="61" t="s">
@@ -5114,7 +5217,7 @@
       <c r="K5" s="58" t="s">
         <v>516</v>
       </c>
-      <c r="L5" s="66" t="s">
+      <c r="L5" s="62" t="s">
         <v>526</v>
       </c>
     </row>
@@ -5128,7 +5231,7 @@
       <c r="D6" s="58" t="s">
         <v>508</v>
       </c>
-      <c r="E6" s="66" t="s">
+      <c r="E6" s="62" t="s">
         <v>525</v>
       </c>
       <c r="J6" s="61" t="s">
@@ -5151,7 +5254,7 @@
       <c r="D7" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="E7" s="66" t="s">
+      <c r="E7" s="62" t="s">
         <v>524</v>
       </c>
       <c r="J7" s="61" t="s">
@@ -5160,7 +5263,7 @@
       <c r="K7" s="58" t="s">
         <v>518</v>
       </c>
-      <c r="L7" s="66" t="s">
+      <c r="L7" s="62" t="s">
         <v>526</v>
       </c>
     </row>
@@ -5174,13 +5277,13 @@
       <c r="D8" s="58" t="s">
         <v>531</v>
       </c>
-      <c r="E8" s="66" t="s">
+      <c r="E8" s="62" t="s">
         <v>526</v>
       </c>
       <c r="K8" s="58" t="s">
         <v>519</v>
       </c>
-      <c r="L8" s="66" t="s">
+      <c r="L8" s="62" t="s">
         <v>525</v>
       </c>
     </row>
@@ -5194,7 +5297,7 @@
       <c r="D9" s="58" t="s">
         <v>528</v>
       </c>
-      <c r="E9" s="66" t="s">
+      <c r="E9" s="62" t="s">
         <v>529</v>
       </c>
     </row>
@@ -5208,7 +5311,7 @@
       <c r="D10" s="58" t="s">
         <v>509</v>
       </c>
-      <c r="E10" s="66" t="s">
+      <c r="E10" s="62" t="s">
         <v>525</v>
       </c>
     </row>
@@ -5222,7 +5325,7 @@
       <c r="D11" s="58" t="s">
         <v>510</v>
       </c>
-      <c r="E11" s="66" t="s">
+      <c r="E11" s="62" t="s">
         <v>523</v>
       </c>
     </row>
@@ -5236,7 +5339,7 @@
       <c r="D12" s="58" t="s">
         <v>511</v>
       </c>
-      <c r="E12" s="66" t="s">
+      <c r="E12" s="62" t="s">
         <v>530</v>
       </c>
     </row>
@@ -5250,7 +5353,7 @@
       <c r="D13" s="58" t="s">
         <v>512</v>
       </c>
-      <c r="E13" s="66" t="s">
+      <c r="E13" s="62" t="s">
         <v>525</v>
       </c>
     </row>
@@ -5284,7 +5387,7 @@
       <c r="D17" s="58" t="s">
         <v>635</v>
       </c>
-      <c r="E17" s="66" t="s">
+      <c r="E17" s="62" t="s">
         <v>520</v>
       </c>
       <c r="M17" s="61" t="s">
@@ -5293,16 +5396,16 @@
       <c r="N17" s="58" t="s">
         <v>567</v>
       </c>
-      <c r="O17" s="66" t="s">
+      <c r="O17" s="62" t="s">
         <v>520</v>
       </c>
       <c r="P17" s="61" t="s">
         <v>385</v>
       </c>
-      <c r="Q17" s="67" t="s">
+      <c r="Q17" s="63" t="s">
         <v>567</v>
       </c>
-      <c r="R17" s="66" t="s">
+      <c r="R17" s="62" t="s">
         <v>520</v>
       </c>
       <c r="S17" s="61" t="s">
@@ -5311,7 +5414,7 @@
       <c r="T17" s="58" t="s">
         <v>620</v>
       </c>
-      <c r="U17" s="66" t="s">
+      <c r="U17" s="62" t="s">
         <v>520</v>
       </c>
     </row>
@@ -5319,13 +5422,13 @@
       <c r="B18" s="58">
         <v>2</v>
       </c>
-      <c r="C18" s="68" t="s">
+      <c r="C18" s="64" t="s">
         <v>548</v>
       </c>
       <c r="D18" s="58" t="s">
         <v>445</v>
       </c>
-      <c r="E18" s="66" t="s">
+      <c r="E18" s="62" t="s">
         <v>655</v>
       </c>
       <c r="M18" s="60" t="s">
@@ -5334,7 +5437,7 @@
       <c r="N18" s="58" t="s">
         <v>445</v>
       </c>
-      <c r="O18" s="66" t="s">
+      <c r="O18" s="62" t="s">
         <v>521</v>
       </c>
       <c r="P18" s="60" t="s">
@@ -5343,7 +5446,7 @@
       <c r="Q18" s="58" t="s">
         <v>613</v>
       </c>
-      <c r="R18" s="66" t="s">
+      <c r="R18" s="62" t="s">
         <v>521</v>
       </c>
       <c r="S18" s="60" t="s">
@@ -5352,7 +5455,7 @@
       <c r="T18" s="58" t="s">
         <v>621</v>
       </c>
-      <c r="U18" s="66" t="s">
+      <c r="U18" s="62" t="s">
         <v>521</v>
       </c>
     </row>
@@ -5360,13 +5463,13 @@
       <c r="B19" s="58">
         <v>3</v>
       </c>
-      <c r="C19" s="69" t="s">
+      <c r="C19" s="65" t="s">
         <v>660</v>
       </c>
       <c r="D19" s="58" t="s">
         <v>554</v>
       </c>
-      <c r="E19" s="66" t="s">
+      <c r="E19" s="62" t="s">
         <v>657</v>
       </c>
       <c r="M19" s="60" t="s">
@@ -5375,7 +5478,7 @@
       <c r="N19" s="58" t="s">
         <v>568</v>
       </c>
-      <c r="O19" s="66" t="s">
+      <c r="O19" s="62" t="s">
         <v>632</v>
       </c>
       <c r="P19" s="60" t="s">
@@ -5384,7 +5487,7 @@
       <c r="Q19" s="58" t="s">
         <v>612</v>
       </c>
-      <c r="R19" s="66" t="s">
+      <c r="R19" s="62" t="s">
         <v>632</v>
       </c>
       <c r="S19" s="60" t="s">
@@ -5393,7 +5496,7 @@
       <c r="T19" s="58" t="s">
         <v>622</v>
       </c>
-      <c r="U19" s="66" t="s">
+      <c r="U19" s="62" t="s">
         <v>631</v>
       </c>
     </row>
@@ -5401,13 +5504,13 @@
       <c r="B20" s="58">
         <v>4</v>
       </c>
-      <c r="C20" s="68" t="s">
+      <c r="C20" s="64" t="s">
         <v>433</v>
       </c>
       <c r="D20" s="58" t="s">
         <v>556</v>
       </c>
-      <c r="E20" s="66" t="s">
+      <c r="E20" s="62" t="s">
         <v>632</v>
       </c>
       <c r="F20" s="60" t="s">
@@ -5416,17 +5519,17 @@
       <c r="G20" s="58" t="s">
         <v>537</v>
       </c>
-      <c r="H20" s="66" t="s">
+      <c r="H20" s="62" t="s">
         <v>632</v>
       </c>
-      <c r="I20" s="66"/>
+      <c r="I20" s="62"/>
       <c r="M20" s="60" t="s">
         <v>426</v>
       </c>
       <c r="N20" s="58" t="s">
         <v>569</v>
       </c>
-      <c r="O20" s="66" t="s">
+      <c r="O20" s="62" t="s">
         <v>632</v>
       </c>
       <c r="P20" s="60" t="s">
@@ -5435,7 +5538,7 @@
       <c r="Q20" s="58" t="s">
         <v>611</v>
       </c>
-      <c r="R20" s="66" t="s">
+      <c r="R20" s="62" t="s">
         <v>632</v>
       </c>
       <c r="S20" s="60" t="s">
@@ -5444,7 +5547,7 @@
       <c r="T20" s="58" t="s">
         <v>623</v>
       </c>
-      <c r="U20" s="66" t="s">
+      <c r="U20" s="62" t="s">
         <v>632</v>
       </c>
     </row>
@@ -5452,13 +5555,13 @@
       <c r="B21" s="58">
         <v>5</v>
       </c>
-      <c r="C21" s="68" t="s">
+      <c r="C21" s="64" t="s">
         <v>409</v>
       </c>
       <c r="D21" s="58" t="s">
         <v>557</v>
       </c>
-      <c r="E21" s="66" t="s">
+      <c r="E21" s="62" t="s">
         <v>634</v>
       </c>
       <c r="F21" s="60" t="s">
@@ -5467,17 +5570,17 @@
       <c r="G21" s="58" t="s">
         <v>494</v>
       </c>
-      <c r="H21" s="66" t="s">
+      <c r="H21" s="62" t="s">
         <v>632</v>
       </c>
-      <c r="I21" s="66"/>
+      <c r="I21" s="62"/>
       <c r="M21" s="60" t="s">
         <v>254</v>
       </c>
       <c r="N21" s="58" t="s">
         <v>608</v>
       </c>
-      <c r="O21" s="66" t="s">
+      <c r="O21" s="62" t="s">
         <v>631</v>
       </c>
       <c r="P21" s="60" t="s">
@@ -5486,7 +5589,7 @@
       <c r="Q21" s="58" t="s">
         <v>609</v>
       </c>
-      <c r="R21" s="66" t="s">
+      <c r="R21" s="62" t="s">
         <v>631</v>
       </c>
       <c r="S21" s="60" t="s">
@@ -5495,7 +5598,7 @@
       <c r="T21" s="58" t="s">
         <v>624</v>
       </c>
-      <c r="U21" s="66" t="s">
+      <c r="U21" s="62" t="s">
         <v>632</v>
       </c>
     </row>
@@ -5503,13 +5606,13 @@
       <c r="B22" s="58">
         <v>6</v>
       </c>
-      <c r="C22" s="68" t="s">
+      <c r="C22" s="64" t="s">
         <v>419</v>
       </c>
       <c r="D22" s="58" t="s">
         <v>551</v>
       </c>
-      <c r="E22" s="66" t="s">
+      <c r="E22" s="62" t="s">
         <v>632</v>
       </c>
       <c r="F22" s="60" t="s">
@@ -5518,17 +5621,17 @@
       <c r="G22" s="58" t="s">
         <v>553</v>
       </c>
-      <c r="H22" s="66" t="s">
+      <c r="H22" s="62" t="s">
         <v>632</v>
       </c>
-      <c r="I22" s="66"/>
+      <c r="I22" s="62"/>
       <c r="M22" s="60" t="s">
         <v>255</v>
       </c>
       <c r="N22" s="58" t="s">
         <v>571</v>
       </c>
-      <c r="O22" s="66" t="s">
+      <c r="O22" s="62" t="s">
         <v>632</v>
       </c>
       <c r="P22" s="60" t="s">
@@ -5537,7 +5640,7 @@
       <c r="Q22" s="58" t="s">
         <v>610</v>
       </c>
-      <c r="R22" s="66" t="s">
+      <c r="R22" s="62" t="s">
         <v>632</v>
       </c>
       <c r="S22" s="61" t="s">
@@ -5546,7 +5649,7 @@
       <c r="T22" s="58" t="s">
         <v>625</v>
       </c>
-      <c r="U22" s="66" t="s">
+      <c r="U22" s="62" t="s">
         <v>633</v>
       </c>
     </row>
@@ -5560,7 +5663,7 @@
       <c r="D23" s="58" t="s">
         <v>544</v>
       </c>
-      <c r="E23" s="66" t="s">
+      <c r="E23" s="62" t="s">
         <v>632</v>
       </c>
       <c r="F23" s="60" t="s">
@@ -5569,17 +5672,17 @@
       <c r="G23" s="58" t="s">
         <v>552</v>
       </c>
-      <c r="H23" s="66" t="s">
+      <c r="H23" s="62" t="s">
         <v>632</v>
       </c>
-      <c r="I23" s="66"/>
+      <c r="I23" s="62"/>
       <c r="M23" s="60" t="s">
         <v>430</v>
       </c>
       <c r="N23" s="58" t="s">
         <v>572</v>
       </c>
-      <c r="O23" s="66" t="s">
+      <c r="O23" s="62" t="s">
         <v>632</v>
       </c>
       <c r="P23" s="60" t="s">
@@ -5588,7 +5691,7 @@
       <c r="Q23" s="58" t="s">
         <v>614</v>
       </c>
-      <c r="R23" s="66" t="s">
+      <c r="R23" s="62" t="s">
         <v>632</v>
       </c>
       <c r="S23" s="61" t="s">
@@ -5597,7 +5700,7 @@
       <c r="T23" s="58" t="s">
         <v>626</v>
       </c>
-      <c r="U23" s="66" t="s">
+      <c r="U23" s="62" t="s">
         <v>632</v>
       </c>
     </row>
@@ -5611,7 +5714,7 @@
       <c r="D24" s="58" t="s">
         <v>545</v>
       </c>
-      <c r="E24" s="66" t="s">
+      <c r="E24" s="62" t="s">
         <v>520</v>
       </c>
       <c r="H24" s="58" t="s">
@@ -5623,7 +5726,7 @@
       <c r="N24" s="58" t="s">
         <v>573</v>
       </c>
-      <c r="O24" s="66" t="s">
+      <c r="O24" s="62" t="s">
         <v>632</v>
       </c>
       <c r="P24" s="60" t="s">
@@ -5632,7 +5735,7 @@
       <c r="Q24" s="58" t="s">
         <v>615</v>
       </c>
-      <c r="R24" s="66" t="s">
+      <c r="R24" s="62" t="s">
         <v>632</v>
       </c>
       <c r="S24" s="61" t="s">
@@ -5641,7 +5744,7 @@
       <c r="T24" s="58" t="s">
         <v>627</v>
       </c>
-      <c r="U24" s="66" t="s">
+      <c r="U24" s="62" t="s">
         <v>632</v>
       </c>
     </row>
@@ -5655,7 +5758,7 @@
       <c r="D25" s="58" t="s">
         <v>546</v>
       </c>
-      <c r="E25" s="66" t="s">
+      <c r="E25" s="62" t="s">
         <v>520</v>
       </c>
       <c r="M25" s="61" t="s">
@@ -5664,7 +5767,7 @@
       <c r="N25" s="58" t="s">
         <v>574</v>
       </c>
-      <c r="O25" s="66" t="s">
+      <c r="O25" s="62" t="s">
         <v>633</v>
       </c>
       <c r="P25" s="61" t="s">
@@ -5673,7 +5776,7 @@
       <c r="Q25" s="58" t="s">
         <v>574</v>
       </c>
-      <c r="R25" s="66" t="s">
+      <c r="R25" s="62" t="s">
         <v>633</v>
       </c>
       <c r="S25" s="61" t="s">
@@ -5682,7 +5785,7 @@
       <c r="T25" s="58" t="s">
         <v>628</v>
       </c>
-      <c r="U25" s="66" t="s">
+      <c r="U25" s="62" t="s">
         <v>520</v>
       </c>
     </row>
@@ -5691,14 +5794,14 @@
         <v>10</v>
       </c>
       <c r="C26" s="61"/>
-      <c r="E26" s="66"/>
+      <c r="E26" s="62"/>
       <c r="M26" s="61" t="s">
         <v>411</v>
       </c>
       <c r="N26" s="58" t="s">
         <v>563</v>
       </c>
-      <c r="O26" s="66" t="s">
+      <c r="O26" s="62" t="s">
         <v>632</v>
       </c>
       <c r="P26" s="61" t="s">
@@ -5707,7 +5810,7 @@
       <c r="Q26" s="58" t="s">
         <v>563</v>
       </c>
-      <c r="R26" s="66" t="s">
+      <c r="R26" s="62" t="s">
         <v>632</v>
       </c>
       <c r="S26" s="61" t="s">
@@ -5716,7 +5819,7 @@
       <c r="T26" s="58" t="s">
         <v>629</v>
       </c>
-      <c r="U26" s="66" t="s">
+      <c r="U26" s="62" t="s">
         <v>631</v>
       </c>
     </row>
@@ -5730,7 +5833,7 @@
       <c r="D27" s="58" t="s">
         <v>550</v>
       </c>
-      <c r="E27" s="66" t="s">
+      <c r="E27" s="62" t="s">
         <v>632</v>
       </c>
       <c r="M27" s="61" t="s">
@@ -5739,7 +5842,7 @@
       <c r="N27" s="58" t="s">
         <v>562</v>
       </c>
-      <c r="O27" s="66" t="s">
+      <c r="O27" s="62" t="s">
         <v>632</v>
       </c>
       <c r="P27" s="61" t="s">
@@ -5748,7 +5851,7 @@
       <c r="Q27" s="58" t="s">
         <v>562</v>
       </c>
-      <c r="R27" s="66" t="s">
+      <c r="R27" s="62" t="s">
         <v>632</v>
       </c>
       <c r="S27" s="61" t="s">
@@ -5757,7 +5860,7 @@
       <c r="T27" s="58" t="s">
         <v>618</v>
       </c>
-      <c r="U27" s="66" t="s">
+      <c r="U27" s="62" t="s">
         <v>632</v>
       </c>
     </row>
@@ -5768,7 +5871,7 @@
       <c r="D28" s="58" t="s">
         <v>555</v>
       </c>
-      <c r="E28" s="66" t="s">
+      <c r="E28" s="62" t="s">
         <v>632</v>
       </c>
       <c r="M28" s="61" t="s">
@@ -5777,7 +5880,7 @@
       <c r="N28" s="58" t="s">
         <v>576</v>
       </c>
-      <c r="O28" s="66" t="s">
+      <c r="O28" s="62" t="s">
         <v>520</v>
       </c>
       <c r="P28" s="61" t="s">
@@ -5786,7 +5889,7 @@
       <c r="Q28" s="58" t="s">
         <v>616</v>
       </c>
-      <c r="R28" s="66" t="s">
+      <c r="R28" s="62" t="s">
         <v>520</v>
       </c>
       <c r="S28" s="61" t="s">
@@ -5795,7 +5898,7 @@
       <c r="T28" s="58" t="s">
         <v>630</v>
       </c>
-      <c r="U28" s="66" t="s">
+      <c r="U28" s="62" t="s">
         <v>523</v>
       </c>
     </row>
@@ -5809,7 +5912,7 @@
       <c r="N29" s="58" t="s">
         <v>577</v>
       </c>
-      <c r="O29" s="66" t="s">
+      <c r="O29" s="62" t="s">
         <v>632</v>
       </c>
       <c r="P29" s="61" t="s">
@@ -5818,7 +5921,7 @@
       <c r="Q29" s="58" t="s">
         <v>577</v>
       </c>
-      <c r="R29" s="66" t="s">
+      <c r="R29" s="62" t="s">
         <v>632</v>
       </c>
       <c r="S29" s="61" t="s">
@@ -5827,7 +5930,7 @@
       <c r="T29" s="58" t="s">
         <v>483</v>
       </c>
-      <c r="U29" s="66" t="s">
+      <c r="U29" s="62" t="s">
         <v>530</v>
       </c>
     </row>
@@ -5841,7 +5944,7 @@
       <c r="N30" s="58" t="s">
         <v>481</v>
       </c>
-      <c r="O30" s="66" t="s">
+      <c r="O30" s="62" t="s">
         <v>523</v>
       </c>
       <c r="P30" s="61" t="s">
@@ -5850,13 +5953,13 @@
       <c r="Q30" s="58" t="s">
         <v>481</v>
       </c>
-      <c r="R30" s="66" t="s">
+      <c r="R30" s="62" t="s">
         <v>523</v>
       </c>
       <c r="T30" s="58" t="s">
         <v>555</v>
       </c>
-      <c r="U30" s="66" t="s">
+      <c r="U30" s="62" t="s">
         <v>525</v>
       </c>
     </row>
@@ -5870,7 +5973,7 @@
       <c r="N31" s="58" t="s">
         <v>483</v>
       </c>
-      <c r="O31" s="66" t="s">
+      <c r="O31" s="62" t="s">
         <v>530</v>
       </c>
       <c r="P31" s="61" t="s">
@@ -5879,7 +5982,7 @@
       <c r="Q31" s="58" t="s">
         <v>483</v>
       </c>
-      <c r="R31" s="66" t="s">
+      <c r="R31" s="62" t="s">
         <v>530</v>
       </c>
     </row>
@@ -5899,49 +6002,49 @@
       <c r="H32" s="60" t="s">
         <v>404</v>
       </c>
-      <c r="M32" s="70" t="s">
+      <c r="M32" s="66" t="s">
         <v>555</v>
       </c>
       <c r="N32" s="58" t="s">
         <v>555</v>
       </c>
-      <c r="O32" s="66" t="s">
+      <c r="O32" s="62" t="s">
         <v>525</v>
       </c>
-      <c r="P32" s="70" t="s">
+      <c r="P32" s="66" t="s">
         <v>555</v>
       </c>
       <c r="Q32" s="58" t="s">
         <v>555</v>
       </c>
-      <c r="R32" s="66" t="s">
+      <c r="R32" s="62" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="27" customHeight="1">
+    <row r="33" spans="2:12" ht="27" customHeight="1">
       <c r="B33" s="58">
         <v>17</v>
       </c>
-      <c r="D33" s="71"/>
-    </row>
-    <row r="34" spans="2:9" ht="27" customHeight="1">
-      <c r="D34" s="71"/>
-    </row>
-    <row r="35" spans="2:9" ht="27" customHeight="1">
+      <c r="D33" s="67"/>
+    </row>
+    <row r="34" spans="2:12" ht="27" customHeight="1">
+      <c r="D34" s="67"/>
+    </row>
+    <row r="35" spans="2:12" ht="27" customHeight="1">
       <c r="C35" s="59"/>
       <c r="D35" s="59" t="s">
         <v>785</v>
       </c>
       <c r="E35" s="59"/>
     </row>
-    <row r="36" spans="2:9" ht="27" customHeight="1">
+    <row r="36" spans="2:12" ht="27" customHeight="1">
       <c r="C36" s="61" t="s">
         <v>385</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="E36" s="72" t="s">
+      <c r="E36" s="68" t="s">
         <v>798</v>
       </c>
       <c r="G36" s="60" t="s">
@@ -5950,18 +6053,27 @@
       <c r="H36" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="I36" s="72" t="s">
+      <c r="I36" s="68" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="37" spans="2:9" ht="27" customHeight="1">
-      <c r="C37" s="68" t="s">
+      <c r="J36" s="58" t="s">
+        <v>825</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="L36" s="58" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" ht="27" customHeight="1">
+      <c r="C37" s="64" t="s">
         <v>548</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="E37" s="72" t="s">
+      <c r="E37" s="68" t="s">
         <v>521</v>
       </c>
       <c r="G37" s="60" t="s">
@@ -5970,18 +6082,27 @@
       <c r="H37" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="I37" s="72" t="s">
+      <c r="I37" s="68" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="38" spans="2:9" ht="27" customHeight="1">
-      <c r="C38" s="69" t="s">
+      <c r="J37" s="58" t="s">
+        <v>825</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="L37" s="58" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" ht="27" customHeight="1">
+      <c r="C38" s="65" t="s">
         <v>395</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>788</v>
       </c>
-      <c r="E38" s="72" t="s">
+      <c r="E38" s="68" t="s">
         <v>799</v>
       </c>
       <c r="G38" s="60" t="s">
@@ -5993,15 +6114,24 @@
       <c r="I38" s="4" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="39" spans="2:9" ht="27" customHeight="1">
-      <c r="C39" s="68" t="s">
+      <c r="J38" s="58" t="s">
+        <v>825</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="L38" s="58" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" ht="27" customHeight="1">
+      <c r="C39" s="64" t="s">
         <v>433</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>796</v>
       </c>
-      <c r="E39" s="72" t="s">
+      <c r="E39" s="68" t="s">
         <v>632</v>
       </c>
       <c r="G39" s="60" t="s">
@@ -6013,15 +6143,24 @@
       <c r="I39" s="4" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="40" spans="2:9" ht="27" customHeight="1">
-      <c r="C40" s="68" t="s">
+      <c r="J39" s="58" t="s">
+        <v>825</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>796</v>
+      </c>
+      <c r="L39" s="58" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" ht="27" customHeight="1">
+      <c r="C40" s="64" t="s">
         <v>408</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="E40" s="72" t="s">
+      <c r="E40" s="68" t="s">
         <v>634</v>
       </c>
       <c r="G40" s="4" t="s">
@@ -6030,32 +6169,50 @@
       <c r="H40" s="4" t="s">
         <v>797</v>
       </c>
-      <c r="I40" s="72" t="s">
+      <c r="I40" s="68" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="41" spans="2:9" ht="27" customHeight="1">
-      <c r="C41" s="68" t="s">
+      <c r="J40" s="58" t="s">
+        <v>825</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="L40" s="58" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" ht="27" customHeight="1">
+      <c r="C41" s="64" t="s">
         <v>419</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>551</v>
       </c>
-      <c r="E41" s="72" t="s">
+      <c r="E41" s="68" t="s">
         <v>632</v>
       </c>
       <c r="G41" s="58" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="42" spans="2:9" ht="27" customHeight="1">
+      <c r="J41" s="58" t="s">
+        <v>825</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="L41" s="58" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" ht="27" customHeight="1">
       <c r="C42" s="61" t="s">
         <v>636</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>637</v>
       </c>
-      <c r="E42" s="72" t="s">
+      <c r="E42" s="68" t="s">
         <v>520</v>
       </c>
       <c r="G42" s="61" t="s">
@@ -6064,18 +6221,27 @@
       <c r="H42" s="4" t="s">
         <v>638</v>
       </c>
-      <c r="I42" s="72" t="s">
+      <c r="I42" s="68" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="43" spans="2:9" ht="27" customHeight="1">
+      <c r="J42" s="58" t="s">
+        <v>825</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="L42" s="58" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" ht="27" customHeight="1">
       <c r="C43" s="61" t="s">
         <v>418</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>564</v>
       </c>
-      <c r="E43" s="72" t="s">
+      <c r="E43" s="68" t="s">
         <v>799</v>
       </c>
       <c r="G43" s="60" t="s">
@@ -6084,18 +6250,27 @@
       <c r="H43" s="4" t="s">
         <v>563</v>
       </c>
-      <c r="I43" s="72" t="s">
+      <c r="I43" s="68" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="44" spans="2:9" ht="27" customHeight="1">
+      <c r="J43" s="58" t="s">
+        <v>825</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="L43" s="58" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" ht="27" customHeight="1">
       <c r="C44" s="61" t="s">
         <v>398</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="E44" s="72" t="s">
+      <c r="E44" s="68" t="s">
         <v>523</v>
       </c>
       <c r="G44" s="60" t="s">
@@ -6104,18 +6279,27 @@
       <c r="H44" s="4" t="s">
         <v>562</v>
       </c>
-      <c r="I44" s="72" t="s">
+      <c r="I44" s="68" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="45" spans="2:9" ht="27" customHeight="1">
+      <c r="J44" s="58" t="s">
+        <v>825</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="L44" s="58" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" ht="27" customHeight="1">
       <c r="C45" s="61" t="s">
         <v>555</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>555</v>
       </c>
-      <c r="E45" s="72" t="s">
+      <c r="E45" s="68" t="s">
         <v>525</v>
       </c>
       <c r="G45" s="4" t="s">
@@ -6127,8 +6311,17 @@
       <c r="I45" s="4" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="46" spans="2:9" ht="27" customHeight="1">
+      <c r="J45" s="58" t="s">
+        <v>825</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="L45" s="58" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" ht="27" customHeight="1">
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
@@ -6136,29 +6329,29 @@
         <v>802</v>
       </c>
     </row>
-    <row r="47" spans="2:9" ht="27" customHeight="1">
+    <row r="47" spans="2:12" ht="27" customHeight="1">
       <c r="G47" s="61" t="s">
         <v>398</v>
       </c>
       <c r="H47" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="I47" s="72" t="s">
+      <c r="I47" s="68" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="48" spans="2:9" ht="27" customHeight="1">
+    <row r="48" spans="2:12" ht="27" customHeight="1">
       <c r="G48" s="61" t="s">
         <v>791</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>803</v>
       </c>
-      <c r="I48" s="72" t="s">
+      <c r="I48" s="68" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="49" spans="7:9" ht="27" customHeight="1">
+    <row r="49" spans="3:14" ht="27" customHeight="1">
       <c r="G49" s="4" t="s">
         <v>800</v>
       </c>
@@ -6167,16 +6360,54 @@
       </c>
       <c r="I49" s="4" t="s">
         <v>790</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" ht="27" customHeight="1">
+      <c r="C51" s="58">
+        <v>20</v>
+      </c>
+      <c r="D51" s="58">
+        <v>20</v>
+      </c>
+      <c r="E51" s="58">
+        <v>20</v>
+      </c>
+      <c r="F51" s="58">
+        <v>20</v>
+      </c>
+      <c r="G51" s="58">
+        <v>20</v>
+      </c>
+      <c r="H51" s="58">
+        <v>20</v>
+      </c>
+      <c r="I51" s="58">
+        <v>20</v>
+      </c>
+      <c r="J51" s="58">
+        <v>20</v>
+      </c>
+      <c r="K51" s="58">
+        <v>20</v>
+      </c>
+      <c r="L51" s="58">
+        <v>20</v>
+      </c>
+      <c r="M51" s="58">
+        <v>20</v>
+      </c>
+      <c r="N51" s="58">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q4"/>
   <sheetViews>
@@ -6273,7 +6504,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G26"/>
   <sheetViews>
@@ -6734,7 +6965,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:R23"/>
   <sheetViews>
@@ -7138,7 +7369,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E12"/>
   <sheetViews>
@@ -7300,14 +7531,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="3.5546875" style="58" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" style="74" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" style="70" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.44140625" style="58" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5546875" style="58" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.33203125" style="58" bestFit="1" customWidth="1"/>
@@ -7323,19 +7554,19 @@
       <c r="B1" s="61" t="s">
         <v>385</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="64" t="s">
         <v>548</v>
       </c>
-      <c r="D1" s="69" t="s">
+      <c r="D1" s="65" t="s">
         <v>395</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="64" t="s">
         <v>433</v>
       </c>
-      <c r="F1" s="68" t="s">
+      <c r="F1" s="64" t="s">
         <v>408</v>
       </c>
-      <c r="G1" s="68" t="s">
+      <c r="G1" s="64" t="s">
         <v>419</v>
       </c>
       <c r="H1" s="61" t="s">
@@ -7355,7 +7586,7 @@
       <c r="A2" s="58">
         <v>1</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="69" t="s">
         <v>697</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -7388,7 +7619,7 @@
       <c r="A3" s="58">
         <v>2</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="69" t="s">
         <v>705</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -7421,7 +7652,7 @@
       <c r="A4" s="58">
         <v>3</v>
       </c>
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="69" t="s">
         <v>710</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -7454,7 +7685,7 @@
       <c r="A5" s="58">
         <v>4</v>
       </c>
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="69" t="s">
         <v>715</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -7487,7 +7718,7 @@
       <c r="A6" s="58">
         <v>5</v>
       </c>
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="69" t="s">
         <v>721</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -7520,7 +7751,7 @@
       <c r="A7" s="58">
         <v>6</v>
       </c>
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="69" t="s">
         <v>721</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -7553,7 +7784,7 @@
       <c r="A8" s="58">
         <v>7</v>
       </c>
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="69" t="s">
         <v>726</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -7586,7 +7817,7 @@
       <c r="A9" s="58">
         <v>8</v>
       </c>
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="69" t="s">
         <v>726</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -7619,7 +7850,7 @@
       <c r="A10" s="58">
         <v>9</v>
       </c>
-      <c r="B10" s="73" t="s">
+      <c r="B10" s="69" t="s">
         <v>726</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -7652,7 +7883,7 @@
       <c r="A11" s="58">
         <v>10</v>
       </c>
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="69" t="s">
         <v>732</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -7685,7 +7916,7 @@
       <c r="A12" s="58">
         <v>11</v>
       </c>
-      <c r="B12" s="73" t="s">
+      <c r="B12" s="69" t="s">
         <v>732</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -7718,7 +7949,7 @@
       <c r="A13" s="58">
         <v>12</v>
       </c>
-      <c r="B13" s="73" t="s">
+      <c r="B13" s="69" t="s">
         <v>735</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -7751,7 +7982,7 @@
       <c r="A14" s="58">
         <v>13</v>
       </c>
-      <c r="B14" s="73" t="s">
+      <c r="B14" s="69" t="s">
         <v>738</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -7786,7 +8017,7 @@
       <c r="A15" s="58">
         <v>14</v>
       </c>
-      <c r="B15" s="73" t="s">
+      <c r="B15" s="69" t="s">
         <v>738</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -7821,7 +8052,7 @@
       <c r="A16" s="58">
         <v>15</v>
       </c>
-      <c r="B16" s="73" t="s">
+      <c r="B16" s="69" t="s">
         <v>745</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -7854,7 +8085,7 @@
       <c r="A17" s="58">
         <v>16</v>
       </c>
-      <c r="B17" s="73" t="s">
+      <c r="B17" s="69" t="s">
         <v>745</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -7887,7 +8118,7 @@
       <c r="A18" s="58">
         <v>17</v>
       </c>
-      <c r="B18" s="73" t="s">
+      <c r="B18" s="69" t="s">
         <v>684</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -7920,7 +8151,7 @@
       <c r="A19" s="58">
         <v>18</v>
       </c>
-      <c r="B19" s="73" t="s">
+      <c r="B19" s="69" t="s">
         <v>684</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -7953,7 +8184,7 @@
       <c r="A20" s="58">
         <v>19</v>
       </c>
-      <c r="B20" s="73" t="s">
+      <c r="B20" s="69" t="s">
         <v>759</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -7986,7 +8217,7 @@
       <c r="A21" s="58">
         <v>20</v>
       </c>
-      <c r="B21" s="73" t="s">
+      <c r="B21" s="69" t="s">
         <v>759</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -8019,7 +8250,7 @@
       <c r="A22" s="58">
         <v>21</v>
       </c>
-      <c r="B22" s="73" t="s">
+      <c r="B22" s="69" t="s">
         <v>767</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -8052,7 +8283,7 @@
       <c r="A23" s="58">
         <v>22</v>
       </c>
-      <c r="B23" s="73" t="s">
+      <c r="B23" s="69" t="s">
         <v>773</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -8085,7 +8316,7 @@
       <c r="A24" s="58">
         <v>23</v>
       </c>
-      <c r="B24" s="73" t="s">
+      <c r="B24" s="69" t="s">
         <v>779</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -8115,11 +8346,11 @@
       <c r="K24" s="4"/>
     </row>
     <row r="25" spans="1:11" ht="33" customHeight="1">
-      <c r="B25" s="73"/>
+      <c r="B25" s="69"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
-      <c r="F25" s="73"/>
+      <c r="F25" s="69"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
@@ -8127,11 +8358,11 @@
       <c r="K25" s="4"/>
     </row>
     <row r="26" spans="1:11" ht="33" customHeight="1">
-      <c r="B26" s="73"/>
+      <c r="B26" s="69"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="73"/>
+      <c r="F26" s="69"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
@@ -8139,11 +8370,11 @@
       <c r="K26" s="4"/>
     </row>
     <row r="27" spans="1:11" ht="33" customHeight="1">
-      <c r="B27" s="73"/>
+      <c r="B27" s="69"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
-      <c r="F27" s="73"/>
+      <c r="F27" s="69"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
@@ -8151,11 +8382,11 @@
       <c r="K27" s="4"/>
     </row>
     <row r="28" spans="1:11" ht="33" customHeight="1">
-      <c r="B28" s="73"/>
+      <c r="B28" s="69"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="73"/>
+      <c r="F28" s="69"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
@@ -8163,11 +8394,11 @@
       <c r="K28" s="4"/>
     </row>
     <row r="29" spans="1:11" ht="33" customHeight="1">
-      <c r="B29" s="73"/>
+      <c r="B29" s="69"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
-      <c r="F29" s="73"/>
+      <c r="F29" s="69"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
@@ -8175,11 +8406,11 @@
       <c r="K29" s="4"/>
     </row>
     <row r="30" spans="1:11" ht="33" customHeight="1">
-      <c r="B30" s="73"/>
+      <c r="B30" s="69"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
-      <c r="F30" s="73"/>
+      <c r="F30" s="69"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
@@ -8187,11 +8418,11 @@
       <c r="K30" s="4"/>
     </row>
     <row r="31" spans="1:11" ht="33" customHeight="1">
-      <c r="B31" s="73"/>
+      <c r="B31" s="69"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="73"/>
+      <c r="F31" s="69"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
@@ -8199,11 +8430,11 @@
       <c r="K31" s="4"/>
     </row>
     <row r="32" spans="1:11" ht="33" customHeight="1">
-      <c r="B32" s="73"/>
+      <c r="B32" s="69"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="73"/>
+      <c r="F32" s="69"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
@@ -8211,11 +8442,11 @@
       <c r="K32" s="4"/>
     </row>
     <row r="33" spans="2:11" ht="33" customHeight="1">
-      <c r="B33" s="73"/>
+      <c r="B33" s="69"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
-      <c r="F33" s="73"/>
+      <c r="F33" s="69"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
@@ -8223,11 +8454,11 @@
       <c r="K33" s="4"/>
     </row>
     <row r="34" spans="2:11" ht="33" customHeight="1">
-      <c r="B34" s="73"/>
+      <c r="B34" s="69"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
-      <c r="F34" s="73"/>
+      <c r="F34" s="69"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
@@ -8279,16 +8510,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="33.75" customHeight="1">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="71" t="s">
         <v>322</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
     </row>
     <row r="3" spans="1:9" ht="28.8">
       <c r="B3" s="2" t="s">
@@ -9234,16 +9465,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="33.75" customHeight="1">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="71" t="s">
         <v>323</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
     </row>
     <row r="3" spans="1:10" ht="28.8">
       <c r="B3" s="2" t="s">
@@ -9942,22 +10173,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="33" customHeight="1">
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="73" t="s">
         <v>324</v>
       </c>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
     </row>
     <row r="3" spans="1:18" ht="33" customHeight="1">
       <c r="B3" s="2" t="s">
